--- a/results/results10.xlsx
+++ b/results/results10.xlsx
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -444,7 +444,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -458,7 +458,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -472,7 +472,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -480,13 +480,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.437244722866319</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>4919.466420875639</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -494,13 +494,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1.307900642776417</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>4919.459565639395</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -508,13 +508,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1.190196814891401</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>4919.453327336517</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -522,13 +522,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1.083085680859149</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>4919.447650446413</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -536,13 +536,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.985613956788427</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>4919.442484445037</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -584,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -718,13 +718,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1.437244722866318</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>4919.466420875639</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -760,13 +760,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>4918.383846905327</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>-1.0064</v>
+        <v>4918.383846905327</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>-1.0064</v>
+        <v>4918.383846905327</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>-1.0064</v>
+        <v>4918.383846905327</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>-1.0064</v>
+        <v>4918.383846905327</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>-1.0064</v>
+        <v>4918.383846905327</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>-1.0064</v>
+        <v>4918.383846905327</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>-1.0064</v>
+        <v>4918.383846905327</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>-1.0064</v>
+        <v>4918.383846905327</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>-1.0064</v>
+        <v>4918.383846905327</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>-1.0064</v>
+        <v>4918.383846905327</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>-1.0064</v>
+        <v>4918.383846905327</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>-1.0064</v>
+        <v>4918.383846905327</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>-1.0064</v>
+        <v>4918.383846905327</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>-1.0064</v>
+        <v>4918.383846905327</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>-1.0064</v>
+        <v>4918.383846905327</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>-1.0064</v>
+        <v>4918.383846905327</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>-1.0064</v>
+        <v>4918.383846905327</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1012,13 +1012,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>4919.782446905328</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1026,13 +1026,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>4919.782446905328</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1040,13 +1040,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>4919.782446905328</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1096,13 +1096,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>4919.782446905328</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1110,13 +1110,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>4919.782446905328</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1124,13 +1124,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>4919.782446905328</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1138,13 +1138,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>4919.782446905328</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1152,13 +1152,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>4919.782446905328</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1166,13 +1166,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>4919.782446905328</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1180,13 +1180,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>4919.782446905328</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1208,13 +1208,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>4919.782446905328</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1306,13 +1306,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>4919.782446905328</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1334,13 +1334,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>4919.782446905328</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1390,13 +1390,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>4919.782446905328</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1404,13 +1404,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>3.583702354332786</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>4919.580183130107</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1432,13 +1432,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7.4</v>
+        <v>7.141381009823029</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>0.296</v>
+        <v>4919.67590214572</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1446,13 +1446,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7.4</v>
+        <v>6.498696195893132</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>0.296</v>
+        <v>4919.650194753163</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1460,13 +1460,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7.4</v>
+        <v>5.913849462509269</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>0.296</v>
+        <v>4919.626800883828</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1474,13 +1474,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7.4</v>
+        <v>5.381635702146355</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>0.296</v>
+        <v>4919.605512333414</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1488,13 +1488,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7.4</v>
+        <v>4.897318238183161</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78">
-        <v>0.296</v>
+        <v>4919.586139634855</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1502,13 +1502,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7.4</v>
+        <v>4.456586668710401</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79">
-        <v>0.296</v>
+        <v>4919.568510372076</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1516,13 +1516,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7.4</v>
+        <v>4.055518504163111</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80">
-        <v>0.296</v>
+        <v>4919.552467645494</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1530,13 +1530,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7.4</v>
+        <v>3.690544257353956</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81">
-        <v>0.296</v>
+        <v>4919.537868675621</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1544,13 +1544,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7.4</v>
+        <v>3.358415675210658</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82">
-        <v>0.296</v>
+        <v>4919.524583532336</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1558,13 +1558,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7.4</v>
+        <v>3.056176829481366</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83">
-        <v>0.296</v>
+        <v>4919.512493978506</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1572,13 +1572,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7.4</v>
+        <v>2.781137809116764</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84">
-        <v>0.296</v>
+        <v>4919.501492417692</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1586,13 +1586,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7.4</v>
+        <v>2.530850780192381</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85">
-        <v>0.296</v>
+        <v>4919.491480936535</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1600,13 +1600,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7.4</v>
+        <v>2.303088200305531</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>0.296</v>
+        <v>4919.482370433339</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1614,13 +1614,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7.4</v>
+        <v>2.095822993556084</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>0.296</v>
+        <v>4919.47407982507</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1628,13 +1628,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7.4</v>
+        <v>1.907210509669447</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>0.296</v>
+        <v>4919.466535325714</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1642,13 +1642,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7.4</v>
+        <v>1.73557210669864</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>0.296</v>
+        <v>4919.459669789595</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1656,13 +1656,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7.4</v>
+        <v>1.579380211192536</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>0.296</v>
+        <v>4919.453422113775</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1670,13 +1670,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6.998516229760259</v>
+        <v>1.437244722866311</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>0.2799406491904104</v>
+        <v>4919.447736694242</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1684,13 +1684,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6.053774569557135</v>
+        <v>1.30790064277641</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>0.2421509827822854</v>
+        <v>4919.442562931038</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1698,13 +1698,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5.236565199802655</v>
+        <v>1.190196814891387</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93">
-        <v>0.2094626079921062</v>
+        <v>4919.437854777923</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1712,13 +1712,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>4.529672318767936</v>
+        <v>1.083085680859157</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94">
-        <v>0.1811868927507174</v>
+        <v>4919.433570332561</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1726,13 +1726,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>3.91820411520623</v>
+        <v>0.985613956788427</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95">
-        <v>0.1567281646082492</v>
+        <v>4919.429671463598</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1740,13 +1740,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>3.38927904890808</v>
+        <v>0</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
-        <v>0.1355711619563232</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1754,13 +1754,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>2.931754480780185</v>
+        <v>0</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97">
-        <v>0.1172701792312074</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1768,13 +1768,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>2.535991935613502</v>
+        <v>0</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98">
-        <v>0.1014396774245401</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1782,13 +1782,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>2.193654052431185</v>
+        <v>0</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99">
-        <v>0.08774616209724741</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1796,13 +1796,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1.8975289448559</v>
+        <v>0</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100">
-        <v>0.07590115779423599</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1810,13 +1810,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1.641378271371202</v>
+        <v>0</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
       <c r="D101">
-        <v>0.0656551308548481</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1824,13 +1824,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1.419805814837844</v>
+        <v>0</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="D102">
-        <v>0.05679223259351374</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1838,13 +1838,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>1.228143802685608</v>
+        <v>0</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103">
-        <v>0.04912575210742432</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1852,13 +1852,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1.06235457293667</v>
+        <v>0</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="D104">
-        <v>0.04249418291746679</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1866,13 +1866,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.918945514500443</v>
+        <v>0</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="D105">
-        <v>0.03675782058001772</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1880,13 +1880,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.7948954898232685</v>
+        <v>0</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106">
-        <v>0.03179581959293074</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1894,13 +1894,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.6875911898703464</v>
+        <v>0</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
       <c r="D107">
-        <v>0.02750364759481386</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1908,13 +1908,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.5947720806573287</v>
+        <v>0</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="D108">
-        <v>0.02379088322629315</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1922,13 +1922,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.5144827815437196</v>
+        <v>0</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109">
-        <v>0.02057931126174879</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1936,13 +1936,13 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.2967348753466013</v>
+        <v>0</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110">
-        <v>0.04035594304713777</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1984,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2110,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2160,13 +2160,13 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C126">
         <v>0</v>
       </c>
       <c r="D126">
-        <v>-1.0064</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2174,13 +2174,13 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C127">
         <v>0</v>
       </c>
       <c r="D127">
-        <v>-1.0064</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2188,13 +2188,13 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>4.631196766470659</v>
+        <v>0</v>
       </c>
       <c r="C128">
         <v>0</v>
       </c>
       <c r="D128">
-        <v>0.2454534286229449</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2202,13 +2202,13 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>4.006023604296999</v>
+        <v>0</v>
       </c>
       <c r="C129">
         <v>0</v>
       </c>
       <c r="D129">
-        <v>0.212319251027741</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2216,13 +2216,13 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>3.46524363515973</v>
+        <v>0</v>
       </c>
       <c r="C130">
         <v>0</v>
       </c>
       <c r="D130">
-        <v>0.1836579126634657</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2230,13 +2230,13 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>2.997464477776639</v>
+        <v>0</v>
       </c>
       <c r="C131">
         <v>0</v>
       </c>
       <c r="D131">
-        <v>0.1588656173221619</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2244,13 +2244,13 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>2.592831627874453</v>
+        <v>0</v>
       </c>
       <c r="C132">
         <v>0</v>
       </c>
       <c r="D132">
-        <v>0.137420076277346</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2258,13 +2258,13 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>2.242820857544473</v>
+        <v>0</v>
       </c>
       <c r="C133">
         <v>0</v>
       </c>
       <c r="D133">
-        <v>0.1188695054498571</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2272,13 +2272,13 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>1.580273649758681</v>
+        <v>0</v>
       </c>
       <c r="C134">
         <v>0</v>
       </c>
       <c r="D134">
-        <v>0.08375450343721008</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2286,13 +2286,13 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>1.726734799676343</v>
+        <v>0</v>
       </c>
       <c r="C135">
         <v>0</v>
       </c>
       <c r="D135">
-        <v>0.0915169443828462</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2300,13 +2300,13 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>1.493639919587366</v>
+        <v>0</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
       <c r="D136">
-        <v>0.07916291573813042</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2314,13 +2314,13 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>1.292010915517032</v>
+        <v>0</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137">
-        <v>0.06847657852240271</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2328,13 +2328,13 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>1.117600155113905</v>
+        <v>0</v>
       </c>
       <c r="C138">
         <v>0</v>
       </c>
       <c r="D138">
-        <v>0.05923280822103699</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2342,13 +2342,13 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.9667334011731583</v>
+        <v>0</v>
       </c>
       <c r="C139">
         <v>0</v>
       </c>
       <c r="D139">
-        <v>0.05123687026217739</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2356,13 +2356,13 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.8362324080462997</v>
+        <v>0</v>
       </c>
       <c r="C140">
         <v>0</v>
       </c>
       <c r="D140">
-        <v>0.04432031762645389</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2370,13 +2370,13 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.7233479668937832</v>
+        <v>0</v>
       </c>
       <c r="C141">
         <v>0</v>
       </c>
       <c r="D141">
-        <v>0.03833744224537051</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2384,13 +2384,13 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.6257019892732956</v>
+        <v>0</v>
       </c>
       <c r="C142">
         <v>0</v>
       </c>
       <c r="D142">
-        <v>0.03316220543148467</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2398,13 +2398,13 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.5412374089634335</v>
+        <v>0</v>
       </c>
       <c r="C143">
         <v>0</v>
       </c>
       <c r="D143">
-        <v>0.02868558267506198</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2412,13 +2412,13 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.4681748466257495</v>
+        <v>0</v>
       </c>
       <c r="C144">
         <v>0</v>
       </c>
       <c r="D144">
-        <v>0.02481326687116472</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>4919.390246905327</v>
       </c>
     </row>
   </sheetData>
@@ -2442,7 +2442,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2470,110 +2470,110 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.437244722866319</v>
       </c>
       <c r="E2">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>37.8112976</v>
+        <v>58.5194072</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.307900642776417</v>
       </c>
       <c r="E3">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>36.40978244848485</v>
+        <v>58.73020309268706</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.190196814891401</v>
       </c>
       <c r="E4">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>35.00826729696971</v>
+        <v>58.92202852029427</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.083085680859149</v>
       </c>
       <c r="E5">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>33.60675214545456</v>
+        <v>59.09659071981169</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.985613956788427</v>
       </c>
       <c r="E6">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>32.20523699393941</v>
+        <v>59.25544328633769</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2582,201 +2582,201 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>30.80372184242426</v>
+        <v>59.4</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>29.4022066909091</v>
+        <v>58.5194072</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>28.00069153939395</v>
+        <v>58.5194072</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>26.5991763878788</v>
+        <v>58.5194072</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>25.19766123636365</v>
+        <v>58.5194072</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>23.79614608484849</v>
+        <v>58.5194072</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>22.39463093333334</v>
+        <v>58.5194072</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1.437244722866318</v>
       </c>
       <c r="E14">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>20.99311578181819</v>
+        <v>58.5194072</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>19.59160063030304</v>
+        <v>58.73020309268706</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>18.19008547878789</v>
+        <v>58.73020309268706</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B17">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2785,18 +2785,18 @@
         <v>7.4</v>
       </c>
       <c r="F17">
-        <v>16.78857032727273</v>
+        <v>58.73020309268706</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B18">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2805,398 +2805,398 @@
         <v>7.4</v>
       </c>
       <c r="F18">
-        <v>15.38705517575758</v>
+        <v>57.32868794117191</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F19">
-        <v>13.98554002424243</v>
+        <v>55.92717278965677</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F20">
-        <v>13.98554002424243</v>
+        <v>54.52565763814162</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F21">
-        <v>13.98554002424243</v>
+        <v>53.12414248662647</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F22">
-        <v>13.98554002424243</v>
+        <v>51.72262733511132</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F23">
-        <v>13.98554002424243</v>
+        <v>50.32111218359617</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F24">
-        <v>13.98554002424243</v>
+        <v>48.91959703208102</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F25">
-        <v>13.98554002424243</v>
+        <v>47.51808188056587</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F26">
-        <v>13.98554002424243</v>
+        <v>46.11656672905072</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F27">
-        <v>13.98554002424243</v>
+        <v>44.71505157753558</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F28">
-        <v>13.98554002424243</v>
+        <v>43.31353642602043</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F29">
-        <v>13.98554002424243</v>
+        <v>41.91202127450528</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F30">
-        <v>13.98554002424243</v>
+        <v>40.51050612299013</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F31">
-        <v>13.98554002424243</v>
+        <v>39.10899097147498</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F32">
-        <v>13.98554002424243</v>
+        <v>37.70747581995983</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F33">
-        <v>13.98554002424243</v>
+        <v>36.30596066844468</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F34">
-        <v>13.98554002424243</v>
+        <v>34.90444551692953</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>13.98554002424243</v>
+        <v>33.50293036541439</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>13.98554002424243</v>
+        <v>34.58826369874772</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B37">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>13.98554002424243</v>
+        <v>35.67359703208105</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -3205,18 +3205,18 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>13.98554002424243</v>
+        <v>36.75893036541438</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -3225,18 +3225,18 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>13.98554002424243</v>
+        <v>36.75893036541438</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -3245,158 +3245,158 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>13.98554002424243</v>
+        <v>36.75893036541438</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>13.98554002424243</v>
+        <v>36.75893036541438</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>13.98554002424243</v>
+        <v>37.84426369874771</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>13.98554002424243</v>
+        <v>38.92959703208104</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>13.98554002424243</v>
+        <v>40.01493036541437</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B45">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>13.98554002424243</v>
+        <v>41.1002636987477</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>13.98554002424243</v>
+        <v>42.18559703208103</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>13.98554002424243</v>
+        <v>43.27093036541437</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -3405,18 +3405,18 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>13.98554002424243</v>
+        <v>44.3562636987477</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49">
         <v>7.4</v>
@@ -3425,138 +3425,138 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>13.98554002424243</v>
+        <v>44.3562636987477</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>15.07087335757576</v>
+        <v>45.44159703208103</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>16.15620669090909</v>
+        <v>45.44159703208103</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B52">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>17.24154002424243</v>
+        <v>45.44159703208103</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>18.32687335757576</v>
+        <v>45.44159703208103</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>19.4122066909091</v>
+        <v>45.44159703208103</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>20.49754002424243</v>
+        <v>45.44159703208103</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56">
         <v>7.4</v>
@@ -3565,38 +3565,38 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>21.58287335757577</v>
+        <v>45.44159703208103</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>22.6682066909091</v>
+        <v>46.52693036541436</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58">
         <v>7.4</v>
@@ -3605,78 +3605,78 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>23.75354002424244</v>
+        <v>46.52693036541436</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>24.83887335757577</v>
+        <v>47.61226369874769</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>25.92420669090911</v>
+        <v>47.61226369874769</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>27.00954002424244</v>
+        <v>47.61226369874769</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62">
         <v>7.4</v>
@@ -3685,498 +3685,498 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>28.09487335757577</v>
+        <v>47.61226369874769</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63">
-        <v>7.4</v>
+        <v>3.583702354332786</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>29.18020669090911</v>
+        <v>48.69759703208102</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>30.26554002424244</v>
+        <v>49.2232067107165</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65">
-        <v>7.4</v>
+        <v>7.141381009823029</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>31.35087335757578</v>
+        <v>49.2232067107165</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66">
-        <v>6.998516229760259</v>
+        <v>6.498696195893132</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>32.43620669090911</v>
+        <v>50.27060925882387</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67">
-        <v>6.053774569557135</v>
+        <v>5.913849462509269</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>33.46265573794062</v>
+        <v>51.22375136755487</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68">
-        <v>5.236565199802655</v>
+        <v>5.381635702146355</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>34.35054267480899</v>
+        <v>52.09111595538956</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69">
-        <v>4.529672318767936</v>
+        <v>4.897318238183161</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>35.11857223744671</v>
+        <v>52.88042252503769</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B70">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70">
-        <v>3.91820411520623</v>
+        <v>4.456586668710401</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>35.78292417753268</v>
+        <v>53.59869586663789</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71">
-        <v>3.38927904890808</v>
+        <v>4.055518504163111</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>36.35759411442959</v>
+        <v>54.25232857804875</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72">
-        <v>2.931754480780185</v>
+        <v>3.690544257353956</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>36.85468837493611</v>
+        <v>54.84713795865934</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73">
-        <v>2.535991935613502</v>
+        <v>3.358415675210658</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>37.2846790321172</v>
+        <v>55.38841778307125</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74">
-        <v>2.193654052431185</v>
+        <v>3.056176829481366</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>37.65662451600718</v>
+        <v>55.88098541543548</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75">
-        <v>1.8975289448559</v>
+        <v>2.781137809116764</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>37.97836044369709</v>
+        <v>56.32922468375941</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76">
-        <v>1.641378271371202</v>
+        <v>2.530850780192381</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>38.25666468894262</v>
+        <v>56.73712489576321</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77">
-        <v>1.419805814837844</v>
+        <v>2.303088200305531</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>38.49740016874373</v>
+        <v>57.10831634352476</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>1.228143802685608</v>
+        <v>2.095822993556084</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>38.70563835491995</v>
+        <v>57.4461026129029</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79">
-        <v>1.06235457293667</v>
+        <v>1.907210509669447</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>38.88576611264717</v>
+        <v>57.75348998529113</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80">
-        <v>0.918945514500443</v>
+        <v>1.73557210669864</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>39.04157811667788</v>
+        <v>58.03321419337598</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81">
-        <v>0.7948954898232685</v>
+        <v>1.579380211192536</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>39.17635679213794</v>
+        <v>58.28776476902511</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82">
-        <v>0.6875911898703464</v>
+        <v>1.437244722866311</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>39.29294146397869</v>
+        <v>58.51940720000002</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83">
-        <v>0.5947720806573287</v>
+        <v>1.30790064277641</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>39.39378817182634</v>
+        <v>58.73020309268708</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84">
-        <v>0.5144827815437196</v>
+        <v>1.190196814891387</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>39.48102141032275</v>
+        <v>58.92202852029428</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>0.2967348753466013</v>
+        <v>1.083085680859157</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>39.55647888494916</v>
+        <v>59.09659071981169</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>0.985613956788427</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>39.6</v>
+        <v>59.25544328633769</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -4185,607 +4185,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>39.6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>111</v>
-      </c>
-      <c r="B88">
-        <v>2016006216</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>39.6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>112</v>
-      </c>
-      <c r="B89">
-        <v>2016006216</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>39.6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>113</v>
-      </c>
-      <c r="B90">
-        <v>2016006216</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>39.6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>114</v>
-      </c>
-      <c r="B91">
-        <v>2016006216</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>39.6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>115</v>
-      </c>
-      <c r="B92">
-        <v>2016006216</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>39.6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>116</v>
-      </c>
-      <c r="B93">
-        <v>2016006216</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>39.6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>117</v>
-      </c>
-      <c r="B94">
-        <v>2016006216</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>39.6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>118</v>
-      </c>
-      <c r="B95">
-        <v>2016006216</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>39.6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>119</v>
-      </c>
-      <c r="B96">
-        <v>2016006216</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>39.6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>120</v>
-      </c>
-      <c r="B97">
-        <v>2016006216</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97">
-        <v>39.6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>124</v>
-      </c>
-      <c r="B98">
-        <v>2016006216</v>
-      </c>
-      <c r="C98">
-        <v>2</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98">
-        <v>7.4</v>
-      </c>
-      <c r="F98">
-        <v>37.8112976</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>125</v>
-      </c>
-      <c r="B99">
-        <v>2016006216</v>
-      </c>
-      <c r="C99">
-        <v>2</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <v>7.4</v>
-      </c>
-      <c r="F99">
-        <v>36.40978244848485</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>126</v>
-      </c>
-      <c r="B100">
-        <v>2016006216</v>
-      </c>
-      <c r="C100">
-        <v>2</v>
-      </c>
-      <c r="D100">
-        <v>4.631196766470659</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <v>35.00826729696971</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>127</v>
-      </c>
-      <c r="B101">
-        <v>2016006216</v>
-      </c>
-      <c r="C101">
-        <v>2</v>
-      </c>
-      <c r="D101">
-        <v>4.006023604296999</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101">
-        <v>35.68750948938541</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>128</v>
-      </c>
-      <c r="B102">
-        <v>2016006216</v>
-      </c>
-      <c r="C102">
-        <v>2</v>
-      </c>
-      <c r="D102">
-        <v>3.46524363515973</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102">
-        <v>36.27505961801563</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>129</v>
-      </c>
-      <c r="B103">
-        <v>2016006216</v>
-      </c>
-      <c r="C103">
-        <v>2</v>
-      </c>
-      <c r="D103">
-        <v>2.997464477776639</v>
-      </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="F103">
-        <v>36.78329535117239</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>130</v>
-      </c>
-      <c r="B104">
-        <v>2016006216</v>
-      </c>
-      <c r="C104">
-        <v>2</v>
-      </c>
-      <c r="D104">
-        <v>2.592831627874453</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104">
-        <v>37.22292347457963</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>131</v>
-      </c>
-      <c r="B105">
-        <v>2016006216</v>
-      </c>
-      <c r="C105">
-        <v>2</v>
-      </c>
-      <c r="D105">
-        <v>2.242820857544473</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105">
-        <v>37.60320544666789</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>132</v>
-      </c>
-      <c r="B106">
-        <v>2016006216</v>
-      </c>
-      <c r="C106">
-        <v>2</v>
-      </c>
-      <c r="D106">
-        <v>1.580273649758681</v>
-      </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106">
-        <v>37.93215250577441</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>133</v>
-      </c>
-      <c r="B107">
-        <v>2016006216</v>
-      </c>
-      <c r="C107">
-        <v>2</v>
-      </c>
-      <c r="D107">
-        <v>1.726734799676343</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107">
-        <v>38.16392597440569</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>134</v>
-      </c>
-      <c r="B108">
-        <v>2016006216</v>
-      </c>
-      <c r="C108">
-        <v>2</v>
-      </c>
-      <c r="D108">
-        <v>1.493639919587366</v>
-      </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108">
-        <v>38.41718041169155</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>135</v>
-      </c>
-      <c r="B109">
-        <v>2016006216</v>
-      </c>
-      <c r="C109">
-        <v>2</v>
-      </c>
-      <c r="D109">
-        <v>1.292010915517032</v>
-      </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-      <c r="F109">
-        <v>38.63624759989769</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>136</v>
-      </c>
-      <c r="B110">
-        <v>2016006216</v>
-      </c>
-      <c r="C110">
-        <v>2</v>
-      </c>
-      <c r="D110">
-        <v>1.117600155113905</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110">
-        <v>38.82574253417353</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>137</v>
-      </c>
-      <c r="B111">
-        <v>2016006216</v>
-      </c>
-      <c r="C111">
-        <v>2</v>
-      </c>
-      <c r="D111">
-        <v>0.9667334011731583</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
-        <v>38.98965722359023</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>138</v>
-      </c>
-      <c r="B112">
-        <v>2016006216</v>
-      </c>
-      <c r="C112">
-        <v>2</v>
-      </c>
-      <c r="D112">
-        <v>0.8362324080462997</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112">
-        <v>39.13144478909562</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>139</v>
-      </c>
-      <c r="B113">
-        <v>2016006216</v>
-      </c>
-      <c r="C113">
-        <v>2</v>
-      </c>
-      <c r="D113">
-        <v>0.7233479668937832</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113">
-        <v>39.25409220894242</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>140</v>
-      </c>
-      <c r="B114">
-        <v>2016006216</v>
-      </c>
-      <c r="C114">
-        <v>2</v>
-      </c>
-      <c r="D114">
-        <v>0.6257019892732956</v>
-      </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-      <c r="F114">
-        <v>39.36018324408683</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>141</v>
-      </c>
-      <c r="B115">
-        <v>2016006216</v>
-      </c>
-      <c r="C115">
-        <v>2</v>
-      </c>
-      <c r="D115">
-        <v>0.5412374089634335</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115">
-        <v>39.45195286918025</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>142</v>
-      </c>
-      <c r="B116">
-        <v>2016006216</v>
-      </c>
-      <c r="C116">
-        <v>2</v>
-      </c>
-      <c r="D116">
-        <v>0.4681748466257495</v>
-      </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-      <c r="F116">
-        <v>39.53133435582822</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>143</v>
-      </c>
-      <c r="B117">
-        <v>2016006216</v>
-      </c>
-      <c r="C117">
-        <v>2</v>
-      </c>
-      <c r="D117">
-        <v>0</v>
-      </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
-      <c r="F117">
-        <v>39.6</v>
+        <v>59.4</v>
       </c>
     </row>
   </sheetData>

--- a/results/results10.xlsx
+++ b/results/results10.xlsx
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -444,7 +444,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -458,7 +458,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -472,7 +472,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -480,13 +480,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.437244722866319</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4919.466420875639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -494,13 +494,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.307900642776417</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4919.459565639395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -508,13 +508,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.190196814891401</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4919.453327336517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -522,13 +522,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.083085680859149</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4919.447650446413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -536,13 +536,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.985613956788427</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4919.442484445037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -584,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -718,13 +718,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.437244722866318</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4919.466420875639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -760,13 +760,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>4918.383846905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -774,13 +774,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>4918.383846905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -788,13 +788,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>4918.383846905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -802,13 +802,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>4918.383846905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -816,13 +816,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>4918.383846905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -830,13 +830,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>4918.383846905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -844,13 +844,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>4918.383846905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -858,13 +858,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>4918.383846905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -872,13 +872,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>4918.383846905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -886,13 +886,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>4918.383846905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -900,13 +900,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>4918.383846905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -914,13 +914,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>4918.383846905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>4918.383846905327</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>4918.383846905327</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>4918.383846905327</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>4918.383846905327</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>4918.383846905327</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>4918.383846905327</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>4919.782446905328</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>4919.782446905328</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>4919.782446905328</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1054,13 +1054,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>4919.390246905327</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1068,13 +1068,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>4919.390246905327</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1082,13 +1082,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>4919.390246905327</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>4919.782446905328</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>4919.782446905328</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>4919.782446905328</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>4919.782446905328</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>4919.782446905328</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>4919.782446905328</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>4919.782446905328</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1194,13 +1194,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>4919.390246905327</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>4919.782446905328</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1222,13 +1222,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>4919.390246905327</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1236,13 +1236,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>4919.390246905327</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1250,13 +1250,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>4919.390246905327</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1264,13 +1264,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>4919.390246905327</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1278,13 +1278,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>4919.390246905327</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1292,13 +1292,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>4919.390246905327</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>4919.782446905328</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1320,13 +1320,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>4919.390246905327</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>4919.782446905328</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1348,13 +1348,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>4919.390246905327</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1362,13 +1362,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>4919.390246905327</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1376,13 +1376,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>4919.390246905327</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>4919.782446905328</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1404,13 +1404,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>3.583702354332786</v>
+        <v>7.4</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>4919.580183130107</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1418,13 +1418,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>4919.390246905327</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1432,13 +1432,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7.141381009823029</v>
+        <v>7.4</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>4919.67590214572</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1446,13 +1446,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6.498696195893132</v>
+        <v>7.4</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>4919.650194753163</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1460,13 +1460,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5.913849462509269</v>
+        <v>7.4</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>4919.626800883828</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1474,13 +1474,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5.381635702146355</v>
+        <v>7.4</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>4919.605512333414</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1488,13 +1488,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>4.897318238183161</v>
+        <v>7.4</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78">
-        <v>4919.586139634855</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1502,13 +1502,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>4.456586668710401</v>
+        <v>7.4</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79">
-        <v>4919.568510372076</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1516,13 +1516,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>4.055518504163111</v>
+        <v>7.4</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80">
-        <v>4919.552467645494</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1530,13 +1530,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>3.690544257353956</v>
+        <v>7.4</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81">
-        <v>4919.537868675621</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1544,13 +1544,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>3.358415675210658</v>
+        <v>7.4</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82">
-        <v>4919.524583532336</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1558,13 +1558,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>3.056176829481366</v>
+        <v>7.4</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83">
-        <v>4919.512493978506</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1572,13 +1572,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>2.781137809116764</v>
+        <v>7.4</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84">
-        <v>4919.501492417692</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1586,13 +1586,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>2.530850780192381</v>
+        <v>7.4</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85">
-        <v>4919.491480936535</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1600,13 +1600,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>2.303088200305531</v>
+        <v>7.226149787795471</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>4919.482370433339</v>
+        <v>0.2890459915118189</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1614,13 +1614,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>2.095822993556084</v>
+        <v>6.705898959513277</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>4919.47407982507</v>
+        <v>0.2682359583805311</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1628,13 +1628,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1.907210509669447</v>
+        <v>6.223103890145111</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>4919.466535325714</v>
+        <v>0.2489241556058045</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1642,13 +1642,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1.73557210669864</v>
+        <v>5.775067930690994</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>4919.459669789595</v>
+        <v>0.2310027172276398</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1656,13 +1656,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1.579380211192536</v>
+        <v>5.359288578953464</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>4919.453422113775</v>
+        <v>0.2143715431581386</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1670,13 +1670,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1.437244722866311</v>
+        <v>4.973443501826377</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>4919.447736694242</v>
+        <v>0.1989377400730551</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1684,13 +1684,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1.30790064277641</v>
+        <v>4.615377563917107</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>4919.442562931038</v>
+        <v>0.1846151025566843</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1698,13 +1698,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1.190196814891387</v>
+        <v>4.283090790050572</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93">
-        <v>4919.437854777923</v>
+        <v>0.1713236316020229</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1712,13 +1712,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1.083085680859157</v>
+        <v>3.974727194419735</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94">
-        <v>4919.433570332561</v>
+        <v>0.1589890877767894</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1726,13 +1726,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.985613956788427</v>
+        <v>3.688564413987876</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95">
-        <v>4919.429671463598</v>
+        <v>0.1475425765595151</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1740,13 +1740,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>3.42300408824007</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
-        <v>4919.390246905327</v>
+        <v>0.1369201635296028</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1754,13 +1754,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>3.176562931549967</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97">
-        <v>4919.390246905327</v>
+        <v>0.1270625172619987</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1768,13 +1768,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>2.947864448296748</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98">
-        <v>4919.390246905327</v>
+        <v>0.1179145779318699</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1782,13 +1782,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>2.735631244456961</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99">
-        <v>4919.390246905327</v>
+        <v>0.1094252497782784</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1796,13 +1796,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>2.53867789272779</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100">
-        <v>4919.390246905327</v>
+        <v>0.1015471157091116</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1810,13 +1810,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>2.355904311329859</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
       <c r="D101">
-        <v>4919.390246905327</v>
+        <v>0.09423617245319435</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1824,13 +1824,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>2.186289619506965</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="D102">
-        <v>4919.390246905327</v>
+        <v>0.0874515847802786</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1838,13 +1838,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>2.028886435402711</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103">
-        <v>4919.390246905327</v>
+        <v>0.08115545741610845</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1852,13 +1852,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>1.882815584464709</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="D104">
-        <v>4919.390246905327</v>
+        <v>0.07531262337858834</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1866,13 +1866,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>1.747261188820325</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="D105">
-        <v>4919.390246905327</v>
+        <v>0.06989044755281298</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1880,13 +1880,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>1.621466110195691</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106">
-        <v>4919.390246905327</v>
+        <v>0.06485864440782763</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1894,13 +1894,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>1.504727720924336</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
       <c r="D107">
-        <v>4919.390246905327</v>
+        <v>0.06018910883697345</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1908,13 +1908,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>1.396393979424509</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="D108">
-        <v>4919.390246905327</v>
+        <v>0.05585575917698037</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1922,13 +1922,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>1.295859788224817</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109">
-        <v>4919.390246905327</v>
+        <v>0.05183439152899268</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="D111">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1978,13 +1978,13 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>1.202563614195853</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113">
-        <v>4919.390246905327</v>
+        <v>0.163548651530636</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1992,13 +1992,13 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>1.115984352110239</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114">
-        <v>4919.390246905327</v>
+        <v>0.1517738718869925</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="D115">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="D116">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="D117">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="D118">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2062,13 +2062,13 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>0.355849258071089</v>
       </c>
       <c r="C119">
         <v>0</v>
       </c>
       <c r="D119">
-        <v>4919.390246905327</v>
+        <v>0.04839549909766811</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2076,13 +2076,13 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>1.010018841115205</v>
       </c>
       <c r="C120">
         <v>0</v>
       </c>
       <c r="D120">
-        <v>4919.390246905327</v>
+        <v>0.1373625623916679</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2090,13 +2090,13 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>0.9373019511943426</v>
       </c>
       <c r="C121">
         <v>0</v>
       </c>
       <c r="D121">
-        <v>4919.390246905327</v>
+        <v>0.1274730653624306</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2104,13 +2104,13 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>0.869820355769491</v>
       </c>
       <c r="C122">
         <v>0</v>
       </c>
       <c r="D122">
-        <v>4919.390246905327</v>
+        <v>0.1182955683846508</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2118,13 +2118,13 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>0.8071971367891635</v>
       </c>
       <c r="C123">
         <v>0</v>
       </c>
       <c r="D123">
-        <v>4919.390246905327</v>
+        <v>0.1097788106033262</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2132,13 +2132,13 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>0.7490825126347005</v>
       </c>
       <c r="C124">
         <v>0</v>
       </c>
       <c r="D124">
-        <v>4919.390246905327</v>
+        <v>0.1018752217183193</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2146,13 +2146,13 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>0.6951518844171574</v>
       </c>
       <c r="C125">
         <v>0</v>
       </c>
       <c r="D125">
-        <v>4919.390246905327</v>
+        <v>0.09454065628073341</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2160,13 +2160,13 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>0.6451040229320881</v>
       </c>
       <c r="C126">
         <v>0</v>
       </c>
       <c r="D126">
-        <v>4919.390246905327</v>
+        <v>0.087734147118764</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2174,13 +2174,13 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>0.5986593861456484</v>
       </c>
       <c r="C127">
         <v>0</v>
       </c>
       <c r="D127">
-        <v>4919.390246905327</v>
+        <v>0.08141767651580818</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2188,13 +2188,13 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>0.5555585578141944</v>
       </c>
       <c r="C128">
         <v>0</v>
       </c>
       <c r="D128">
-        <v>4919.390246905327</v>
+        <v>0.0294446035641523</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="D129">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="D130">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="D131">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="D132">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2264,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="D133">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="D134">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="D135">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="D136">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="D138">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2348,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="D139">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="D140">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="D141">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2390,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="D142">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2404,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="D143">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="D144">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="D145">
-        <v>4919.390246905327</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2442,7 +2442,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2470,110 +2470,110 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B2">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1.437244722866319</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F2">
-        <v>58.5194072</v>
+        <v>23.17925198327788</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B3">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1.307900642776417</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F3">
-        <v>58.73020309268706</v>
+        <v>21.77773683176273</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B4">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1.190196814891401</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F4">
-        <v>58.92202852029427</v>
+        <v>20.37622168024757</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B5">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1.083085680859149</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F5">
-        <v>59.09659071981169</v>
+        <v>18.97470652873242</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B6">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.985613956788427</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F6">
-        <v>59.25544328633769</v>
+        <v>17.57319137721727</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B7">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2582,561 +2582,561 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F7">
-        <v>59.4</v>
+        <v>16.17167622570212</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B8">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>58.5194072</v>
+        <v>14.77016107418697</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B9">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>58.5194072</v>
+        <v>15.8554944075203</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B10">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>58.5194072</v>
+        <v>16.94082774085363</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B11">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>58.5194072</v>
+        <v>18.02616107418697</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B12">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>58.5194072</v>
+        <v>19.1114944075203</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B13">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>58.5194072</v>
+        <v>20.19682774085364</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B14">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>1.437244722866318</v>
+        <v>7.4</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>58.5194072</v>
+        <v>21.28216107418697</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B15">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>58.73020309268706</v>
+        <v>22.3674944075203</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B16">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>58.73020309268706</v>
+        <v>23.45282774085364</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B17">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E17">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>58.73020309268706</v>
+        <v>24.53816107418697</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B18">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E18">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>57.32868794117191</v>
+        <v>25.62349440752031</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B19">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E19">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>55.92717278965677</v>
+        <v>26.70882774085364</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B20">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E20">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>54.52565763814162</v>
+        <v>27.79416107418698</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B21">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E21">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>53.12414248662647</v>
+        <v>28.87949440752031</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B22">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E22">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>51.72262733511132</v>
+        <v>29.96482774085365</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B23">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E23">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>50.32111218359617</v>
+        <v>31.05016107418698</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B24">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E24">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>48.91959703208102</v>
+        <v>32.13549440752031</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B25">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E25">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>47.51808188056587</v>
+        <v>33.22082774085364</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B26">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E26">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>46.11656672905072</v>
+        <v>34.30616107418697</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B27">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E27">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>44.71505157753558</v>
+        <v>35.39149440752031</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B28">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E28">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>43.31353642602043</v>
+        <v>36.47682774085364</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B29">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E29">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>41.91202127450528</v>
+        <v>37.56216107418697</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B30">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E30">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>40.51050612299013</v>
+        <v>38.6474944075203</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B31">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E31">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>39.10899097147498</v>
+        <v>39.73282774085363</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="B32">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E32">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>37.70747581995983</v>
+        <v>40.81816107418696</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="B33">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E33">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>36.30596066844468</v>
+        <v>41.90349440752029</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="B34">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E34">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>34.90444551692953</v>
+        <v>42.98882774085362</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="B35">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>7.4</v>
@@ -3145,18 +3145,18 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>33.50293036541439</v>
+        <v>44.07416107418695</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="B36">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>7.4</v>
@@ -3165,18 +3165,18 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>34.58826369874772</v>
+        <v>45.15949440752028</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B37">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>7.4</v>
@@ -3185,78 +3185,78 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>35.67359703208105</v>
+        <v>46.24482774085362</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="B38">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>36.75893036541438</v>
+        <v>47.33016107418695</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B39">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>36.75893036541438</v>
+        <v>48.41549440752028</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="B40">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>36.75893036541438</v>
+        <v>49.50082774085361</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="B41">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <v>7.4</v>
@@ -3265,18 +3265,18 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>36.75893036541438</v>
+        <v>50.58616107418694</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="B42">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <v>7.4</v>
@@ -3285,18 +3285,18 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>37.84426369874771</v>
+        <v>51.67149440752027</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="B43">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <v>7.4</v>
@@ -3305,18 +3305,18 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>38.92959703208104</v>
+        <v>52.7568277408536</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="B44">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44">
         <v>7.4</v>
@@ -3325,18 +3325,18 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>40.01493036541437</v>
+        <v>53.84216107418693</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B45">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45">
         <v>7.4</v>
@@ -3345,18 +3345,18 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>41.1002636987477</v>
+        <v>54.92749440752026</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="B46">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>7.4</v>
@@ -3365,18 +3365,18 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>42.18559703208103</v>
+        <v>56.0128277408536</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="B47">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47">
         <v>7.4</v>
@@ -3385,38 +3385,38 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>43.27093036541437</v>
+        <v>57.09816107418693</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="B48">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>44.3562636987477</v>
+        <v>58.18349440752026</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="B49">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49">
         <v>7.4</v>
@@ -3425,767 +3425,887 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>44.3562636987477</v>
+        <v>59.26882774085359</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="B50">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>7.226149787795471</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>45.44159703208103</v>
+        <v>60.35416107418692</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="B51">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>6.705898959513277</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>45.44159703208103</v>
+        <v>61.41399637639692</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B52">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>6.223103890145111</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>45.44159703208103</v>
+        <v>62.39752822379221</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="B53">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>5.775067930690994</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>45.44159703208103</v>
+        <v>63.31025012768016</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B54">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>5.359288578953464</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>45.44159703208103</v>
+        <v>64.15726009084817</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B55">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>4.973443501826377</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>45.44159703208103</v>
+        <v>64.94328908242801</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="B56">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>7.4</v>
+        <v>4.615377563917107</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>45.44159703208103</v>
+        <v>65.67272746269587</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="B57">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>4.283090790050572</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>46.52693036541436</v>
+        <v>66.34964950540372</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B58">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>7.4</v>
+        <v>3.974727194419735</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>46.52693036541436</v>
+        <v>66.97783615461114</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="B59">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>3.688564413987876</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>47.61226369874769</v>
+        <v>67.56079614312604</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="B60">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>3.42300408824007</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>47.61226369874769</v>
+        <v>68.10178559051093</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="B61">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>3.176562931549967</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>47.61226369874769</v>
+        <v>68.60382619011948</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="B62">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <v>7.4</v>
+        <v>2.947864448296748</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>47.61226369874769</v>
+        <v>69.06972208674681</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="B63">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>3.583702354332786</v>
+        <v>2.735631244456961</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>48.69759703208102</v>
+        <v>69.50207553916367</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="B64">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>2.53867789272779</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>49.2232067107165</v>
+        <v>69.90330145501736</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="B65">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>7.141381009823029</v>
+        <v>2.355904311329859</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>49.2232067107165</v>
+        <v>70.2756408792841</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="B66">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66">
-        <v>6.498696195893132</v>
+        <v>2.186289619506965</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>50.27060925882387</v>
+        <v>70.62117351161248</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="B67">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67">
-        <v>5.913849462509269</v>
+        <v>2.028886435402711</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>51.22375136755487</v>
+        <v>70.94182932247351</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="B68">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>5.381635702146355</v>
+        <v>1.882815584464709</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>52.09111595538956</v>
+        <v>71.23939933299924</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="B69">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>4.897318238183161</v>
+        <v>1.747261188820325</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>52.88042252503769</v>
+        <v>71.51554561872074</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="B70">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>4.456586668710401</v>
+        <v>1.621466110195691</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>53.59869586663789</v>
+        <v>71.77181059308106</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="B71">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>4.055518504163111</v>
+        <v>1.504727720924336</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>54.25232857804875</v>
+        <v>72.00962562257642</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="B72">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <v>3.690544257353956</v>
+        <v>1.396393979424509</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>54.84713795865934</v>
+        <v>72.23031902164533</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="B73">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D73">
-        <v>3.358415675210658</v>
+        <v>1.295859788224817</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>55.38841778307125</v>
+        <v>72.43512347196092</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="B74">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>3.056176829481366</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>55.88098541543548</v>
+        <v>72.62518290756722</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="B75">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75">
-        <v>2.781137809116764</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>56.32922468375941</v>
+        <v>72.62518290756722</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="B76">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>2.530850780192381</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>56.73712489576321</v>
+        <v>72.62518290756722</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="B77">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>2.303088200305531</v>
+        <v>1.202563614195853</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>57.10831634352476</v>
+        <v>72.62518290756722</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="B78">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <v>2.095822993556084</v>
+        <v>1.115984352110239</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>57.4461026129029</v>
+        <v>72.80155890431595</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="B79">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>1.907210509669447</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>57.75348998529113</v>
+        <v>72.96523660929212</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="B80">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>1.73557210669864</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>58.03321419337598</v>
+        <v>72.96523660929212</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="B81">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D81">
-        <v>1.579380211192536</v>
+        <v>0</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>58.28776476902511</v>
+        <v>72.96523660929212</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="B82">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>1.437244722866311</v>
+        <v>0</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>58.51940720000002</v>
+        <v>72.96523660929212</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="B83">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>1.30790064277641</v>
+        <v>0.355849258071089</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>58.73020309268708</v>
+        <v>72.96523660929212</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="B84">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>1.190196814891387</v>
+        <v>1.010018841115205</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>58.92202852029428</v>
+        <v>73.01742783380921</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="B85">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D85">
-        <v>1.083085680859157</v>
+        <v>0.9373019511943426</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>59.09659071981169</v>
+        <v>73.1655639305061</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B86">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D86">
-        <v>0.985613956788427</v>
+        <v>0.869820355769491</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>59.25544328633769</v>
+        <v>73.30303488334793</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="B87">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>0.8071971367891635</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
-        <v>59.4</v>
+        <v>73.43060853552745</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>122</v>
+      </c>
+      <c r="B88">
+        <v>2016004776</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>0.7490825126347005</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>73.5489974489232</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>123</v>
+      </c>
+      <c r="B89">
+        <v>2016004776</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>0.6951518844171574</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>73.65886288410962</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>124</v>
+      </c>
+      <c r="B90">
+        <v>2016004776</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>0.6451040229320881</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>73.76081849382413</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>125</v>
+      </c>
+      <c r="B91">
+        <v>2016004776</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>0.5986593861456484</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>73.85543375052083</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>126</v>
+      </c>
+      <c r="B92">
+        <v>2016004776</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>0.5555585578141944</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>73.94323712715553</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>127</v>
+      </c>
+      <c r="B93">
+        <v>2016004776</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>74.02471904896828</v>
       </c>
     </row>
   </sheetData>

--- a/results/results10.xlsx
+++ b/results/results10.xlsx
@@ -760,13 +760,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -774,13 +774,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -788,13 +788,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -802,13 +802,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -816,13 +816,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -830,13 +830,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -844,13 +844,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -858,13 +858,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -872,13 +872,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -886,13 +886,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -900,13 +900,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -914,13 +914,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1012,13 +1012,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1026,13 +1026,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1040,13 +1040,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1054,13 +1054,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1068,13 +1068,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1082,13 +1082,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1096,13 +1096,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1110,13 +1110,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1124,13 +1124,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1138,13 +1138,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1152,13 +1152,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1166,13 +1166,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1180,13 +1180,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1194,13 +1194,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1208,13 +1208,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1222,13 +1222,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1236,13 +1236,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1250,13 +1250,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1264,13 +1264,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1278,13 +1278,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1292,13 +1292,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1306,13 +1306,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1320,13 +1320,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1334,13 +1334,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1348,13 +1348,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1362,13 +1362,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1376,13 +1376,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1390,13 +1390,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1404,13 +1404,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1418,13 +1418,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1600,13 +1600,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7.226149787795471</v>
+        <v>7.4</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>0.2890459915118189</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1614,13 +1614,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6.705898959513277</v>
+        <v>7.4</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>0.2682359583805311</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1628,13 +1628,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6.223103890145111</v>
+        <v>7.4</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>0.2489241556058045</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1642,13 +1642,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5.775067930690994</v>
+        <v>7.4</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>0.2310027172276398</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1656,13 +1656,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5.359288578953464</v>
+        <v>7.4</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>0.2143715431581386</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1670,13 +1670,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>4.973443501826377</v>
+        <v>7.4</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>0.1989377400730551</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1684,13 +1684,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>4.615377563917107</v>
+        <v>7.4</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>0.1846151025566843</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1698,13 +1698,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>4.283090790050572</v>
+        <v>7.4</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93">
-        <v>0.1713236316020229</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1712,13 +1712,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>3.974727194419735</v>
+        <v>6.623783729068585</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94">
-        <v>0.1589890877767894</v>
+        <v>0.2649513491627434</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1726,13 +1726,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>3.688564413987876</v>
+        <v>5.13352392932789</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95">
-        <v>0.1475425765595151</v>
+        <v>0.2053409571731156</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1740,13 +1740,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>3.42300408824007</v>
+        <v>3.978551989451468</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
-        <v>0.1369201635296028</v>
+        <v>0.1591420795780587</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1754,13 +1754,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>3.176562931549967</v>
+        <v>3.083432774577638</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97">
-        <v>0.1270625172619987</v>
+        <v>0.1233373109831055</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1768,13 +1768,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>2.947864448296748</v>
+        <v>2.389703012690909</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98">
-        <v>0.1179145779318699</v>
+        <v>0.09558812050763635</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1782,13 +1782,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>2.735631244456961</v>
+        <v>1.852052860029104</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99">
-        <v>0.1094252497782784</v>
+        <v>0.07408211440116418</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1796,13 +1796,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>2.53867789272779</v>
+        <v>1.43536656150404</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100">
-        <v>0.1015471157091116</v>
+        <v>0.05741466246016159</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1810,13 +1810,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>2.355904311329859</v>
+        <v>1.112428921629991</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
       <c r="D101">
-        <v>0.09423617245319435</v>
+        <v>0.04449715686519966</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1824,13 +1824,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>2.186289619506965</v>
+        <v>0.8621477877972623</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="D102">
-        <v>0.0874515847802786</v>
+        <v>0.0344859115118905</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1838,13 +1838,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>2.028886435402711</v>
+        <v>0.6681764502442107</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103">
-        <v>0.08115545741610845</v>
+        <v>0.02672705800976843</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1852,13 +1852,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1.882815584464709</v>
+        <v>0.51784598299745</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="D104">
-        <v>0.07531262337858834</v>
+        <v>0.020713839319898</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1866,13 +1866,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1.747261188820325</v>
+        <v>0.4013377933457249</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="D105">
-        <v>0.06989044755281298</v>
+        <v>0.016053511733829</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1880,13 +1880,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1.621466110195691</v>
+        <v>0.3110423362469348</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106">
-        <v>0.06485864440782763</v>
+        <v>0.01244169344987739</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1894,13 +1894,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1.504727720924336</v>
+        <v>0.2410621091311214</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
       <c r="D107">
-        <v>0.06018910883697345</v>
+        <v>0.009642484365244855</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1908,13 +1908,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1.396393979424509</v>
+        <v>0.1868264660043337</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="D108">
-        <v>0.05585575917698037</v>
+        <v>0.00747305864017335</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1922,13 +1922,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1.295859788224817</v>
+        <v>0.1447930930558741</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109">
-        <v>0.05183439152899268</v>
+        <v>0.005791723722234963</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1936,13 +1936,13 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1950,13 +1950,13 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>-5.202731288711192</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>-0.7075714552647221</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1978,13 +1978,13 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>1.202563614195853</v>
+        <v>0</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113">
-        <v>0.163548651530636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1992,13 +1992,13 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>1.115984352110239</v>
+        <v>-7.4</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114">
-        <v>0.1517738718869925</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2006,13 +2006,13 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2020,13 +2020,13 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C116">
         <v>0</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2062,13 +2062,13 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.355849258071089</v>
+        <v>0</v>
       </c>
       <c r="C119">
         <v>0</v>
       </c>
       <c r="D119">
-        <v>0.04839549909766811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2076,13 +2076,13 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>1.010018841115205</v>
+        <v>0</v>
       </c>
       <c r="C120">
         <v>0</v>
       </c>
       <c r="D120">
-        <v>0.1373625623916679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2090,13 +2090,13 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.9373019511943426</v>
+        <v>-7.4</v>
       </c>
       <c r="C121">
         <v>0</v>
       </c>
       <c r="D121">
-        <v>0.1274730653624306</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2104,13 +2104,13 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.869820355769491</v>
+        <v>-7.4</v>
       </c>
       <c r="C122">
         <v>0</v>
       </c>
       <c r="D122">
-        <v>0.1182955683846508</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2118,13 +2118,13 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.8071971367891635</v>
+        <v>0</v>
       </c>
       <c r="C123">
         <v>0</v>
       </c>
       <c r="D123">
-        <v>0.1097788106033262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2132,13 +2132,13 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.7490825126347005</v>
+        <v>0</v>
       </c>
       <c r="C124">
         <v>0</v>
       </c>
       <c r="D124">
-        <v>0.1018752217183193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2146,13 +2146,13 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.6951518844171574</v>
+        <v>-7.4</v>
       </c>
       <c r="C125">
         <v>0</v>
       </c>
       <c r="D125">
-        <v>0.09454065628073341</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2160,13 +2160,13 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.6451040229320881</v>
+        <v>0</v>
       </c>
       <c r="C126">
         <v>0</v>
       </c>
       <c r="D126">
-        <v>0.087734147118764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2174,13 +2174,13 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.5986593861456484</v>
+        <v>0</v>
       </c>
       <c r="C127">
         <v>0</v>
       </c>
       <c r="D127">
-        <v>0.08141767651580818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2188,13 +2188,13 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.5555585578141944</v>
+        <v>7.4</v>
       </c>
       <c r="C128">
         <v>0</v>
       </c>
       <c r="D128">
-        <v>0.0294446035641523</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2202,13 +2202,13 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C129">
         <v>0</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2216,13 +2216,13 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C130">
         <v>0</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2230,13 +2230,13 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C131">
         <v>0</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2244,13 +2244,13 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C132">
         <v>0</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2258,13 +2258,13 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C133">
         <v>0</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2272,13 +2272,13 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>6.683815234130819</v>
       </c>
       <c r="C134">
         <v>0</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>0.3542422074089334</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2286,13 +2286,13 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>5.18004917537391</v>
       </c>
       <c r="C135">
         <v>0</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>0.2745426062948172</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2300,13 +2300,13 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>4.014609698106256</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>0.2127743139996316</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2314,13 +2314,13 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>3.111377997095062</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>0.1649030338460383</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2328,13 +2328,13 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>2.411360946339009</v>
       </c>
       <c r="C138">
         <v>0</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>0.1278021301559675</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2342,13 +2342,13 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>1.868838057914473</v>
       </c>
       <c r="C139">
         <v>0</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>0.0990484170694671</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2356,13 +2356,13 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>1.448375321833105</v>
       </c>
       <c r="C140">
         <v>0</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>0.07676389205715455</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2370,13 +2370,13 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>1.122510890663357</v>
       </c>
       <c r="C141">
         <v>0</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>0.0594930772051579</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2384,13 +2384,13 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>0.8699614531288091</v>
       </c>
       <c r="C142">
         <v>0</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>0.04610795701582689</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2398,13 +2398,13 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>0.6742321488593629</v>
       </c>
       <c r="C143">
         <v>0</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>0.03573430388954624</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2412,13 +2412,13 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>0.5225392331126737</v>
       </c>
       <c r="C144">
         <v>0</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>0.02769457935497171</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2442,7 +2442,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F145"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2470,10 +2470,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2482,18 +2482,18 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>23.17925198327788</v>
+        <v>23.22661515398081</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2502,18 +2502,18 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>21.77773683176273</v>
+        <v>23.22661515398081</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2522,18 +2522,18 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>20.37622168024757</v>
+        <v>23.22661515398081</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2542,18 +2542,18 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>18.97470652873242</v>
+        <v>23.22661515398081</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2562,18 +2562,18 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>17.57319137721727</v>
+        <v>23.22661515398081</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2582,1730 +2582,2770 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>16.17167622570212</v>
+        <v>23.22661515398081</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>14.77016107418697</v>
+        <v>23.22661515398081</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>15.8554944075203</v>
+        <v>23.22661515398081</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>16.94082774085363</v>
+        <v>23.22661515398081</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>18.02616107418697</v>
+        <v>23.22661515398081</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>19.1114944075203</v>
+        <v>23.22661515398081</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>20.19682774085364</v>
+        <v>23.22661515398081</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>21.28216107418697</v>
+        <v>23.22661515398081</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>22.3674944075203</v>
+        <v>23.22661515398081</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>23.45282774085364</v>
+        <v>23.22661515398081</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>24.53816107418697</v>
+        <v>23.22661515398081</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>25.62349440752031</v>
+        <v>23.22661515398081</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>26.70882774085364</v>
+        <v>23.22661515398081</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>27.79416107418698</v>
+        <v>23.22661515398081</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>28.87949440752031</v>
+        <v>23.22661515398081</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>29.96482774085365</v>
+        <v>23.22661515398081</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>31.05016107418698</v>
+        <v>23.22661515398081</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.13549440752031</v>
+        <v>23.22661515398081</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>33.22082774085364</v>
+        <v>23.22661515398081</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F26">
-        <v>34.30616107418697</v>
+        <v>23.22661515398081</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F27">
-        <v>35.39149440752031</v>
+        <v>21.82510000246566</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F28">
-        <v>36.47682774085364</v>
+        <v>20.4235848509505</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F29">
-        <v>37.56216107418697</v>
+        <v>19.02206969943535</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F30">
-        <v>38.6474944075203</v>
+        <v>17.6205545479202</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F31">
-        <v>39.73282774085363</v>
+        <v>16.21903939640505</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F32">
-        <v>40.81816107418696</v>
+        <v>14.8175242448899</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F33">
-        <v>41.90349440752029</v>
+        <v>13.41600909337474</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F34">
-        <v>42.98882774085362</v>
+        <v>12.01449394185959</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F35">
-        <v>44.07416107418695</v>
+        <v>10.61297879034444</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F36">
-        <v>45.15949440752028</v>
+        <v>9.211463638829287</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F37">
-        <v>46.24482774085362</v>
+        <v>7.809948487314135</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F38">
-        <v>47.33016107418695</v>
+        <v>6.408433335798984</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F39">
-        <v>48.41549440752028</v>
+        <v>5.006918184283832</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F40">
-        <v>49.50082774085361</v>
+        <v>3.605403032768681</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F41">
-        <v>50.58616107418694</v>
+        <v>2.20388788125353</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F42">
-        <v>51.67149440752027</v>
+        <v>0.8023727297383783</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F43">
-        <v>52.7568277408536</v>
+        <v>-0.5991424217767731</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>53.84216107418693</v>
+        <v>-2.000657573291925</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>54.92749440752026</v>
+        <v>-2.000657573291925</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>56.0128277408536</v>
+        <v>-2.000657573291925</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>57.09816107418693</v>
+        <v>-2.000657573291925</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>58.18349440752026</v>
+        <v>-2.000657573291925</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>59.26882774085359</v>
+        <v>-2.000657573291925</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50">
-        <v>7.226149787795471</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>60.35416107418692</v>
+        <v>-2.000657573291925</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51">
-        <v>6.705898959513277</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>61.41399637639692</v>
+        <v>-2.000657573291925</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52">
-        <v>6.223103890145111</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>62.39752822379221</v>
+        <v>-2.000657573291925</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53">
-        <v>5.775067930690994</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>63.31025012768016</v>
+        <v>-2.000657573291925</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B54">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54">
-        <v>5.359288578953464</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>64.15726009084817</v>
+        <v>-2.000657573291925</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55">
-        <v>4.973443501826377</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>64.94328908242801</v>
+        <v>-2.000657573291925</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56">
-        <v>4.615377563917107</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>65.67272746269587</v>
+        <v>-2.000657573291925</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57">
-        <v>4.283090790050572</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>66.34964950540372</v>
+        <v>-2.000657573291925</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58">
-        <v>3.974727194419735</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>66.97783615461114</v>
+        <v>-2.000657573291925</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59">
-        <v>3.688564413987876</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>67.56079614312604</v>
+        <v>-2.000657573291925</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="B60">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60">
-        <v>3.42300408824007</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>68.10178559051093</v>
+        <v>-2.000657573291925</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61">
-        <v>3.176562931549967</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>68.60382619011948</v>
+        <v>-2.000657573291925</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="B62">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62">
-        <v>2.947864448296748</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>69.06972208674681</v>
+        <v>-2.000657573291925</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63">
-        <v>2.735631244456961</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>69.50207553916367</v>
+        <v>-2.000657573291925</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="B64">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64">
-        <v>2.53867789272779</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>69.90330145501736</v>
+        <v>-2.000657573291925</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="B65">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65">
-        <v>2.355904311329859</v>
+        <v>0</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>70.2756408792841</v>
+        <v>-2.000657573291925</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="B66">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66">
-        <v>2.186289619506965</v>
+        <v>0</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>70.62117351161248</v>
+        <v>-2.000657573291925</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="B67">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67">
-        <v>2.028886435402711</v>
+        <v>0</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>70.94182932247351</v>
+        <v>-2.000657573291925</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="B68">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68">
-        <v>1.882815584464709</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>71.23939933299924</v>
+        <v>-2.000657573291925</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="B69">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69">
-        <v>1.747261188820325</v>
+        <v>0</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>71.51554561872074</v>
+        <v>-2.000657573291925</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="B70">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70">
-        <v>1.621466110195691</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>71.77181059308106</v>
+        <v>-2.000657573291925</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="B71">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71">
-        <v>1.504727720924336</v>
+        <v>0</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>72.00962562257642</v>
+        <v>-2.000657573291925</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B72">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72">
-        <v>1.396393979424509</v>
+        <v>0</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>72.23031902164533</v>
+        <v>-2.000657573291925</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B73">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73">
-        <v>1.295859788224817</v>
+        <v>0</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>72.43512347196092</v>
+        <v>-2.000657573291925</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="B74">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>72.62518290756722</v>
+        <v>-2.000657573291925</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="B75">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>72.62518290756722</v>
+        <v>-0.915324239958591</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="B76">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>72.62518290756722</v>
+        <v>0.1700090933747425</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="B77">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77">
-        <v>1.202563614195853</v>
+        <v>7.4</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>72.62518290756722</v>
+        <v>1.255342426708076</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="B78">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78">
-        <v>1.115984352110239</v>
+        <v>7.4</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>72.80155890431595</v>
+        <v>2.340675760041409</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="B79">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>72.96523660929212</v>
+        <v>3.426009093374743</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="B80">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>72.96523660929212</v>
+        <v>4.511342426708077</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="B81">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>72.96523660929212</v>
+        <v>5.596675760041411</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="B82">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>72.96523660929212</v>
+        <v>6.682009093374744</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="B83">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83">
-        <v>0.355849258071089</v>
+        <v>7.4</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>72.96523660929212</v>
+        <v>7.767342426708078</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="B84">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84">
-        <v>1.010018841115205</v>
+        <v>7.4</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>73.01742783380921</v>
+        <v>8.852675760041411</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="B85">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85">
-        <v>0.9373019511943426</v>
+        <v>7.4</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>73.1655639305061</v>
+        <v>9.938009093374744</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="B86">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86">
-        <v>0.869820355769491</v>
+        <v>7.4</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>73.30303488334793</v>
+        <v>11.02334242670808</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="B87">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87">
-        <v>0.8071971367891635</v>
+        <v>7.4</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
-        <v>73.43060853552745</v>
+        <v>12.10867576004141</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="B88">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88">
-        <v>0.7490825126347005</v>
+        <v>7.4</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88">
-        <v>73.5489974489232</v>
+        <v>13.19400909337474</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="B89">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89">
-        <v>0.6951518844171574</v>
+        <v>7.4</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>73.65886288410962</v>
+        <v>14.27934242670807</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="B90">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
       <c r="D90">
-        <v>0.6451040229320881</v>
+        <v>7.4</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>73.76081849382413</v>
+        <v>15.36467576004141</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="B91">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
       <c r="D91">
-        <v>0.5986593861456484</v>
+        <v>7.4</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>73.85543375052083</v>
+        <v>16.45000909337474</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="B92">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
       <c r="D92">
-        <v>0.5555585578141944</v>
+        <v>7.4</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92">
-        <v>73.94323712715553</v>
+        <v>17.53534242670808</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>2014008306</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>7.4</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>18.62067576004141</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>2014008306</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>6.623783729068585</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>19.70600909337475</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>2014008306</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>5.13352392932789</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>20.67749737363814</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>2014008306</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>3.978551989451468</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>21.43041421660623</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>2014008306</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>3.083432774577638</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>22.01393517505911</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>2014008306</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>2.389703012690909</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>22.46617198199717</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>2014008306</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>1.852052860029104</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>22.81666175719183</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>2014008306</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1.43536656150404</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>23.08829617666277</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>2014008306</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>1.112428921629991</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>23.29881660568336</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>2014008306</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>0.8621477877972623</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>23.46197284752243</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>2014008306</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>0.6681764502442107</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>23.58842118973269</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>2014008306</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>0.51784598299745</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>23.68642040243517</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>2014008306</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>0.4013377933457249</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>23.76237114660814</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>2014008306</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>0.3110423362469348</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>23.82123402296551</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>2014008306</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>0.2410621091311214</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>23.86685356561506</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>2014008306</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>0.1868264660043337</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>23.90220934162096</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>2014008306</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>0.1447930930558741</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>23.92961055663493</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>2014008306</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>7.4</v>
+      </c>
+      <c r="F110">
+        <v>23.95084687694979</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>2014008306</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>5.202731288711192</v>
+      </c>
+      <c r="F111">
+        <v>22.54933172543464</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>2014008306</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>21.56396595105752</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>2014008306</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>21.56396595105752</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>2014008306</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>7.4</v>
+      </c>
+      <c r="F114">
+        <v>21.56396595105752</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>2014008306</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>7.4</v>
+      </c>
+      <c r="F115">
+        <v>20.16245079954237</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>2014008306</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>7.4</v>
+      </c>
+      <c r="F116">
+        <v>18.76093564802721</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>2014008306</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>17.35942049651206</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>2014008306</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>17.35942049651206</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>2014008306</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>17.35942049651206</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>2014008306</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>17.35942049651206</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>2014008306</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>7.4</v>
+      </c>
+      <c r="F121">
+        <v>17.35942049651206</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>2014008306</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>7.4</v>
+      </c>
+      <c r="F122">
+        <v>15.95790534499691</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>2014008306</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>14.55639019348176</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>2014008306</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>14.55639019348176</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>2014008306</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>7.4</v>
+      </c>
+      <c r="F125">
+        <v>14.55639019348176</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>2014008306</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>13.15487504196661</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>2014008306</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>13.15487504196661</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>2014008306</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>7.4</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>13.15487504196661</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
         <v>127</v>
       </c>
-      <c r="B93">
-        <v>2016004776</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>74.02471904896828</v>
+      <c r="B129">
+        <v>2014008306</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>7.4</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>14.24020837529994</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>2014008306</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>7.4</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>15.32554170863327</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>2014008306</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>7.4</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>16.41087504196661</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>2014008306</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>7.4</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>17.49620837529994</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>2014008306</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>7.4</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>18.58154170863327</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>2014008306</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>6.683815234130819</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>19.66687504196661</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>2014008306</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>5.18004917537391</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>20.64716794297247</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>2014008306</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>4.014609698106256</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>21.40690848869397</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>2014008306</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>3.111377997095062</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>21.99571791108289</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>2014008306</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>2.411360946339009</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>22.45205335065684</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>2014008306</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>1.868838057914473</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>22.80571962278656</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>2014008306</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>1.448375321833105</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>23.07981587128069</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>2014008306</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>1.122510890663357</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>23.29224425181621</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>2014008306</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>0.8699614531288091</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>23.45687918244684</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>2014008306</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>0.6742321488593629</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>23.58447352890573</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>2014008306</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>0.5225392331126737</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>23.68336091073844</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>2014008306</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>23.75999999826163</v>
       </c>
     </row>
   </sheetData>

--- a/results/results10.xlsx
+++ b/results/results10.xlsx
@@ -760,13 +760,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>-1.0064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -774,13 +774,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>-1.0064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -788,13 +788,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>-1.0064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -802,13 +802,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>-1.0064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -816,13 +816,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>-1.0064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -830,13 +830,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>-1.0064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -844,13 +844,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>-1.0064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -858,13 +858,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>-1.0064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1026,13 +1026,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1138,13 +1138,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1152,13 +1152,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>3.496209451062242</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>0.1852991009062989</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1166,13 +1166,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1180,13 +1180,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1404,13 +1404,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1642,13 +1642,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7.4</v>
+        <v>6.734040906578219</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>0.296</v>
+        <v>0.2693616362631288</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1656,13 +1656,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7.4</v>
+        <v>6.128014450198489</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>0.296</v>
+        <v>0.2451205780079395</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1670,13 +1670,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7.4</v>
+        <v>5.576527024829602</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>0.296</v>
+        <v>0.2230610809931841</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1684,13 +1684,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7.4</v>
+        <v>5.07467041916777</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>0.296</v>
+        <v>0.2029868167667108</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1698,13 +1698,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7.4</v>
+        <v>4.617978133794352</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93">
-        <v>0.296</v>
+        <v>0.1847191253517741</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1712,13 +1712,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6.623783729068585</v>
+        <v>4.202385629547962</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94">
-        <v>0.2649513491627434</v>
+        <v>0.1680954251819185</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1726,13 +1726,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5.13352392932789</v>
+        <v>3.824194153323305</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95">
-        <v>0.2053409571731156</v>
+        <v>0.1529677661329322</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1740,13 +1740,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>3.978551989451468</v>
+        <v>3.480037819348162</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
-        <v>0.1591420795780587</v>
+        <v>0.1392015127739265</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1754,13 +1754,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>3.083432774577638</v>
+        <v>3.166853652963482</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97">
-        <v>0.1233373109831055</v>
+        <v>0.1266741461185393</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1768,13 +1768,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>2.389703012690909</v>
+        <v>2.881854330297671</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98">
-        <v>0.09558812050763635</v>
+        <v>0.1152741732119068</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1782,13 +1782,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1.852052860029104</v>
+        <v>2.622503371219473</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99">
-        <v>0.07408211440116418</v>
+        <v>0.1049001348487789</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1796,13 +1796,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1.43536656150404</v>
+        <v>2.386492564788</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100">
-        <v>0.05741466246016159</v>
+        <v>0.09545970259152001</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1810,13 +1810,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1.112428921629991</v>
+        <v>2.171721426287455</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
       <c r="D101">
-        <v>0.04449715686519966</v>
+        <v>0.0868688570514982</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1824,13 +1824,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.8621477877972623</v>
+        <v>1.976278503015152</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="D102">
-        <v>0.0344859115118905</v>
+        <v>0.07905114012060609</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1838,13 +1838,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.6681764502442107</v>
+        <v>1.798424362445303</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103">
-        <v>0.02672705800976843</v>
+        <v>0.07193697449781211</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1852,13 +1852,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.51784598299745</v>
+        <v>1.636576111363986</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="D104">
-        <v>0.020713839319898</v>
+        <v>0.06546304445455946</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1866,13 +1866,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.4013377933457249</v>
+        <v>1.489293308196459</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="D105">
-        <v>0.016053511733829</v>
+        <v>0.05957173232785834</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1880,13 +1880,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.3110423362469348</v>
+        <v>1.355265143147051</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106">
-        <v>0.01244169344987739</v>
+        <v>0.05421060572588204</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1894,13 +1894,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.2410621091311214</v>
+        <v>1.233298772055647</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
       <c r="D107">
-        <v>0.009642484365244855</v>
+        <v>0.0493319508822259</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1908,13 +1908,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.1868264660043337</v>
+        <v>1.122308700142625</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="D108">
-        <v>0.00747305864017335</v>
+        <v>0.044892348005705</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1922,13 +1922,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.1447930930558741</v>
+        <v>1.021307121157982</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109">
-        <v>0.005791723722234963</v>
+        <v>0.04085228484631927</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1936,13 +1936,13 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110">
-        <v>-1.0064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1950,13 +1950,13 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-5.202731288711192</v>
+        <v>0</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111">
-        <v>-0.7075714552647221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1992,13 +1992,13 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114">
-        <v>-1.0064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2006,13 +2006,13 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
       <c r="D115">
-        <v>-1.0064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2020,13 +2020,13 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C116">
         <v>0</v>
       </c>
       <c r="D116">
-        <v>-1.0064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2034,13 +2034,13 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>0.929395125953711</v>
       </c>
       <c r="C117">
         <v>0</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>0.1263977371297047</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2076,13 +2076,13 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>0.845754702236043</v>
       </c>
       <c r="C120">
         <v>0</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>0.1150226395041019</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2090,13 +2090,13 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-7.4</v>
+        <v>0.3890969659360621</v>
       </c>
       <c r="C121">
         <v>0</v>
       </c>
       <c r="D121">
-        <v>-1.0064</v>
+        <v>0.05291718736730446</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2104,13 +2104,13 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C122">
         <v>0</v>
       </c>
       <c r="D122">
-        <v>-1.0064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2146,13 +2146,13 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C125">
         <v>0</v>
       </c>
       <c r="D125">
-        <v>-1.0064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2188,13 +2188,13 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C128">
         <v>0</v>
       </c>
       <c r="D128">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2202,13 +2202,13 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C129">
         <v>0</v>
       </c>
       <c r="D129">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2216,13 +2216,13 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C130">
         <v>0</v>
       </c>
       <c r="D130">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2230,13 +2230,13 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C131">
         <v>0</v>
       </c>
       <c r="D131">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2244,13 +2244,13 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C132">
         <v>0</v>
       </c>
       <c r="D132">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2258,13 +2258,13 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C133">
         <v>0</v>
       </c>
       <c r="D133">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2272,13 +2272,13 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6.683815234130819</v>
+        <v>0</v>
       </c>
       <c r="C134">
         <v>0</v>
       </c>
       <c r="D134">
-        <v>0.3542422074089334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2286,13 +2286,13 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>5.18004917537391</v>
+        <v>0</v>
       </c>
       <c r="C135">
         <v>0</v>
       </c>
       <c r="D135">
-        <v>0.2745426062948172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2300,13 +2300,13 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>4.014609698106256</v>
+        <v>0</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
       <c r="D136">
-        <v>0.2127743139996316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2314,13 +2314,13 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>3.111377997095062</v>
+        <v>0</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137">
-        <v>0.1649030338460383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2328,13 +2328,13 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>2.411360946339009</v>
+        <v>0</v>
       </c>
       <c r="C138">
         <v>0</v>
       </c>
       <c r="D138">
-        <v>0.1278021301559675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2342,13 +2342,13 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>1.868838057914473</v>
+        <v>0</v>
       </c>
       <c r="C139">
         <v>0</v>
       </c>
       <c r="D139">
-        <v>0.0990484170694671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2356,13 +2356,13 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>1.448375321833105</v>
+        <v>0</v>
       </c>
       <c r="C140">
         <v>0</v>
       </c>
       <c r="D140">
-        <v>0.07676389205715455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2370,13 +2370,13 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>1.122510890663357</v>
+        <v>0</v>
       </c>
       <c r="C141">
         <v>0</v>
       </c>
       <c r="D141">
-        <v>0.0594930772051579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2384,13 +2384,13 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.8699614531288091</v>
+        <v>0</v>
       </c>
       <c r="C142">
         <v>0</v>
       </c>
       <c r="D142">
-        <v>0.04610795701582689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2398,13 +2398,13 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.6742321488593629</v>
+        <v>0</v>
       </c>
       <c r="C143">
         <v>0</v>
       </c>
       <c r="D143">
-        <v>0.03573430388954624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2412,13 +2412,13 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.5225392331126737</v>
+        <v>4.973178109386595</v>
       </c>
       <c r="C144">
         <v>0</v>
       </c>
       <c r="D144">
-        <v>0.02769457935497171</v>
+        <v>0.2635784397974896</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2442,7 +2442,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F145"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2470,10 +2470,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B2">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2482,18 +2482,18 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F2">
-        <v>23.22661515398081</v>
+        <v>40.88104079566241</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B3">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2502,18 +2502,18 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F3">
-        <v>23.22661515398081</v>
+        <v>39.47952564414726</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B4">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2522,18 +2522,18 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F4">
-        <v>23.22661515398081</v>
+        <v>38.07801049263211</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B5">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2542,18 +2542,18 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F5">
-        <v>23.22661515398081</v>
+        <v>36.67649534111696</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B6">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2562,18 +2562,18 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F6">
-        <v>23.22661515398081</v>
+        <v>35.27498018960181</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B7">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2582,18 +2582,18 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F7">
-        <v>23.22661515398081</v>
+        <v>33.87346503808666</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B8">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2602,18 +2602,18 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F8">
-        <v>23.22661515398081</v>
+        <v>32.47194988657152</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B9">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2622,18 +2622,18 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F9">
-        <v>23.22661515398081</v>
+        <v>31.07043473505636</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B10">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2642,18 +2642,18 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F10">
-        <v>23.22661515398081</v>
+        <v>29.66891958354121</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B11">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2662,18 +2662,18 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F11">
-        <v>23.22661515398081</v>
+        <v>28.26740443202606</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B12">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2685,35 +2685,35 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>23.22661515398081</v>
+        <v>26.86588928051091</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B13">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>23.22661515398081</v>
+        <v>26.86588928051091</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B14">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2725,15 +2725,15 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>23.22661515398081</v>
+        <v>27.95122261384424</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B15">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2745,15 +2745,15 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>23.22661515398081</v>
+        <v>27.95122261384424</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B16">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2765,15 +2765,15 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>23.22661515398081</v>
+        <v>27.95122261384424</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B17">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2785,15 +2785,15 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>23.22661515398081</v>
+        <v>27.95122261384424</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B18">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2805,15 +2805,15 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>23.22661515398081</v>
+        <v>27.95122261384424</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B19">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2825,15 +2825,15 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>23.22661515398081</v>
+        <v>27.95122261384424</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B20">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2845,95 +2845,95 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>23.22661515398081</v>
+        <v>27.95122261384424</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B21">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>23.22661515398081</v>
+        <v>27.95122261384424</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B22">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>3.496209451062242</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>23.22661515398081</v>
+        <v>29.03655594717758</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B23">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>23.22661515398081</v>
+        <v>29.54933333333337</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B24">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>23.22661515398081</v>
+        <v>30.6346666666667</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B25">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2945,15 +2945,15 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>23.22661515398081</v>
+        <v>31.72000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B26">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2962,18 +2962,18 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>23.22661515398081</v>
+        <v>31.72000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B27">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2982,18 +2982,18 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>21.82510000246566</v>
+        <v>31.72000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="B28">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -3002,18 +3002,18 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>20.4235848509505</v>
+        <v>31.72000000000004</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="B29">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -3022,18 +3022,18 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>19.02206969943535</v>
+        <v>31.72000000000004</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B30">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3042,18 +3042,18 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>17.6205545479202</v>
+        <v>31.72000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B31">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3062,18 +3062,18 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>16.21903939640505</v>
+        <v>31.72000000000004</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="B32">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3082,18 +3082,18 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>14.8175242448899</v>
+        <v>31.72000000000004</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B33">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3102,18 +3102,18 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>13.41600909337474</v>
+        <v>31.72000000000004</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B34">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3122,18 +3122,18 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>12.01449394185959</v>
+        <v>31.72000000000004</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B35">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3142,18 +3142,18 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>10.61297879034444</v>
+        <v>31.72000000000004</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B36">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3162,18 +3162,18 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>9.211463638829287</v>
+        <v>31.72000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B37">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3182,18 +3182,18 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>7.809948487314135</v>
+        <v>31.72000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B38">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -3202,18 +3202,18 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>6.408433335798984</v>
+        <v>31.72000000000004</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B39">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -3222,38 +3222,38 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>5.006918184283832</v>
+        <v>31.72000000000004</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B40">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E40">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>3.605403032768681</v>
+        <v>31.72000000000004</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B41">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -3262,2090 +3262,1030 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>2.20388788125353</v>
+        <v>32.80533333333337</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B42">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E42">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.8023727297383783</v>
+        <v>32.80533333333337</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B43">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E43">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>-0.5991424217767731</v>
+        <v>33.8906666666667</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B44">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>-2.000657573291925</v>
+        <v>34.97600000000003</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="B45">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>-2.000657573291925</v>
+        <v>36.06133333333337</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B46">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>-2.000657573291925</v>
+        <v>37.1466666666667</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B47">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>-2.000657573291925</v>
+        <v>38.23200000000003</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B48">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>-2.000657573291925</v>
+        <v>39.31733333333336</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="B49">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>-2.000657573291925</v>
+        <v>40.40266666666669</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B50">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>-2.000657573291925</v>
+        <v>41.48800000000002</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="B51">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>-2.000657573291925</v>
+        <v>42.57333333333335</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="B52">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>-2.000657573291925</v>
+        <v>43.65866666666668</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="B53">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>-2.000657573291925</v>
+        <v>44.74400000000001</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="B54">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>-2.000657573291925</v>
+        <v>45.82933333333335</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="B55">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>-2.000657573291925</v>
+        <v>46.91466666666668</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="B56">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>-2.000657573291925</v>
+        <v>48.00000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="B57">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>6.734040906578219</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>-2.000657573291925</v>
+        <v>49.08533333333334</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="B58">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>6.128014450198489</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>-2.000657573291925</v>
+        <v>50.07299266629814</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="B59">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>5.576527024829602</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>-2.000657573291925</v>
+        <v>50.97176811899392</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="B60">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>5.07467041916777</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>-2.000657573291925</v>
+        <v>51.78965874930226</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="B61">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>4.617978133794352</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>-2.000657573291925</v>
+        <v>52.53394374411354</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="B62">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>4.202385629547962</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>-2.000657573291925</v>
+        <v>53.2112472037367</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="B63">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>3.824194153323305</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>-2.000657573291925</v>
+        <v>53.82759709607041</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="B64">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>3.480037819348162</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>-2.000657573291925</v>
+        <v>54.38847890522449</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="B65">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>3.166853652963482</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>-2.000657573291925</v>
+        <v>54.89888445206222</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="B66">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>2.881854330297671</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>-2.000657573291925</v>
+        <v>55.36335632116353</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="B67">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>2.622503371219473</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-2.000657573291925</v>
+        <v>55.78602828960719</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="B68">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>2.386492564788</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>-2.000657573291925</v>
+        <v>56.17066211738604</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="B69">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>2.171721426287455</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>-2.000657573291925</v>
+        <v>56.52068102688828</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="B70">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>1.976278503015152</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>-2.000657573291925</v>
+        <v>56.83920016941045</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="B71">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>1.798424362445303</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>-2.000657573291925</v>
+        <v>57.12905434985267</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="B72">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>1.636576111363986</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>-2.000657573291925</v>
+        <v>57.39282325634464</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="B73">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>1.489293308196459</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>-2.000657573291925</v>
+        <v>57.6328544193447</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="B74">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74">
-        <v>7.4</v>
+        <v>1.355265143147051</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>-2.000657573291925</v>
+        <v>57.85128410454684</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B75">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75">
-        <v>7.4</v>
+        <v>1.233298772055647</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>-0.915324239958591</v>
+        <v>58.05005632554175</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="B76">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76">
-        <v>7.4</v>
+        <v>1.122308700142625</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0.1700090933747425</v>
+        <v>58.23094014544324</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="B77">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77">
-        <v>7.4</v>
+        <v>1.021307121157982</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.255342426708076</v>
+        <v>58.39554542146416</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="B78">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>2.340675760041409</v>
+        <v>58.54533713256733</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="B79">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
       <c r="D79">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>3.426009093374743</v>
+        <v>58.54533713256733</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="B80">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>4.511342426708077</v>
+        <v>58.54533713256733</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="B81">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>5.596675760041411</v>
+        <v>58.54533713256733</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="B82">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
       <c r="D82">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>6.682009093374744</v>
+        <v>58.54533713256733</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="B83">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>7.767342426708078</v>
+        <v>58.54533713256733</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="B84">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>8.852675760041411</v>
+        <v>58.54533713256733</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="B85">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85">
-        <v>7.4</v>
+        <v>0.929395125953711</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>9.938009093374744</v>
+        <v>58.54533713256733</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="B86">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>11.02334242670808</v>
+        <v>58.68164841770721</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="B87">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
-        <v>12.10867576004141</v>
+        <v>58.68164841770721</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="B88">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88">
-        <v>7.4</v>
+        <v>0.845754702236043</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88">
-        <v>13.19400909337474</v>
+        <v>58.68164841770721</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="B89">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89">
-        <v>7.4</v>
+        <v>0.3890969659360621</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>14.27934242670807</v>
+        <v>58.80569244070183</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="B90">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
       <c r="D90">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>15.36467576004141</v>
+        <v>58.86275999570578</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="B91">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91">
-        <v>7.4</v>
+        <v>4.973178109386595</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>16.45000909337474</v>
+        <v>34.50805439566241</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="B92">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D92">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92">
-        <v>17.53534242670808</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>91</v>
-      </c>
-      <c r="B93">
-        <v>2014008306</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93">
-        <v>7.4</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>18.62067576004141</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>92</v>
-      </c>
-      <c r="B94">
-        <v>2014008306</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94">
-        <v>6.623783729068585</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>19.70600909337475</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <v>2014008306</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95">
-        <v>5.13352392932789</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>20.67749737363814</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>2014008306</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96">
-        <v>3.978551989451468</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>21.43041421660623</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>2014008306</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="D97">
-        <v>3.083432774577638</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97">
-        <v>22.01393517505911</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>96</v>
-      </c>
-      <c r="B98">
-        <v>2014008306</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98">
-        <v>2.389703012690909</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98">
-        <v>22.46617198199717</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>97</v>
-      </c>
-      <c r="B99">
-        <v>2014008306</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-      <c r="D99">
-        <v>1.852052860029104</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99">
-        <v>22.81666175719183</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>98</v>
-      </c>
-      <c r="B100">
-        <v>2014008306</v>
-      </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-      <c r="D100">
-        <v>1.43536656150404</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <v>23.08829617666277</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>99</v>
-      </c>
-      <c r="B101">
-        <v>2014008306</v>
-      </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-      <c r="D101">
-        <v>1.112428921629991</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101">
-        <v>23.29881660568336</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>100</v>
-      </c>
-      <c r="B102">
-        <v>2014008306</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-      <c r="D102">
-        <v>0.8621477877972623</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102">
-        <v>23.46197284752243</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>101</v>
-      </c>
-      <c r="B103">
-        <v>2014008306</v>
-      </c>
-      <c r="C103">
-        <v>1</v>
-      </c>
-      <c r="D103">
-        <v>0.6681764502442107</v>
-      </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="F103">
-        <v>23.58842118973269</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>102</v>
-      </c>
-      <c r="B104">
-        <v>2014008306</v>
-      </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-      <c r="D104">
-        <v>0.51784598299745</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104">
-        <v>23.68642040243517</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>103</v>
-      </c>
-      <c r="B105">
-        <v>2014008306</v>
-      </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-      <c r="D105">
-        <v>0.4013377933457249</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105">
-        <v>23.76237114660814</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>104</v>
-      </c>
-      <c r="B106">
-        <v>2014008306</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106">
-        <v>0.3110423362469348</v>
-      </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106">
-        <v>23.82123402296551</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>105</v>
-      </c>
-      <c r="B107">
-        <v>2014008306</v>
-      </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-      <c r="D107">
-        <v>0.2410621091311214</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107">
-        <v>23.86685356561506</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>106</v>
-      </c>
-      <c r="B108">
-        <v>2014008306</v>
-      </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-      <c r="D108">
-        <v>0.1868264660043337</v>
-      </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108">
-        <v>23.90220934162096</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>107</v>
-      </c>
-      <c r="B109">
-        <v>2014008306</v>
-      </c>
-      <c r="C109">
-        <v>1</v>
-      </c>
-      <c r="D109">
-        <v>0.1447930930558741</v>
-      </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-      <c r="F109">
-        <v>23.92961055663493</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>108</v>
-      </c>
-      <c r="B110">
-        <v>2014008306</v>
-      </c>
-      <c r="C110">
-        <v>1</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110">
-        <v>7.4</v>
-      </c>
-      <c r="F110">
-        <v>23.95084687694979</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>109</v>
-      </c>
-      <c r="B111">
-        <v>2014008306</v>
-      </c>
-      <c r="C111">
-        <v>1</v>
-      </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-      <c r="E111">
-        <v>5.202731288711192</v>
-      </c>
-      <c r="F111">
-        <v>22.54933172543464</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>110</v>
-      </c>
-      <c r="B112">
-        <v>2014008306</v>
-      </c>
-      <c r="C112">
-        <v>1</v>
-      </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112">
-        <v>21.56396595105752</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>111</v>
-      </c>
-      <c r="B113">
-        <v>2014008306</v>
-      </c>
-      <c r="C113">
-        <v>1</v>
-      </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113">
-        <v>21.56396595105752</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>112</v>
-      </c>
-      <c r="B114">
-        <v>2014008306</v>
-      </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
-      <c r="E114">
-        <v>7.4</v>
-      </c>
-      <c r="F114">
-        <v>21.56396595105752</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>113</v>
-      </c>
-      <c r="B115">
-        <v>2014008306</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-      <c r="E115">
-        <v>7.4</v>
-      </c>
-      <c r="F115">
-        <v>20.16245079954237</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>114</v>
-      </c>
-      <c r="B116">
-        <v>2014008306</v>
-      </c>
-      <c r="C116">
-        <v>1</v>
-      </c>
-      <c r="D116">
-        <v>0</v>
-      </c>
-      <c r="E116">
-        <v>7.4</v>
-      </c>
-      <c r="F116">
-        <v>18.76093564802721</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>115</v>
-      </c>
-      <c r="B117">
-        <v>2014008306</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117">
-        <v>0</v>
-      </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
-      <c r="F117">
-        <v>17.35942049651206</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>116</v>
-      </c>
-      <c r="B118">
-        <v>2014008306</v>
-      </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-      <c r="D118">
-        <v>0</v>
-      </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
-      <c r="F118">
-        <v>17.35942049651206</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>117</v>
-      </c>
-      <c r="B119">
-        <v>2014008306</v>
-      </c>
-      <c r="C119">
-        <v>1</v>
-      </c>
-      <c r="D119">
-        <v>0</v>
-      </c>
-      <c r="E119">
-        <v>0</v>
-      </c>
-      <c r="F119">
-        <v>17.35942049651206</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>118</v>
-      </c>
-      <c r="B120">
-        <v>2014008306</v>
-      </c>
-      <c r="C120">
-        <v>1</v>
-      </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
-      <c r="E120">
-        <v>0</v>
-      </c>
-      <c r="F120">
-        <v>17.35942049651206</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>119</v>
-      </c>
-      <c r="B121">
-        <v>2014008306</v>
-      </c>
-      <c r="C121">
-        <v>1</v>
-      </c>
-      <c r="D121">
-        <v>0</v>
-      </c>
-      <c r="E121">
-        <v>7.4</v>
-      </c>
-      <c r="F121">
-        <v>17.35942049651206</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>120</v>
-      </c>
-      <c r="B122">
-        <v>2014008306</v>
-      </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-      <c r="D122">
-        <v>0</v>
-      </c>
-      <c r="E122">
-        <v>7.4</v>
-      </c>
-      <c r="F122">
-        <v>15.95790534499691</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>121</v>
-      </c>
-      <c r="B123">
-        <v>2014008306</v>
-      </c>
-      <c r="C123">
-        <v>1</v>
-      </c>
-      <c r="D123">
-        <v>0</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123">
-        <v>14.55639019348176</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>122</v>
-      </c>
-      <c r="B124">
-        <v>2014008306</v>
-      </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-      <c r="D124">
-        <v>0</v>
-      </c>
-      <c r="E124">
-        <v>0</v>
-      </c>
-      <c r="F124">
-        <v>14.55639019348176</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>123</v>
-      </c>
-      <c r="B125">
-        <v>2014008306</v>
-      </c>
-      <c r="C125">
-        <v>1</v>
-      </c>
-      <c r="D125">
-        <v>0</v>
-      </c>
-      <c r="E125">
-        <v>7.4</v>
-      </c>
-      <c r="F125">
-        <v>14.55639019348176</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>124</v>
-      </c>
-      <c r="B126">
-        <v>2014008306</v>
-      </c>
-      <c r="C126">
-        <v>1</v>
-      </c>
-      <c r="D126">
-        <v>0</v>
-      </c>
-      <c r="E126">
-        <v>0</v>
-      </c>
-      <c r="F126">
-        <v>13.15487504196661</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>125</v>
-      </c>
-      <c r="B127">
-        <v>2014008306</v>
-      </c>
-      <c r="C127">
-        <v>1</v>
-      </c>
-      <c r="D127">
-        <v>0</v>
-      </c>
-      <c r="E127">
-        <v>0</v>
-      </c>
-      <c r="F127">
-        <v>13.15487504196661</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>126</v>
-      </c>
-      <c r="B128">
-        <v>2014008306</v>
-      </c>
-      <c r="C128">
-        <v>1</v>
-      </c>
-      <c r="D128">
-        <v>7.4</v>
-      </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
-      <c r="F128">
-        <v>13.15487504196661</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>127</v>
-      </c>
-      <c r="B129">
-        <v>2014008306</v>
-      </c>
-      <c r="C129">
-        <v>1</v>
-      </c>
-      <c r="D129">
-        <v>7.4</v>
-      </c>
-      <c r="E129">
-        <v>0</v>
-      </c>
-      <c r="F129">
-        <v>14.24020837529994</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>128</v>
-      </c>
-      <c r="B130">
-        <v>2014008306</v>
-      </c>
-      <c r="C130">
-        <v>1</v>
-      </c>
-      <c r="D130">
-        <v>7.4</v>
-      </c>
-      <c r="E130">
-        <v>0</v>
-      </c>
-      <c r="F130">
-        <v>15.32554170863327</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>129</v>
-      </c>
-      <c r="B131">
-        <v>2014008306</v>
-      </c>
-      <c r="C131">
-        <v>1</v>
-      </c>
-      <c r="D131">
-        <v>7.4</v>
-      </c>
-      <c r="E131">
-        <v>0</v>
-      </c>
-      <c r="F131">
-        <v>16.41087504196661</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>130</v>
-      </c>
-      <c r="B132">
-        <v>2014008306</v>
-      </c>
-      <c r="C132">
-        <v>1</v>
-      </c>
-      <c r="D132">
-        <v>7.4</v>
-      </c>
-      <c r="E132">
-        <v>0</v>
-      </c>
-      <c r="F132">
-        <v>17.49620837529994</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>131</v>
-      </c>
-      <c r="B133">
-        <v>2014008306</v>
-      </c>
-      <c r="C133">
-        <v>1</v>
-      </c>
-      <c r="D133">
-        <v>7.4</v>
-      </c>
-      <c r="E133">
-        <v>0</v>
-      </c>
-      <c r="F133">
-        <v>18.58154170863327</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>132</v>
-      </c>
-      <c r="B134">
-        <v>2014008306</v>
-      </c>
-      <c r="C134">
-        <v>1</v>
-      </c>
-      <c r="D134">
-        <v>6.683815234130819</v>
-      </c>
-      <c r="E134">
-        <v>0</v>
-      </c>
-      <c r="F134">
-        <v>19.66687504196661</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>133</v>
-      </c>
-      <c r="B135">
-        <v>2014008306</v>
-      </c>
-      <c r="C135">
-        <v>1</v>
-      </c>
-      <c r="D135">
-        <v>5.18004917537391</v>
-      </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-      <c r="F135">
-        <v>20.64716794297247</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>134</v>
-      </c>
-      <c r="B136">
-        <v>2014008306</v>
-      </c>
-      <c r="C136">
-        <v>1</v>
-      </c>
-      <c r="D136">
-        <v>4.014609698106256</v>
-      </c>
-      <c r="E136">
-        <v>0</v>
-      </c>
-      <c r="F136">
-        <v>21.40690848869397</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>135</v>
-      </c>
-      <c r="B137">
-        <v>2014008306</v>
-      </c>
-      <c r="C137">
-        <v>1</v>
-      </c>
-      <c r="D137">
-        <v>3.111377997095062</v>
-      </c>
-      <c r="E137">
-        <v>0</v>
-      </c>
-      <c r="F137">
-        <v>21.99571791108289</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>136</v>
-      </c>
-      <c r="B138">
-        <v>2014008306</v>
-      </c>
-      <c r="C138">
-        <v>1</v>
-      </c>
-      <c r="D138">
-        <v>2.411360946339009</v>
-      </c>
-      <c r="E138">
-        <v>0</v>
-      </c>
-      <c r="F138">
-        <v>22.45205335065684</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>137</v>
-      </c>
-      <c r="B139">
-        <v>2014008306</v>
-      </c>
-      <c r="C139">
-        <v>1</v>
-      </c>
-      <c r="D139">
-        <v>1.868838057914473</v>
-      </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-      <c r="F139">
-        <v>22.80571962278656</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>138</v>
-      </c>
-      <c r="B140">
-        <v>2014008306</v>
-      </c>
-      <c r="C140">
-        <v>1</v>
-      </c>
-      <c r="D140">
-        <v>1.448375321833105</v>
-      </c>
-      <c r="E140">
-        <v>0</v>
-      </c>
-      <c r="F140">
-        <v>23.07981587128069</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>139</v>
-      </c>
-      <c r="B141">
-        <v>2014008306</v>
-      </c>
-      <c r="C141">
-        <v>1</v>
-      </c>
-      <c r="D141">
-        <v>1.122510890663357</v>
-      </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="F141">
-        <v>23.29224425181621</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>140</v>
-      </c>
-      <c r="B142">
-        <v>2014008306</v>
-      </c>
-      <c r="C142">
-        <v>1</v>
-      </c>
-      <c r="D142">
-        <v>0.8699614531288091</v>
-      </c>
-      <c r="E142">
-        <v>0</v>
-      </c>
-      <c r="F142">
-        <v>23.45687918244684</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>141</v>
-      </c>
-      <c r="B143">
-        <v>2014008306</v>
-      </c>
-      <c r="C143">
-        <v>1</v>
-      </c>
-      <c r="D143">
-        <v>0.6742321488593629</v>
-      </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-      <c r="F143">
-        <v>23.58447352890573</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>142</v>
-      </c>
-      <c r="B144">
-        <v>2014008306</v>
-      </c>
-      <c r="C144">
-        <v>1</v>
-      </c>
-      <c r="D144">
-        <v>0.5225392331126737</v>
-      </c>
-      <c r="E144">
-        <v>0</v>
-      </c>
-      <c r="F144">
-        <v>23.68336091073844</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>143</v>
-      </c>
-      <c r="B145">
-        <v>2014008306</v>
-      </c>
-      <c r="C145">
-        <v>1</v>
-      </c>
-      <c r="D145">
-        <v>0</v>
-      </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-      <c r="F145">
-        <v>23.75999999826163</v>
+        <v>35.23745385170578</v>
       </c>
     </row>
   </sheetData>

--- a/results/results10.xlsx
+++ b/results/results10.xlsx
@@ -760,13 +760,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -774,13 +774,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -788,13 +788,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -802,13 +802,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -816,13 +816,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -830,13 +830,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -844,13 +844,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -858,13 +858,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1012,13 +1012,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1026,13 +1026,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1138,13 +1138,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1152,13 +1152,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>3.496209451062242</v>
+        <v>0</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0.1852991009062989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1180,13 +1180,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7.4</v>
+        <v>0.7455577155250239</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>0.3922</v>
+        <v>0.03951455892282627</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1194,13 +1194,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1222,13 +1222,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1236,13 +1236,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1404,13 +1404,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1642,13 +1642,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6.734040906578219</v>
+        <v>7.4</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>0.2693616362631288</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1656,13 +1656,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6.128014450198489</v>
+        <v>7.4</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>0.2451205780079395</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1670,13 +1670,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5.576527024829602</v>
+        <v>7.4</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>0.2230610809931841</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1684,13 +1684,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5.07467041916777</v>
+        <v>7.4</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>0.2029868167667108</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1698,13 +1698,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>4.617978133794352</v>
+        <v>6.734040906578219</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93">
-        <v>0.1847191253517741</v>
+        <v>0.2693616362631288</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1712,13 +1712,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>4.202385629547962</v>
+        <v>6.128014450198489</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94">
-        <v>0.1680954251819185</v>
+        <v>0.2451205780079395</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1726,13 +1726,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>3.824194153323305</v>
+        <v>5.576527024829602</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95">
-        <v>0.1529677661329322</v>
+        <v>0.2230610809931841</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1740,13 +1740,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>3.480037819348162</v>
+        <v>5.07467041916777</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
-        <v>0.1392015127739265</v>
+        <v>0.2029868167667108</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1754,13 +1754,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>3.166853652963482</v>
+        <v>4.617978133794352</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97">
-        <v>0.1266741461185393</v>
+        <v>0.1847191253517741</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1768,13 +1768,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>2.881854330297671</v>
+        <v>4.202385629547962</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98">
-        <v>0.1152741732119068</v>
+        <v>0.1680954251819185</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1782,13 +1782,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>2.622503371219473</v>
+        <v>3.824194153323305</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99">
-        <v>0.1049001348487789</v>
+        <v>0.1529677661329322</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1796,13 +1796,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>2.386492564788</v>
+        <v>3.480037819348162</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100">
-        <v>0.09545970259152001</v>
+        <v>0.1392015127739265</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1810,13 +1810,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>2.171721426287455</v>
+        <v>3.166853652963482</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
       <c r="D101">
-        <v>0.0868688570514982</v>
+        <v>0.1266741461185393</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1824,13 +1824,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1.976278503015152</v>
+        <v>2.881854330297671</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="D102">
-        <v>0.07905114012060609</v>
+        <v>0.1152741732119068</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1838,13 +1838,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>1.798424362445303</v>
+        <v>2.622503371219473</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103">
-        <v>0.07193697449781211</v>
+        <v>0.1049001348487789</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1852,13 +1852,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1.636576111363986</v>
+        <v>2.386492564788</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="D104">
-        <v>0.06546304445455946</v>
+        <v>0.09545970259152001</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1866,13 +1866,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1.489293308196459</v>
+        <v>2.171721426287455</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="D105">
-        <v>0.05957173232785834</v>
+        <v>0.0868688570514982</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1880,13 +1880,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1.355265143147051</v>
+        <v>1.976278503015152</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106">
-        <v>0.05421060572588204</v>
+        <v>0.07905114012060609</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1894,13 +1894,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1.233298772055647</v>
+        <v>1.798424362445303</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
       <c r="D107">
-        <v>0.0493319508822259</v>
+        <v>0.07193697449781211</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1908,13 +1908,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1.122308700142625</v>
+        <v>1.636576111363986</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="D108">
-        <v>0.044892348005705</v>
+        <v>0.06546304445455946</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1922,13 +1922,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1.021307121157982</v>
+        <v>1.489293308196459</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109">
-        <v>0.04085228484631927</v>
+        <v>0.05957173232785834</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1936,13 +1936,13 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2034,13 +2034,13 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.929395125953711</v>
+        <v>0</v>
       </c>
       <c r="C117">
         <v>0</v>
       </c>
       <c r="D117">
-        <v>0.1263977371297047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2076,13 +2076,13 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.845754702236043</v>
+        <v>0</v>
       </c>
       <c r="C120">
         <v>0</v>
       </c>
       <c r="D120">
-        <v>0.1150226395041019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2090,13 +2090,13 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.3890969659360621</v>
+        <v>0</v>
       </c>
       <c r="C121">
         <v>0</v>
       </c>
       <c r="D121">
-        <v>0.05291718736730446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2132,13 +2132,13 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C124">
         <v>0</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2146,13 +2146,13 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>-4.431324997810918</v>
       </c>
       <c r="C125">
         <v>0</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>-0.6026601997022849</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2188,13 +2188,13 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>3.590173382628315</v>
       </c>
       <c r="C128">
         <v>0</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>0.1902791892793007</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2202,13 +2202,13 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>3.267077624368568</v>
       </c>
       <c r="C129">
         <v>0</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>0.1731551140915341</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2216,13 +2216,13 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>2.973058698305991</v>
       </c>
       <c r="C130">
         <v>0</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>0.1575721110102175</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2230,13 +2230,13 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>2.705499850277128</v>
       </c>
       <c r="C131">
         <v>0</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>0.1433914920646878</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2244,13 +2244,13 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>2.462019819528031</v>
       </c>
       <c r="C132">
         <v>0</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>0.1304870504349857</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2258,13 +2258,13 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>2.240451645609205</v>
       </c>
       <c r="C133">
         <v>0</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>0.1187439372172879</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2272,13 +2272,13 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>2.038823382532819</v>
       </c>
       <c r="C134">
         <v>0</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>0.1080576392742394</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2286,13 +2286,13 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>1.855340548549215</v>
       </c>
       <c r="C135">
         <v>0</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>0.0983330490731084</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2300,13 +2300,13 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>1.688370155346448</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>0.08948361823336173</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2314,13 +2314,13 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>1.536426174533624</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>0.08143058725028206</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2328,13 +2328,13 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>1.398156312060394</v>
       </c>
       <c r="C138">
         <v>0</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>0.07410228453920087</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2342,13 +2342,13 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>1.27232997286557</v>
       </c>
       <c r="C139">
         <v>0</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>0.06743348856187524</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2356,13 +2356,13 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>1.157827308640854</v>
       </c>
       <c r="C140">
         <v>0</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>0.06136484735796529</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2370,13 +2370,13 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>1.053629251235257</v>
       </c>
       <c r="C141">
         <v>0</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>0.05584235031546865</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2384,13 +2384,13 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>0.9588084429980555</v>
       </c>
       <c r="C142">
         <v>0</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>0.05081684747889694</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2398,13 +2398,13 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>0.8725209833407419</v>
       </c>
       <c r="C143">
         <v>0</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>0.04624361211705932</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2412,13 +2412,13 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>4.973178109386595</v>
+        <v>0.7939989180627549</v>
       </c>
       <c r="C144">
         <v>0</v>
       </c>
       <c r="D144">
-        <v>0.2635784397974896</v>
+        <v>0.04208194265732602</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2442,7 +2442,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2470,10 +2470,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B2">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2482,18 +2482,18 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>40.88104079566241</v>
+        <v>48.15525759566239</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B3">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2502,18 +2502,18 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>39.47952564414726</v>
+        <v>48.15525759566239</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B4">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2522,18 +2522,18 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>38.07801049263211</v>
+        <v>48.15525759566239</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B5">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2542,18 +2542,18 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>36.67649534111696</v>
+        <v>48.15525759566239</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B6">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2565,15 +2565,15 @@
         <v>7.4</v>
       </c>
       <c r="F6">
-        <v>35.27498018960181</v>
+        <v>48.15525759566239</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B7">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2585,15 +2585,15 @@
         <v>7.4</v>
       </c>
       <c r="F7">
-        <v>33.87346503808666</v>
+        <v>46.75374244414724</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B8">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2605,15 +2605,15 @@
         <v>7.4</v>
       </c>
       <c r="F8">
-        <v>32.47194988657152</v>
+        <v>45.35222729263209</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B9">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2625,15 +2625,15 @@
         <v>7.4</v>
       </c>
       <c r="F9">
-        <v>31.07043473505636</v>
+        <v>43.95071214111695</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B10">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2645,15 +2645,15 @@
         <v>7.4</v>
       </c>
       <c r="F10">
-        <v>29.66891958354121</v>
+        <v>42.5491969896018</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B11">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2665,15 +2665,15 @@
         <v>7.4</v>
       </c>
       <c r="F11">
-        <v>28.26740443202606</v>
+        <v>41.14768183808665</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B12">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2682,38 +2682,38 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F12">
-        <v>26.86588928051091</v>
+        <v>39.7461666865715</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B13">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F13">
-        <v>26.86588928051091</v>
+        <v>38.34465153505635</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B14">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2722,18 +2722,18 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F14">
-        <v>27.95122261384424</v>
+        <v>36.9431363835412</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B15">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2742,18 +2742,18 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F15">
-        <v>27.95122261384424</v>
+        <v>35.54162123202605</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B16">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2762,18 +2762,18 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F16">
-        <v>27.95122261384424</v>
+        <v>34.1401060805109</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B17">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2782,18 +2782,18 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F17">
-        <v>27.95122261384424</v>
+        <v>32.73859092899576</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B18">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2802,18 +2802,18 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F18">
-        <v>27.95122261384424</v>
+        <v>31.3370757774806</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B19">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2822,18 +2822,18 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F19">
-        <v>27.95122261384424</v>
+        <v>29.93556062596545</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B20">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2842,78 +2842,78 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F20">
-        <v>27.95122261384424</v>
+        <v>28.5340454744503</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B21">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F21">
-        <v>27.95122261384424</v>
+        <v>27.13253032293515</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B22">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>3.496209451062242</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F22">
-        <v>29.03655594717758</v>
+        <v>25.73101517141999</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B23">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F23">
-        <v>29.54933333333337</v>
+        <v>24.32950001990484</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B24">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2925,15 +2925,15 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>30.6346666666667</v>
+        <v>22.92798486838969</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B25">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2945,15 +2945,15 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>31.72000000000004</v>
+        <v>24.01331820172302</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B26">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2965,15 +2965,15 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>31.72000000000004</v>
+        <v>24.01331820172302</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B27">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2985,15 +2985,15 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>31.72000000000004</v>
+        <v>24.01331820172302</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B28">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -3005,15 +3005,15 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>31.72000000000004</v>
+        <v>24.01331820172302</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B29">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -3025,15 +3025,15 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>31.72000000000004</v>
+        <v>24.01331820172302</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B30">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3045,15 +3045,15 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>31.72000000000004</v>
+        <v>24.01331820172302</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B31">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3065,15 +3065,15 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>31.72000000000004</v>
+        <v>24.01331820172302</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B32">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3085,15 +3085,15 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>31.72000000000004</v>
+        <v>24.01331820172302</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B33">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3105,15 +3105,15 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>31.72000000000004</v>
+        <v>24.01331820172302</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B34">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3125,75 +3125,75 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>31.72000000000004</v>
+        <v>24.01331820172302</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B35">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>31.72000000000004</v>
+        <v>24.01331820172302</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B36">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>0.7455577155250239</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>31.72000000000004</v>
+        <v>25.09865153505636</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B37">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>31.72000000000004</v>
+        <v>25.20800000000003</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B38">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -3205,35 +3205,35 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>31.72000000000004</v>
+        <v>26.29333333333336</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B39">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>31.72000000000004</v>
+        <v>26.29333333333336</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B40">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -3245,15 +3245,15 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>31.72000000000004</v>
+        <v>27.3786666666667</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B41">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -3265,255 +3265,255 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>32.80533333333337</v>
+        <v>28.46400000000003</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B42">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>32.80533333333337</v>
+        <v>28.46400000000003</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B43">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>33.8906666666667</v>
+        <v>28.46400000000003</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B44">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>34.97600000000003</v>
+        <v>28.46400000000003</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B45">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>36.06133333333337</v>
+        <v>28.46400000000003</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B46">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>37.1466666666667</v>
+        <v>28.46400000000003</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B47">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>38.23200000000003</v>
+        <v>28.46400000000003</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B48">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>39.31733333333336</v>
+        <v>28.46400000000003</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B49">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>40.40266666666669</v>
+        <v>28.46400000000003</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B50">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>41.48800000000002</v>
+        <v>28.46400000000003</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B51">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>42.57333333333335</v>
+        <v>28.46400000000003</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B52">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>43.65866666666668</v>
+        <v>28.46400000000003</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B53">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>44.74400000000001</v>
+        <v>28.46400000000003</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B54">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -3525,15 +3525,15 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>45.82933333333335</v>
+        <v>28.46400000000003</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B55">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -3545,15 +3545,15 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>46.91466666666668</v>
+        <v>29.54933333333337</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B56">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -3565,675 +3565,675 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>48.00000000000001</v>
+        <v>30.6346666666667</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B57">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57">
-        <v>6.734040906578219</v>
+        <v>7.4</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>49.08533333333334</v>
+        <v>31.72000000000004</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B58">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58">
-        <v>6.128014450198489</v>
+        <v>7.4</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>50.07299266629814</v>
+        <v>32.80533333333337</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B59">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59">
-        <v>5.576527024829602</v>
+        <v>7.4</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>50.97176811899392</v>
+        <v>33.8906666666667</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B60">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60">
-        <v>5.07467041916777</v>
+        <v>7.4</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>51.78965874930226</v>
+        <v>34.97600000000003</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B61">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61">
-        <v>4.617978133794352</v>
+        <v>7.4</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>52.53394374411354</v>
+        <v>36.06133333333337</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B62">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62">
-        <v>4.202385629547962</v>
+        <v>7.4</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>53.2112472037367</v>
+        <v>37.1466666666667</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B63">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63">
-        <v>3.824194153323305</v>
+        <v>7.4</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>53.82759709607041</v>
+        <v>38.23200000000003</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B64">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64">
-        <v>3.480037819348162</v>
+        <v>7.4</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>54.38847890522449</v>
+        <v>39.31733333333336</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B65">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65">
-        <v>3.166853652963482</v>
+        <v>7.4</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>54.89888445206222</v>
+        <v>40.40266666666669</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B66">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66">
-        <v>2.881854330297671</v>
+        <v>7.4</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>55.36335632116353</v>
+        <v>41.48800000000002</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B67">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67">
-        <v>2.622503371219473</v>
+        <v>7.4</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>55.78602828960719</v>
+        <v>42.57333333333335</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B68">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68">
-        <v>2.386492564788</v>
+        <v>7.4</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>56.17066211738604</v>
+        <v>43.65866666666668</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B69">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69">
-        <v>2.171721426287455</v>
+        <v>7.4</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>56.52068102688828</v>
+        <v>44.74400000000001</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B70">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70">
-        <v>1.976278503015152</v>
+        <v>7.4</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>56.83920016941045</v>
+        <v>45.82933333333335</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B71">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71">
-        <v>1.798424362445303</v>
+        <v>7.4</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>57.12905434985267</v>
+        <v>46.91466666666668</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B72">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72">
-        <v>1.636576111363986</v>
+        <v>7.4</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>57.39282325634464</v>
+        <v>48.00000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B73">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73">
-        <v>1.489293308196459</v>
+        <v>6.734040906578219</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>57.6328544193447</v>
+        <v>49.08533333333334</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B74">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74">
-        <v>1.355265143147051</v>
+        <v>6.128014450198489</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>57.85128410454684</v>
+        <v>50.07299266629814</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B75">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75">
-        <v>1.233298772055647</v>
+        <v>5.576527024829602</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>58.05005632554175</v>
+        <v>50.97176811899392</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B76">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76">
-        <v>1.122308700142625</v>
+        <v>5.07467041916777</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>58.23094014544324</v>
+        <v>51.78965874930226</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B77">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77">
-        <v>1.021307121157982</v>
+        <v>4.617978133794352</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>58.39554542146416</v>
+        <v>52.53394374411354</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B78">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>4.202385629547962</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>58.54533713256733</v>
+        <v>53.2112472037367</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B79">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>3.824194153323305</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>58.54533713256733</v>
+        <v>53.82759709607041</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B80">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>3.480037819348162</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>58.54533713256733</v>
+        <v>54.38847890522449</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B81">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>3.166853652963482</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>58.54533713256733</v>
+        <v>54.89888445206222</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B82">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>2.881854330297671</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>58.54533713256733</v>
+        <v>55.36335632116353</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B83">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>2.622503371219473</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>58.54533713256733</v>
+        <v>55.78602828960719</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B84">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>2.386492564788</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>58.54533713256733</v>
+        <v>56.17066211738604</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B85">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85">
-        <v>0.929395125953711</v>
+        <v>2.171721426287455</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>58.54533713256733</v>
+        <v>56.52068102688828</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B86">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>1.976278503015152</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>58.68164841770721</v>
+        <v>56.83920016941045</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B87">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>1.798424362445303</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
-        <v>58.68164841770721</v>
+        <v>57.12905434985267</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B88">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88">
-        <v>0.845754702236043</v>
+        <v>1.636576111363986</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88">
-        <v>58.68164841770721</v>
+        <v>57.39282325634464</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B89">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89">
-        <v>0.3890969659360621</v>
+        <v>1.489293308196459</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>58.80569244070183</v>
+        <v>57.6328544193447</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B90">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4242,50 +4242,710 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F90">
-        <v>58.86275999570578</v>
+        <v>57.85128410454684</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="B91">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D91">
-        <v>4.973178109386595</v>
+        <v>0</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>34.50805439566241</v>
+        <v>56.44976895303169</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
+        <v>110</v>
+      </c>
+      <c r="B92">
+        <v>2016005877</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>56.44976895303169</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>111</v>
+      </c>
+      <c r="B93">
+        <v>2016005877</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>56.44976895303169</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>112</v>
+      </c>
+      <c r="B94">
+        <v>2016005877</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>56.44976895303169</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>113</v>
+      </c>
+      <c r="B95">
+        <v>2016005877</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>56.44976895303169</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>114</v>
+      </c>
+      <c r="B96">
+        <v>2016005877</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>56.44976895303169</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>115</v>
+      </c>
+      <c r="B97">
+        <v>2016005877</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>56.44976895303169</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>116</v>
+      </c>
+      <c r="B98">
+        <v>2016005877</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>56.44976895303169</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>117</v>
+      </c>
+      <c r="B99">
+        <v>2016005877</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>56.44976895303169</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>118</v>
+      </c>
+      <c r="B100">
+        <v>2016005877</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>56.44976895303169</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>119</v>
+      </c>
+      <c r="B101">
+        <v>2016005877</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>56.44976895303169</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>120</v>
+      </c>
+      <c r="B102">
+        <v>2016005877</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>56.44976895303169</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>121</v>
+      </c>
+      <c r="B103">
+        <v>2016005877</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>56.44976895303169</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>122</v>
+      </c>
+      <c r="B104">
+        <v>2016005877</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>7.4</v>
+      </c>
+      <c r="F104">
+        <v>56.44976895303169</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>123</v>
+      </c>
+      <c r="B105">
+        <v>2016005877</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>4.431324997810918</v>
+      </c>
+      <c r="F105">
+        <v>55.04825380151654</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>124</v>
+      </c>
+      <c r="B106">
+        <v>2016005877</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>54.2089877034463</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>125</v>
+      </c>
+      <c r="B107">
+        <v>2016005877</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>54.2089877034463</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>126</v>
+      </c>
+      <c r="B108">
+        <v>2016005877</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>3.590173382628315</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>54.2089877034463</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>127</v>
+      </c>
+      <c r="B109">
+        <v>2016005877</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>3.267077624368568</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>54.73554646623177</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>128</v>
+      </c>
+      <c r="B110">
+        <v>2016005877</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>2.973058698305991</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>55.21471785113916</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>129</v>
+      </c>
+      <c r="B111">
+        <v>2016005877</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>2.705499850277128</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>55.65076646022404</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>130</v>
+      </c>
+      <c r="B112">
+        <v>2016005877</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>2.462019819528031</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>56.04757310493135</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>131</v>
+      </c>
+      <c r="B113">
+        <v>2016005877</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>2.240451645609205</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>56.40866934512879</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>132</v>
+      </c>
+      <c r="B114">
+        <v>2016005877</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>2.038823382532819</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>56.73726891981814</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>133</v>
+      </c>
+      <c r="B115">
+        <v>2016005877</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>1.855340548549215</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>57.03629634925629</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>134</v>
+      </c>
+      <c r="B116">
+        <v>2016005877</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>1.688370155346448</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>57.3084129630435</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>135</v>
+      </c>
+      <c r="B117">
+        <v>2016005877</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>1.536426174533624</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>57.55604058582765</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>136</v>
+      </c>
+      <c r="B118">
+        <v>2016005877</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>1.398156312060394</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>57.78138309142591</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>137</v>
+      </c>
+      <c r="B119">
+        <v>2016005877</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>1.27232997286557</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>57.98644601719477</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>138</v>
+      </c>
+      <c r="B120">
+        <v>2016005877</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>1.157827308640854</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>58.17305441321505</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>139</v>
+      </c>
+      <c r="B121">
+        <v>2016005877</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>1.053629251235257</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>58.34286908514903</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>140</v>
+      </c>
+      <c r="B122">
+        <v>2016005877</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>0.9588084429980555</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>58.49740137533021</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>141</v>
+      </c>
+      <c r="B123">
+        <v>2016005877</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>0.8725209833407419</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>58.63802661363658</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>142</v>
+      </c>
+      <c r="B124">
+        <v>2016005877</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>0.7939989180627549</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>58.76599635785989</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
         <v>143</v>
       </c>
-      <c r="B92">
-        <v>2012001353</v>
-      </c>
-      <c r="C92">
-        <v>2</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>35.23745385170578</v>
+      <c r="B125">
+        <v>2016005877</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>58.8824495325091</v>
       </c>
     </row>
   </sheetData>

--- a/results/results10.xlsx
+++ b/results/results10.xlsx
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -444,7 +444,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -458,7 +458,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -472,7 +472,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -528,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -584,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -760,13 +760,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>-1.0064</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -774,13 +774,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>-1.0064</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -788,13 +788,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>-1.0064</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -802,13 +802,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>-1.0064</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -816,13 +816,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>-1.0064</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -830,13 +830,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>-1.0064</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -844,13 +844,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>-1.0064</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -858,13 +858,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-7.4</v>
+        <v>1.034658476264349</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>-1.0064</v>
+        <v>498.6729388828795</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -872,13 +872,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-7.4</v>
+        <v>0.9601676415774035</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>-1.0064</v>
+        <v>498.662808129362</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -886,13 +886,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-7.4</v>
+        <v>0.8910398175646677</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>-1.0064</v>
+        <v>498.6534067452963</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -900,13 +900,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-7.4</v>
+        <v>0.8268888911746046</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>-1.0064</v>
+        <v>498.6446822193072</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -914,13 +914,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-7.4</v>
+        <v>0.7673565477878697</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>-1.0064</v>
+        <v>498.6365858206067</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -928,13 +928,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-7.4</v>
+        <v>0.7121102698531558</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>-1.0064</v>
+        <v>498.6290723268075</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -942,13 +942,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-7.4</v>
+        <v>0.6608414796123157</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>-1.0064</v>
+        <v>498.6220997713348</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -956,13 +956,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-7.4</v>
+        <v>0.6132638155411669</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>-1.0064</v>
+        <v>498.6156292090211</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -970,13 +970,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-7.4</v>
+        <v>0.5691115328788641</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>-1.0064</v>
+        <v>498.609624498579</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -984,13 +984,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-7.4</v>
+        <v>0.5281380193121734</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>-1.0064</v>
+        <v>498.604052100734</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -998,13 +998,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-7.4</v>
+        <v>0.4901144175236709</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>-1.0064</v>
+        <v>498.5988808908907</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1012,13 +1012,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0.3922</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1166,13 +1166,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>0.3922</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1180,13 +1180,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.7455577155250239</v>
+        <v>0</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>0.03951455892282627</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1194,13 +1194,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>0.3922</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1222,13 +1222,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>0.3922</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1236,13 +1236,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>0.3922</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1432,13 +1432,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7.4</v>
+        <v>1.034658476264347</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>0.296</v>
+        <v>498.5736116691581</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1446,13 +1446,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7.4</v>
+        <v>0.9601676415774065</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>0.296</v>
+        <v>498.5706320357706</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1460,13 +1460,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7.4</v>
+        <v>0.8910398175646748</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>0.296</v>
+        <v>498.5678669228101</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1474,13 +1474,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7.4</v>
+        <v>0.8268888911746117</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>0.296</v>
+        <v>498.5653008857545</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1488,13 +1488,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7.4</v>
+        <v>0.7673565477878839</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78">
-        <v>0.296</v>
+        <v>498.562919592019</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1502,13 +1502,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7.4</v>
+        <v>0.7121102698531772</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79">
-        <v>0.296</v>
+        <v>498.5607097409016</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1516,13 +1516,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7.4</v>
+        <v>0.660841479612337</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80">
-        <v>0.296</v>
+        <v>498.558658989292</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1530,13 +1530,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7.4</v>
+        <v>0.6132638155411883</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81">
-        <v>0.296</v>
+        <v>498.5567558827291</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1544,13 +1544,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7.4</v>
+        <v>0.5691115328788925</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82">
-        <v>0.296</v>
+        <v>498.5549897914227</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1558,13 +1558,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7.4</v>
+        <v>0.5281380193122018</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83">
-        <v>0.296</v>
+        <v>498.55335085088</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1572,13 +1572,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7.4</v>
+        <v>0.4901144175237988</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84">
-        <v>0.296</v>
+        <v>498.5518299068085</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1586,13 +1586,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7.4</v>
+        <v>0.4548283469111425</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85">
-        <v>0.296</v>
+        <v>498.5504184639839</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1600,13 +1600,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7.4</v>
+        <v>0.4220827173358472</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>0.296</v>
+        <v>498.5491086388009</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1614,13 +1614,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7.4</v>
+        <v>0.3916946282778966</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>0.296</v>
+        <v>498.5478931152387</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1628,13 +1628,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7.4</v>
+        <v>0.3634943472458829</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>0.296</v>
+        <v>498.5467651039974</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1642,13 +1642,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7.4</v>
+        <v>0.3373243617371458</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>0.296</v>
+        <v>498.545718304577</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1656,13 +1656,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7.4</v>
+        <v>0.3130384994526523</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>0.296</v>
+        <v>498.5447468700856</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1670,13 +1670,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7.4</v>
+        <v>0.2905011118524854</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>0.296</v>
+        <v>498.5438453745816</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1684,13 +1684,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7.4</v>
+        <v>0.2695863164916972</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>0.296</v>
+        <v>498.5430087827672</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1698,13 +1698,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6.734040906578219</v>
+        <v>0.2501772939046987</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93">
-        <v>0.2693616362631288</v>
+        <v>498.5422324218637</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1712,13 +1712,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6.128014450198489</v>
+        <v>0.2321656351108103</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94">
-        <v>0.2451205780079395</v>
+        <v>498.541511955512</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1726,13 +1726,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5.576527024829602</v>
+        <v>0.2154507360965283</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95">
-        <v>0.2230610809931841</v>
+        <v>498.5408433595514</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1740,13 +1740,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5.07467041916777</v>
+        <v>0.1999392358924297</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
-        <v>0.2029868167667108</v>
+        <v>498.5402228995432</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1754,13 +1754,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>4.617978133794352</v>
+        <v>0.1855444951060079</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97">
-        <v>0.1847191253517741</v>
+        <v>498.5396471099118</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1768,13 +1768,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>4.202385629547962</v>
+        <v>0.1721861119978811</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98">
-        <v>0.1680954251819185</v>
+        <v>498.5391127745874</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1782,13 +1782,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>3.824194153323305</v>
+        <v>0.1597894733983196</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99">
-        <v>0.1529677661329322</v>
+        <v>498.5386169090434</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1796,13 +1796,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>3.480037819348162</v>
+        <v>0.1482853379558691</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100">
-        <v>0.1392015127739265</v>
+        <v>498.5381567436257</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1810,13 +1810,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>3.166853652963482</v>
+        <v>0.1376094493901547</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
       <c r="D101">
-        <v>0.1266741461185393</v>
+        <v>498.5377297080831</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1824,13 +1824,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>2.881854330297671</v>
+        <v>0.1277021775888443</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="D102">
-        <v>0.1152741732119068</v>
+        <v>498.5373334172111</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1838,13 +1838,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>2.622503371219473</v>
+        <v>0.1185081855439662</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103">
-        <v>0.1049001348487789</v>
+        <v>498.5369656575293</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1852,13 +1852,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>2.386492564788</v>
+        <v>0.109976120267433</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="D104">
-        <v>0.09545970259152001</v>
+        <v>498.5366243749182</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1866,13 +1866,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>2.171721426287455</v>
+        <v>0.1020583259591774</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="D105">
-        <v>0.0868688570514982</v>
+        <v>498.5363076631459</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1880,13 +1880,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1.976278503015152</v>
+        <v>0.09471057782599956</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106">
-        <v>0.07905114012060609</v>
+        <v>498.5360137532206</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1894,13 +1894,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1.798424362445303</v>
+        <v>0.0878918350642266</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
       <c r="D107">
-        <v>0.07193697449781211</v>
+        <v>498.5357410035101</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1908,13 +1908,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1.636576111363986</v>
+        <v>0.08156401162653992</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="D108">
-        <v>0.06546304445455946</v>
+        <v>498.5354878905726</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1922,13 +1922,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1.489293308196459</v>
+        <v>0.07569176349262818</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109">
-        <v>0.05957173232785834</v>
+        <v>498.5352530006472</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1936,13 +1936,13 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-7.4</v>
+        <v>-4.136690768375388</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110">
-        <v>-1.0064</v>
+        <v>497.9696353856085</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1984,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2110,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2132,13 +2132,13 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C124">
         <v>0</v>
       </c>
       <c r="D124">
-        <v>-1.0064</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2146,13 +2146,13 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>-4.431324997810918</v>
+        <v>0</v>
       </c>
       <c r="C125">
         <v>0</v>
       </c>
       <c r="D125">
-        <v>-0.6026601997022849</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2188,13 +2188,13 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>3.590173382628315</v>
+        <v>0</v>
       </c>
       <c r="C128">
         <v>0</v>
       </c>
       <c r="D128">
-        <v>0.1902791892793007</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2202,13 +2202,13 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>3.267077624368568</v>
+        <v>0</v>
       </c>
       <c r="C129">
         <v>0</v>
       </c>
       <c r="D129">
-        <v>0.1731551140915341</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2216,13 +2216,13 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>2.973058698305991</v>
+        <v>0</v>
       </c>
       <c r="C130">
         <v>0</v>
       </c>
       <c r="D130">
-        <v>0.1575721110102175</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2230,13 +2230,13 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>2.705499850277128</v>
+        <v>0</v>
       </c>
       <c r="C131">
         <v>0</v>
       </c>
       <c r="D131">
-        <v>0.1433914920646878</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2244,13 +2244,13 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>2.462019819528031</v>
+        <v>0</v>
       </c>
       <c r="C132">
         <v>0</v>
       </c>
       <c r="D132">
-        <v>0.1304870504349857</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2258,13 +2258,13 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>2.240451645609205</v>
+        <v>0</v>
       </c>
       <c r="C133">
         <v>0</v>
       </c>
       <c r="D133">
-        <v>0.1187439372172879</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2272,13 +2272,13 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>2.038823382532819</v>
+        <v>0</v>
       </c>
       <c r="C134">
         <v>0</v>
       </c>
       <c r="D134">
-        <v>0.1080576392742394</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2286,13 +2286,13 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>1.855340548549215</v>
+        <v>0</v>
       </c>
       <c r="C135">
         <v>0</v>
       </c>
       <c r="D135">
-        <v>0.0983330490731084</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2300,13 +2300,13 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>1.688370155346448</v>
+        <v>0</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
       <c r="D136">
-        <v>0.08948361823336173</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2314,13 +2314,13 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>1.536426174533624</v>
+        <v>0</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137">
-        <v>0.08143058725028206</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2328,13 +2328,13 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>1.398156312060394</v>
+        <v>0</v>
       </c>
       <c r="C138">
         <v>0</v>
       </c>
       <c r="D138">
-        <v>0.07410228453920087</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2342,13 +2342,13 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>1.27232997286557</v>
+        <v>0</v>
       </c>
       <c r="C139">
         <v>0</v>
       </c>
       <c r="D139">
-        <v>0.06743348856187524</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2356,13 +2356,13 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>1.157827308640854</v>
+        <v>0</v>
       </c>
       <c r="C140">
         <v>0</v>
       </c>
       <c r="D140">
-        <v>0.06136484735796529</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2370,13 +2370,13 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>1.053629251235257</v>
+        <v>0</v>
       </c>
       <c r="C141">
         <v>0</v>
       </c>
       <c r="D141">
-        <v>0.05584235031546865</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2384,13 +2384,13 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.9588084429980555</v>
+        <v>0</v>
       </c>
       <c r="C142">
         <v>0</v>
       </c>
       <c r="D142">
-        <v>0.05081684747889694</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2398,13 +2398,13 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.8725209833407419</v>
+        <v>0</v>
       </c>
       <c r="C143">
         <v>0</v>
       </c>
       <c r="D143">
-        <v>0.04624361211705932</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2412,13 +2412,13 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.7939989180627549</v>
+        <v>0</v>
       </c>
       <c r="C144">
         <v>0</v>
       </c>
       <c r="D144">
-        <v>0.04208194265732602</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>498.5322253301075</v>
       </c>
     </row>
   </sheetData>
@@ -2442,7 +2442,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2470,230 +2470,230 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B2">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.034658476264349</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>48.15525759566239</v>
+        <v>73.068792</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B3">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.9601676415774035</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>48.15525759566239</v>
+        <v>73.22054190985212</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B4">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.8910398175646677</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>48.15525759566239</v>
+        <v>73.36136649728347</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B5">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.8268888911746046</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>48.15525759566239</v>
+        <v>73.49205233719296</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B6">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.7673565477878697</v>
       </c>
       <c r="E6">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>48.15525759566239</v>
+        <v>73.61332937456525</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B7">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.7121102698531558</v>
       </c>
       <c r="E7">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>46.75374244414724</v>
+        <v>73.72587500157415</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B8">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.6608414796123157</v>
       </c>
       <c r="E8">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>45.35222729263209</v>
+        <v>73.83031784115262</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B9">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.6132638155411669</v>
       </c>
       <c r="E9">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>43.95071214111695</v>
+        <v>73.92724125816243</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B10">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.5691115328788641</v>
       </c>
       <c r="E10">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>42.5491969896018</v>
+        <v>74.01718661777515</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B11">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.5281380193121734</v>
       </c>
       <c r="E11">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>41.14768183808665</v>
+        <v>74.10065630926405</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B12">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.4901144175236709</v>
       </c>
       <c r="E12">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>39.7461666865715</v>
+        <v>74.17811655209653</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B13">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2702,241 +2702,241 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>38.34465153505635</v>
+        <v>74.25</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B14">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>36.9431363835412</v>
+        <v>73.068792</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B15">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>35.54162123202605</v>
+        <v>73.068792</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B16">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>34.1401060805109</v>
+        <v>73.068792</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B17">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>32.73859092899576</v>
+        <v>73.068792</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B18">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>31.3370757774806</v>
+        <v>73.068792</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B19">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>29.93556062596545</v>
+        <v>73.068792</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B20">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>28.5340454744503</v>
+        <v>73.068792</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B21">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>27.13253032293515</v>
+        <v>73.068792</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B22">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>25.73101517141999</v>
+        <v>73.068792</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B23">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>24.32950001990484</v>
+        <v>73.068792</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B24">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>22.92798486838969</v>
+        <v>73.068792</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B25">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2945,18 +2945,18 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>24.01331820172302</v>
+        <v>73.068792</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B26">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2965,18 +2965,18 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>24.01331820172302</v>
+        <v>73.068792</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B27">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2985,18 +2985,18 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>24.01331820172302</v>
+        <v>73.068792</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B28">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3005,18 +3005,18 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>24.01331820172302</v>
+        <v>73.068792</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B29">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3025,18 +3025,18 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>24.01331820172302</v>
+        <v>73.068792</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B30">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3045,18 +3045,18 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>24.01331820172302</v>
+        <v>73.068792</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B31">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -3065,18 +3065,18 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>24.01331820172302</v>
+        <v>73.068792</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B32">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -3085,18 +3085,18 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>24.01331820172302</v>
+        <v>73.068792</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B33">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3105,18 +3105,18 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>24.01331820172302</v>
+        <v>73.068792</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B34">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3125,78 +3125,78 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>24.01331820172302</v>
+        <v>73.068792</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B35">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>24.01331820172302</v>
+        <v>73.068792</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B36">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>0.7455577155250239</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>25.09865153505636</v>
+        <v>73.068792</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B37">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>25.20800000000003</v>
+        <v>73.068792</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B38">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -3205,1747 +3205,947 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>26.29333333333336</v>
+        <v>73.068792</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B39">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>26.29333333333336</v>
+        <v>73.068792</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B40">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>7.4</v>
+        <v>1.034658476264347</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>27.3786666666667</v>
+        <v>73.068792</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B41">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>0.9601676415774065</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>28.46400000000003</v>
+        <v>73.2205419098521</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B42">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>0.8910398175646748</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>28.46400000000003</v>
+        <v>73.36136649728346</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B43">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>0.8268888911746117</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>28.46400000000003</v>
+        <v>73.49205233719294</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B44">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>0.7673565477878839</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>28.46400000000003</v>
+        <v>73.61332937456523</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B45">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>0.7121102698531772</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>28.46400000000003</v>
+        <v>73.72587500157411</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B46">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>0.660841479612337</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>28.46400000000003</v>
+        <v>73.83031784115258</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B47">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>0.6132638155411883</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>28.46400000000003</v>
+        <v>73.92724125816238</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B48">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>0.5691115328788925</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>28.46400000000003</v>
+        <v>74.0171866177751</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B49">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.5281380193122018</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>28.46400000000003</v>
+        <v>74.100656309264</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B50">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>0.4901144175237988</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>28.46400000000003</v>
+        <v>74.17811655209645</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B51">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>0.4548283469111425</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>28.46400000000003</v>
+        <v>74.24999999999994</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B52">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.4220827173358472</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>28.46400000000003</v>
+        <v>74.31670815754691</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B53">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>0.3916946282778966</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>28.46400000000003</v>
+        <v>74.37861362275618</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B54">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54">
-        <v>7.4</v>
+        <v>0.3634943472458829</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>28.46400000000003</v>
+        <v>74.43606216823693</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B55">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55">
-        <v>7.4</v>
+        <v>0.3373243617371458</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>29.54933333333337</v>
+        <v>74.48937467249966</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B56">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56">
-        <v>7.4</v>
+        <v>0.3130384994526523</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>30.6346666666667</v>
+        <v>74.53884891222111</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B57">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57">
-        <v>7.4</v>
+        <v>0.2905011118524854</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>31.72000000000004</v>
+        <v>74.58476122547417</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B58">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58">
-        <v>7.4</v>
+        <v>0.2695863164916972</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>32.80533333333337</v>
+        <v>74.62736805521253</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B59">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59">
-        <v>7.4</v>
+        <v>0.2501772939046987</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>33.8906666666667</v>
+        <v>74.6669073816313</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B60">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60">
-        <v>7.4</v>
+        <v>0.2321656351108103</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>34.97600000000003</v>
+        <v>74.703600051404</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B61">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61">
-        <v>7.4</v>
+        <v>0.2154507360965283</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>36.06133333333337</v>
+        <v>74.73765101122025</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B62">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62">
-        <v>7.4</v>
+        <v>0.1999392358924297</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>37.1466666666667</v>
+        <v>74.76925045251441</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B63">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63">
-        <v>7.4</v>
+        <v>0.1855444951060079</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>38.23200000000003</v>
+        <v>74.79857487377863</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B64">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64">
-        <v>7.4</v>
+        <v>0.1721861119978811</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>39.31733333333336</v>
+        <v>74.82578806639418</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B65">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65">
-        <v>7.4</v>
+        <v>0.1597894733983196</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>40.40266666666669</v>
+        <v>74.8510420294872</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B66">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66">
-        <v>7.4</v>
+        <v>0.1482853379558691</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>41.48800000000002</v>
+        <v>74.87447781891896</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B67">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67">
-        <v>7.4</v>
+        <v>0.1376094493901547</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>42.57333333333335</v>
+        <v>74.89622633515249</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B68">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68">
-        <v>7.4</v>
+        <v>0.1277021775888443</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>43.65866666666668</v>
+        <v>74.91640905439638</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B69">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69">
-        <v>7.4</v>
+        <v>0.1185081855439662</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>44.74400000000001</v>
+        <v>74.93513870710942</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B70">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70">
-        <v>7.4</v>
+        <v>0.109976120267433</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>45.82933333333335</v>
+        <v>74.95251990765587</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B71">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71">
-        <v>7.4</v>
+        <v>0.1020583259591774</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>46.91466666666668</v>
+        <v>74.96864973862843</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B72">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72">
-        <v>7.4</v>
+        <v>0.09471057782599956</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>48.00000000000001</v>
+        <v>74.98361829310244</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B73">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73">
-        <v>6.734040906578219</v>
+        <v>0.0878918350642266</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>49.08533333333334</v>
+        <v>74.99750917785025</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B74">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74">
-        <v>6.128014450198489</v>
+        <v>0.08156401162653992</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>50.07299266629814</v>
+        <v>75.01039998032634</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B75">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75">
-        <v>5.576527024829602</v>
+        <v>0.07569176349262818</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>50.97176811899392</v>
+        <v>75.02236270203157</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B76">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76">
-        <v>5.07467041916777</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>4.136690768375388</v>
       </c>
       <c r="F76">
-        <v>51.78965874930226</v>
+        <v>75.03346416067716</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B77">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77">
-        <v>4.617978133794352</v>
+        <v>0</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>52.53394374411354</v>
+        <v>74.25</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B78">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>4.202385629547962</v>
+        <v>0</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>53.2112472037367</v>
+        <v>74.25</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B79">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79">
-        <v>3.824194153323305</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>53.82759709607041</v>
+        <v>74.25</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B80">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80">
-        <v>3.480037819348162</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>54.38847890522449</v>
+        <v>74.25</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B81">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81">
-        <v>3.166853652963482</v>
+        <v>0</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>54.89888445206222</v>
+        <v>74.25</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B82">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82">
-        <v>2.881854330297671</v>
+        <v>0</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>55.36335632116353</v>
+        <v>74.25</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B83">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83">
-        <v>2.622503371219473</v>
+        <v>0</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>55.78602828960719</v>
+        <v>74.25</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B84">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84">
-        <v>2.386492564788</v>
+        <v>0</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>56.17066211738604</v>
+        <v>74.25</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="B85">
-        <v>2016005877</v>
+        <v>2014001217</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>2.171721426287455</v>
+        <v>0</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>56.52068102688828</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>104</v>
-      </c>
-      <c r="B86">
-        <v>2016005877</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <v>1.976278503015152</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>56.83920016941045</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>105</v>
-      </c>
-      <c r="B87">
-        <v>2016005877</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87">
-        <v>1.798424362445303</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>57.12905434985267</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>106</v>
-      </c>
-      <c r="B88">
-        <v>2016005877</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>1.636576111363986</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>57.39282325634464</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>107</v>
-      </c>
-      <c r="B89">
-        <v>2016005877</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89">
-        <v>1.489293308196459</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>57.6328544193447</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>108</v>
-      </c>
-      <c r="B90">
-        <v>2016005877</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>7.4</v>
-      </c>
-      <c r="F90">
-        <v>57.85128410454684</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>109</v>
-      </c>
-      <c r="B91">
-        <v>2016005877</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>56.44976895303169</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>110</v>
-      </c>
-      <c r="B92">
-        <v>2016005877</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>56.44976895303169</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>111</v>
-      </c>
-      <c r="B93">
-        <v>2016005877</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>56.44976895303169</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>112</v>
-      </c>
-      <c r="B94">
-        <v>2016005877</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>56.44976895303169</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>113</v>
-      </c>
-      <c r="B95">
-        <v>2016005877</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>56.44976895303169</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>114</v>
-      </c>
-      <c r="B96">
-        <v>2016005877</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>56.44976895303169</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>115</v>
-      </c>
-      <c r="B97">
-        <v>2016005877</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97">
-        <v>56.44976895303169</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>116</v>
-      </c>
-      <c r="B98">
-        <v>2016005877</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98">
-        <v>56.44976895303169</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>117</v>
-      </c>
-      <c r="B99">
-        <v>2016005877</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99">
-        <v>56.44976895303169</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>118</v>
-      </c>
-      <c r="B100">
-        <v>2016005877</v>
-      </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <v>56.44976895303169</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>119</v>
-      </c>
-      <c r="B101">
-        <v>2016005877</v>
-      </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101">
-        <v>56.44976895303169</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>120</v>
-      </c>
-      <c r="B102">
-        <v>2016005877</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102">
-        <v>56.44976895303169</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>121</v>
-      </c>
-      <c r="B103">
-        <v>2016005877</v>
-      </c>
-      <c r="C103">
-        <v>1</v>
-      </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="F103">
-        <v>56.44976895303169</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>122</v>
-      </c>
-      <c r="B104">
-        <v>2016005877</v>
-      </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-      <c r="E104">
-        <v>7.4</v>
-      </c>
-      <c r="F104">
-        <v>56.44976895303169</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>123</v>
-      </c>
-      <c r="B105">
-        <v>2016005877</v>
-      </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-      <c r="E105">
-        <v>4.431324997810918</v>
-      </c>
-      <c r="F105">
-        <v>55.04825380151654</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>124</v>
-      </c>
-      <c r="B106">
-        <v>2016005877</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106">
-        <v>54.2089877034463</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>125</v>
-      </c>
-      <c r="B107">
-        <v>2016005877</v>
-      </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107">
-        <v>54.2089877034463</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>126</v>
-      </c>
-      <c r="B108">
-        <v>2016005877</v>
-      </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-      <c r="D108">
-        <v>3.590173382628315</v>
-      </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108">
-        <v>54.2089877034463</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>127</v>
-      </c>
-      <c r="B109">
-        <v>2016005877</v>
-      </c>
-      <c r="C109">
-        <v>1</v>
-      </c>
-      <c r="D109">
-        <v>3.267077624368568</v>
-      </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-      <c r="F109">
-        <v>54.73554646623177</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>128</v>
-      </c>
-      <c r="B110">
-        <v>2016005877</v>
-      </c>
-      <c r="C110">
-        <v>1</v>
-      </c>
-      <c r="D110">
-        <v>2.973058698305991</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110">
-        <v>55.21471785113916</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>129</v>
-      </c>
-      <c r="B111">
-        <v>2016005877</v>
-      </c>
-      <c r="C111">
-        <v>1</v>
-      </c>
-      <c r="D111">
-        <v>2.705499850277128</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
-        <v>55.65076646022404</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>130</v>
-      </c>
-      <c r="B112">
-        <v>2016005877</v>
-      </c>
-      <c r="C112">
-        <v>1</v>
-      </c>
-      <c r="D112">
-        <v>2.462019819528031</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112">
-        <v>56.04757310493135</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>131</v>
-      </c>
-      <c r="B113">
-        <v>2016005877</v>
-      </c>
-      <c r="C113">
-        <v>1</v>
-      </c>
-      <c r="D113">
-        <v>2.240451645609205</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113">
-        <v>56.40866934512879</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>132</v>
-      </c>
-      <c r="B114">
-        <v>2016005877</v>
-      </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-      <c r="D114">
-        <v>2.038823382532819</v>
-      </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-      <c r="F114">
-        <v>56.73726891981814</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>133</v>
-      </c>
-      <c r="B115">
-        <v>2016005877</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-      <c r="D115">
-        <v>1.855340548549215</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115">
-        <v>57.03629634925629</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>134</v>
-      </c>
-      <c r="B116">
-        <v>2016005877</v>
-      </c>
-      <c r="C116">
-        <v>1</v>
-      </c>
-      <c r="D116">
-        <v>1.688370155346448</v>
-      </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-      <c r="F116">
-        <v>57.3084129630435</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>135</v>
-      </c>
-      <c r="B117">
-        <v>2016005877</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117">
-        <v>1.536426174533624</v>
-      </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
-      <c r="F117">
-        <v>57.55604058582765</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>136</v>
-      </c>
-      <c r="B118">
-        <v>2016005877</v>
-      </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-      <c r="D118">
-        <v>1.398156312060394</v>
-      </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
-      <c r="F118">
-        <v>57.78138309142591</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>137</v>
-      </c>
-      <c r="B119">
-        <v>2016005877</v>
-      </c>
-      <c r="C119">
-        <v>1</v>
-      </c>
-      <c r="D119">
-        <v>1.27232997286557</v>
-      </c>
-      <c r="E119">
-        <v>0</v>
-      </c>
-      <c r="F119">
-        <v>57.98644601719477</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>138</v>
-      </c>
-      <c r="B120">
-        <v>2016005877</v>
-      </c>
-      <c r="C120">
-        <v>1</v>
-      </c>
-      <c r="D120">
-        <v>1.157827308640854</v>
-      </c>
-      <c r="E120">
-        <v>0</v>
-      </c>
-      <c r="F120">
-        <v>58.17305441321505</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>139</v>
-      </c>
-      <c r="B121">
-        <v>2016005877</v>
-      </c>
-      <c r="C121">
-        <v>1</v>
-      </c>
-      <c r="D121">
-        <v>1.053629251235257</v>
-      </c>
-      <c r="E121">
-        <v>0</v>
-      </c>
-      <c r="F121">
-        <v>58.34286908514903</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>140</v>
-      </c>
-      <c r="B122">
-        <v>2016005877</v>
-      </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-      <c r="D122">
-        <v>0.9588084429980555</v>
-      </c>
-      <c r="E122">
-        <v>0</v>
-      </c>
-      <c r="F122">
-        <v>58.49740137533021</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>141</v>
-      </c>
-      <c r="B123">
-        <v>2016005877</v>
-      </c>
-      <c r="C123">
-        <v>1</v>
-      </c>
-      <c r="D123">
-        <v>0.8725209833407419</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123">
-        <v>58.63802661363658</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>142</v>
-      </c>
-      <c r="B124">
-        <v>2016005877</v>
-      </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-      <c r="D124">
-        <v>0.7939989180627549</v>
-      </c>
-      <c r="E124">
-        <v>0</v>
-      </c>
-      <c r="F124">
-        <v>58.76599635785989</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>143</v>
-      </c>
-      <c r="B125">
-        <v>2016005877</v>
-      </c>
-      <c r="C125">
-        <v>1</v>
-      </c>
-      <c r="D125">
-        <v>0</v>
-      </c>
-      <c r="E125">
-        <v>0</v>
-      </c>
-      <c r="F125">
-        <v>58.8824495325091</v>
+        <v>74.25</v>
       </c>
     </row>
   </sheetData>

--- a/results/results10.xlsx
+++ b/results/results10.xlsx
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -444,7 +444,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -458,7 +458,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -472,7 +472,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -528,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -584,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -858,13 +858,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.034658476264349</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>498.6729388828795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -872,13 +872,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.9601676415774035</v>
+        <v>-7.4</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>498.662808129362</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -886,13 +886,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.8910398175646677</v>
+        <v>-7.4</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>498.6534067452963</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -900,13 +900,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.8268888911746046</v>
+        <v>-4.7190787802245</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>498.6446822193072</v>
+        <v>-0.641794714110532</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -914,13 +914,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.7673565477878697</v>
+        <v>-7.4</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>498.6365858206067</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -928,13 +928,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.7121102698531558</v>
+        <v>-7.4</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>498.6290723268075</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -942,13 +942,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.6608414796123157</v>
+        <v>-7.4</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>498.6220997713348</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -956,13 +956,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.6132638155411669</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>498.6156292090211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -970,13 +970,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.5691115328788641</v>
+        <v>-7.4</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>498.609624498579</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -984,13 +984,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.5281380193121734</v>
+        <v>-7.4</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>498.604052100734</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -998,13 +998,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.4901144175236709</v>
+        <v>-7.4</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>498.5988808908907</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1012,13 +1012,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>498.5322253301075</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1026,13 +1026,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>498.5322253301075</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1040,13 +1040,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>498.5322253301075</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1054,13 +1054,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>498.5322253301075</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1068,13 +1068,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>498.5322253301075</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1082,13 +1082,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>498.5322253301075</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1096,13 +1096,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>498.5322253301075</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1110,13 +1110,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>498.5322253301075</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1124,13 +1124,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>498.5322253301075</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1138,13 +1138,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>498.5322253301075</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1152,13 +1152,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>498.5322253301075</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1166,13 +1166,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>498.5322253301075</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1180,13 +1180,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>498.5322253301075</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1194,13 +1194,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>498.5322253301075</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1208,13 +1208,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>498.5322253301075</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1222,13 +1222,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>498.5322253301075</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1236,13 +1236,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>498.5322253301075</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1250,13 +1250,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>498.5322253301075</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1264,13 +1264,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>498.5322253301075</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1278,13 +1278,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>498.5322253301075</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1292,13 +1292,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>498.5322253301075</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1306,13 +1306,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>498.5322253301075</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1320,13 +1320,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>498.5322253301075</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1334,13 +1334,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>498.5322253301075</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1348,13 +1348,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>498.5322253301075</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1362,13 +1362,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>498.5322253301075</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1376,13 +1376,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>498.5322253301075</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1390,13 +1390,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71">
-        <v>498.5322253301075</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1404,13 +1404,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>498.5322253301075</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1418,13 +1418,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>498.5322253301075</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1432,13 +1432,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1.034658476264347</v>
+        <v>7.4</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>498.5736116691581</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1446,13 +1446,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.9601676415774065</v>
+        <v>7.4</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>498.5706320357706</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1460,13 +1460,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.8910398175646748</v>
+        <v>7.4</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>498.5678669228101</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1474,13 +1474,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.8268888911746117</v>
+        <v>7.4</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>498.5653008857545</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1488,13 +1488,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.7673565477878839</v>
+        <v>7.4</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78">
-        <v>498.562919592019</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1502,13 +1502,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.7121102698531772</v>
+        <v>7.4</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79">
-        <v>498.5607097409016</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1516,13 +1516,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.660841479612337</v>
+        <v>7.4</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80">
-        <v>498.558658989292</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1530,13 +1530,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.6132638155411883</v>
+        <v>7.4</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81">
-        <v>498.5567558827291</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1544,13 +1544,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.5691115328788925</v>
+        <v>7.4</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82">
-        <v>498.5549897914227</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1558,13 +1558,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.5281380193122018</v>
+        <v>7.4</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83">
-        <v>498.55335085088</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1572,13 +1572,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.4901144175237988</v>
+        <v>7.4</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84">
-        <v>498.5518299068085</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1586,13 +1586,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.4548283469111425</v>
+        <v>7.4</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85">
-        <v>498.5504184639839</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1600,13 +1600,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.4220827173358472</v>
+        <v>7.4</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>498.5491086388009</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1614,13 +1614,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.3916946282778966</v>
+        <v>7.4</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>498.5478931152387</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1628,13 +1628,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.3634943472458829</v>
+        <v>7.4</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>498.5467651039974</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1642,13 +1642,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.3373243617371458</v>
+        <v>7.4</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>498.545718304577</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1656,13 +1656,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.3130384994526523</v>
+        <v>6.856578186446683</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>498.5447468700856</v>
+        <v>0.2742631274578673</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1670,13 +1670,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.2905011118524854</v>
+        <v>6.239524052254581</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>498.5438453745816</v>
+        <v>0.2495809620901832</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1684,13 +1684,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.2695863164916972</v>
+        <v>5.67800137911636</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>498.5430087827672</v>
+        <v>0.2271200551646544</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1698,13 +1698,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.2501772939046987</v>
+        <v>5.167012642510421</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93">
-        <v>498.5422324218637</v>
+        <v>0.2066805057004168</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1712,13 +1712,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.2321656351108103</v>
+        <v>4.702010067496218</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94">
-        <v>498.541511955512</v>
+        <v>0.1880804026998487</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1726,13 +1726,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.2154507360965283</v>
+        <v>4.278855153738128</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95">
-        <v>498.5408433595514</v>
+        <v>0.1711542061495251</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1740,13 +1740,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.1999392358924297</v>
+        <v>3.893781843053461</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
-        <v>498.5402228995432</v>
+        <v>0.1557512737221384</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1754,13 +1754,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.1855444951060079</v>
+        <v>3.543363001677506</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97">
-        <v>498.5396471099118</v>
+        <v>0.1417345200671002</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1768,13 +1768,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.1721861119978811</v>
+        <v>3.224479918939473</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98">
-        <v>498.5391127745874</v>
+        <v>0.1289791967575789</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1782,13 +1782,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.1597894733983196</v>
+        <v>2.934294550888978</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99">
-        <v>498.5386169090434</v>
+        <v>0.1173717820355591</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1796,13 +1796,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.1482853379558691</v>
+        <v>2.670224261842698</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100">
-        <v>498.5381567436257</v>
+        <v>0.1068089704737079</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1810,13 +1810,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.1376094493901547</v>
+        <v>2.429918839052213</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
       <c r="D101">
-        <v>498.5377297080831</v>
+        <v>0.09719675356208854</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1824,13 +1824,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.1277021775888443</v>
+        <v>2.211239575924687</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="D102">
-        <v>498.5373334172111</v>
+        <v>0.08844958303698747</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1838,13 +1838,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.1185081855439662</v>
+        <v>2.012240237638046</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103">
-        <v>498.5369656575293</v>
+        <v>0.08048960950552185</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1852,13 +1852,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.109976120267433</v>
+        <v>1.831149739745584</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="D104">
-        <v>498.5366243749182</v>
+        <v>0.07324598958982335</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1866,13 +1866,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.1020583259591774</v>
+        <v>1.666356385610385</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="D105">
-        <v>498.5363076631459</v>
+        <v>0.0666542554244154</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1880,13 +1880,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.09471057782599956</v>
+        <v>1.516393522383538</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106">
-        <v>498.5360137532206</v>
+        <v>0.06065574089534152</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1894,13 +1894,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.0878918350642266</v>
+        <v>1.379926487864999</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
       <c r="D107">
-        <v>498.5357410035101</v>
+        <v>0.05519705951459997</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1908,13 +1908,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.08156401162653992</v>
+        <v>1.255740732074827</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="D108">
-        <v>498.5354878905726</v>
+        <v>0.05022962928299307</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1922,13 +1922,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.07569176349262818</v>
+        <v>1.142731007817346</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109">
-        <v>498.5352530006472</v>
+        <v>0.04570924031269385</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1936,13 +1936,13 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-4.136690768375388</v>
+        <v>1.03989153403478</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110">
-        <v>497.9696353856085</v>
+        <v>0.1414252486287301</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1950,13 +1950,13 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>0.9463070444046764</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111">
-        <v>498.5322253301075</v>
+        <v>0.128697758039036</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1964,13 +1964,13 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>0.8611446415140875</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>498.5322253301075</v>
+        <v>0.1171156712459159</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1978,13 +1978,13 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>0.783646384113041</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113">
-        <v>498.5322253301075</v>
+        <v>0.1065759082393736</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1992,13 +1992,13 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>0.7131225414742346</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114">
-        <v>498.5322253301075</v>
+        <v>0.09698466564049592</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2006,13 +2006,13 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>0.6489454548230427</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
       <c r="D115">
-        <v>498.5322253301075</v>
+        <v>0.08825658185593381</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2020,13 +2020,13 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>0.5905439512049142</v>
       </c>
       <c r="C116">
         <v>0</v>
       </c>
       <c r="D116">
-        <v>498.5322253301075</v>
+        <v>0.08031397736386833</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2034,13 +2034,13 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>0.5373982600738145</v>
       </c>
       <c r="C117">
         <v>0</v>
       </c>
       <c r="D117">
-        <v>498.5322253301075</v>
+        <v>0.07308616337003879</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2048,13 +2048,13 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>0.4890353873595998</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="D118">
-        <v>498.5322253301075</v>
+        <v>0.06650881268090558</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2062,13 +2062,13 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>0.4450249058437663</v>
       </c>
       <c r="C119">
         <v>0</v>
       </c>
       <c r="D119">
-        <v>498.5322253301075</v>
+        <v>0.06052338719475222</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="D120">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="D121">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2110,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="D122">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="D123">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="D124">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="D125">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="D126">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="D127">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="D128">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="D129">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="D130">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="D131">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="D132">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2264,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="D133">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="D134">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="D135">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="D136">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="D138">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2348,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="D139">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="D140">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="D141">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2390,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="D142">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2404,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="D143">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="D144">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="D145">
-        <v>498.5322253301075</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2442,7 +2442,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2470,1682 +2470,1742 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1.034658476264349</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F2">
-        <v>73.068792</v>
+        <v>11.06618348461645</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9601676415774035</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F3">
-        <v>73.22054190985212</v>
+        <v>9.6646683331013</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.8910398175646677</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>4.7190787802245</v>
       </c>
       <c r="F4">
-        <v>73.36136649728347</v>
+        <v>8.263153181586148</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.8268888911746046</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F5">
-        <v>73.49205233719296</v>
+        <v>7.369388261089084</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.7673565477878697</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F6">
-        <v>73.61332937456525</v>
+        <v>5.967873109573932</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.7121102698531558</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F7">
-        <v>73.72587500157415</v>
+        <v>4.566357958058781</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.6608414796123157</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>73.83031784115262</v>
+        <v>3.164842806543629</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.6132638155411669</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F9">
-        <v>73.92724125816243</v>
+        <v>3.164842806543629</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.5691115328788641</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F10">
-        <v>74.01718661777515</v>
+        <v>1.763327655028478</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.5281380193121734</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F11">
-        <v>74.10065630926405</v>
+        <v>0.3618125035133264</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0.4901144175236709</v>
+        <v>7.4</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>74.17811655209653</v>
+        <v>-1.039702648001825</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>74.25</v>
+        <v>0.04563068533150849</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>73.068792</v>
+        <v>1.130964018664842</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B15">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>73.068792</v>
+        <v>2.216297351998175</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>73.068792</v>
+        <v>3.301630685331509</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B17">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>73.068792</v>
+        <v>4.386964018664843</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>73.068792</v>
+        <v>5.472297351998177</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B19">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>73.068792</v>
+        <v>6.55763068533151</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>73.068792</v>
+        <v>7.642964018664844</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B21">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>73.068792</v>
+        <v>8.728297351998178</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B22">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>73.068792</v>
+        <v>9.813630685331511</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>73.068792</v>
+        <v>10.89896401866484</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B24">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>73.068792</v>
+        <v>11.98429735199818</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B25">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>73.068792</v>
+        <v>13.06963068533151</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B26">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>73.068792</v>
+        <v>14.15496401866484</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B27">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>73.068792</v>
+        <v>15.24029735199817</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B28">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>73.068792</v>
+        <v>16.32563068533151</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B29">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>73.068792</v>
+        <v>17.41096401866484</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B30">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>73.068792</v>
+        <v>18.49629735199818</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B31">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>73.068792</v>
+        <v>19.58163068533151</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B32">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>73.068792</v>
+        <v>20.66696401866485</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B33">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>73.068792</v>
+        <v>21.75229735199818</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B34">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>73.068792</v>
+        <v>22.83763068533151</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B35">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>73.068792</v>
+        <v>23.92296401866485</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B36">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>73.068792</v>
+        <v>25.00829735199818</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B37">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>73.068792</v>
+        <v>26.09363068533152</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B38">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>73.068792</v>
+        <v>27.17896401866485</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B39">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>73.068792</v>
+        <v>28.26429735199819</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B40">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>1.034658476264347</v>
+        <v>7.4</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>73.068792</v>
+        <v>29.34963068533152</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B41">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>0.9601676415774065</v>
+        <v>7.4</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>73.2205419098521</v>
+        <v>30.43496401866486</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B42">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>0.8910398175646748</v>
+        <v>7.4</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>73.36136649728346</v>
+        <v>31.52029735199819</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B43">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>0.8268888911746117</v>
+        <v>7.4</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>73.49205233719294</v>
+        <v>32.60563068533153</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B44">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>0.7673565477878839</v>
+        <v>7.4</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>73.61332937456523</v>
+        <v>33.69096401866486</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B45">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>0.7121102698531772</v>
+        <v>7.4</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>73.72587500157411</v>
+        <v>34.77629735199819</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B46">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>0.660841479612337</v>
+        <v>7.4</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>73.83031784115258</v>
+        <v>35.86163068533152</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B47">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>0.6132638155411883</v>
+        <v>7.4</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>73.92724125816238</v>
+        <v>36.94696401866485</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B48">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>0.5691115328788925</v>
+        <v>7.4</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>74.0171866177751</v>
+        <v>38.03229735199818</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B49">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>0.5281380193122018</v>
+        <v>7.4</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>74.100656309264</v>
+        <v>39.11763068533151</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B50">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>0.4901144175237988</v>
+        <v>7.4</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>74.17811655209645</v>
+        <v>40.20296401866484</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B51">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>0.4548283469111425</v>
+        <v>7.4</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>74.24999999999994</v>
+        <v>41.28829735199817</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B52">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>0.4220827173358472</v>
+        <v>7.4</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>74.31670815754691</v>
+        <v>42.37363068533151</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B53">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>0.3916946282778966</v>
+        <v>7.4</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>74.37861362275618</v>
+        <v>43.45896401866484</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B54">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>0.3634943472458829</v>
+        <v>7.4</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>74.43606216823693</v>
+        <v>44.54429735199817</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B55">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>0.3373243617371458</v>
+        <v>7.4</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>74.48937467249966</v>
+        <v>45.6296306853315</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B56">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>0.3130384994526523</v>
+        <v>7.4</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>74.53884891222111</v>
+        <v>46.71496401866483</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B57">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>0.2905011118524854</v>
+        <v>7.4</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>74.58476122547417</v>
+        <v>47.80029735199816</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B58">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>0.2695863164916972</v>
+        <v>6.856578186446683</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>74.62736805521253</v>
+        <v>48.88563068533149</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B59">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>0.2501772939046987</v>
+        <v>6.239524052254581</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>74.6669073816313</v>
+        <v>49.891262152677</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B60">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>0.2321656351108103</v>
+        <v>5.67800137911636</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>74.703600051404</v>
+        <v>50.80639234700767</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B61">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>0.2154507360965283</v>
+        <v>5.167012642510421</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>74.73765101122025</v>
+        <v>51.6391658826114</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B62">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <v>0.1999392358924297</v>
+        <v>4.702010067496218</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>74.76925045251441</v>
+        <v>52.39699440351293</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B63">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>0.1855444951060079</v>
+        <v>4.278855153738128</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>74.79857487377863</v>
+        <v>53.08662254674571</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B64">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>0.1721861119978811</v>
+        <v>3.893781843053461</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>74.82578806639418</v>
+        <v>53.71418796929396</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B65">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>0.1597894733983196</v>
+        <v>3.543363001677506</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>74.8510420294872</v>
+        <v>54.2852759729418</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B66">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66">
-        <v>0.1482853379558691</v>
+        <v>3.224479918939473</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>74.87447781891896</v>
+        <v>54.80496921318784</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B67">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67">
-        <v>0.1376094493901547</v>
+        <v>2.934294550888978</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>74.89622633515249</v>
+        <v>55.27789293463229</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B68">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>0.1277021775888443</v>
+        <v>2.670224261842698</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>74.91640905439638</v>
+        <v>55.70825613542934</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B69">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>0.1185081855439662</v>
+        <v>2.429918839052213</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>74.93513870710942</v>
+        <v>56.09988902716626</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B70">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>0.109976120267433</v>
+        <v>2.211239575924687</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>74.95251990765587</v>
+        <v>56.45627712356059</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B71">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>0.1020583259591774</v>
+        <v>2.012240237638046</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>74.96864973862843</v>
+        <v>56.78059226136287</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B72">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <v>0.09471057782599956</v>
+        <v>1.831149739745584</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>74.98361829310244</v>
+        <v>57.07572082954977</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B73">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D73">
-        <v>0.0878918350642266</v>
+        <v>1.666356385610385</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>74.99750917785025</v>
+        <v>57.34428945804579</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B74">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>0.08156401162653992</v>
+        <v>1.516393522383538</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>75.01039998032634</v>
+        <v>57.58868839460197</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B75">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75">
-        <v>0.07569176349262818</v>
+        <v>1.379926487864999</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>75.02236270203157</v>
+        <v>57.81109277788489</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B76">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>1.255740732074827</v>
       </c>
       <c r="E76">
-        <v>4.136690768375388</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>75.03346416067716</v>
+        <v>58.01348199610509</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B77">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>1.142731007817346</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>74.25</v>
+        <v>58.19765730347606</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B78">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>1.03989153403478</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>74.25</v>
+        <v>58.36525785128927</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B79">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>0.9463070444046764</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>74.25</v>
+        <v>58.51777527628104</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B80">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>0.8611446415140875</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>74.25</v>
+        <v>58.65656697612705</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B81">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>0.783646384113041</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>74.25</v>
+        <v>58.78286819021578</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B82">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.7131225414742346</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>74.25</v>
+        <v>58.89780299321902</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B83">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>0.6489454548230427</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>74.25</v>
+        <v>59.00239429930191</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B84">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>0.5905439512049142</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>74.25</v>
+        <v>59.0975729660093</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
+        <v>115</v>
+      </c>
+      <c r="B85">
+        <v>2016000983</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>0.5373982600738145</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>59.18418607885268</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>116</v>
+      </c>
+      <c r="B86">
+        <v>2016000983</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>0.4890353873595998</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>59.26300449033018</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
         <v>117</v>
       </c>
-      <c r="B85">
-        <v>2014001217</v>
-      </c>
-      <c r="C85">
-        <v>2</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>74.25</v>
+      <c r="B87">
+        <v>2016000983</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>0.4450249058437663</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>59.33472968047624</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>118</v>
+      </c>
+      <c r="B88">
+        <v>2016000983</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>59.4</v>
       </c>
     </row>
   </sheetData>

--- a/results/results10.xlsx
+++ b/results/results10.xlsx
@@ -844,13 +844,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1.0064</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -858,13 +858,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1.0064</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -872,13 +872,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-7.4</v>
+        <v>7.4</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>-1.0064</v>
+        <v>1.0064</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -886,13 +886,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-7.4</v>
+        <v>7.4</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>-1.0064</v>
+        <v>1.0064</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -900,13 +900,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-4.7190787802245</v>
+        <v>4.526303846594715</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>-0.641794714110532</v>
+        <v>0.6155773231368813</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -914,13 +914,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-7.4</v>
+        <v>7.4</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>-1.0064</v>
+        <v>1.0064</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -928,13 +928,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>-1.0064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -942,13 +942,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>-1.0064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -970,13 +970,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>-1.0064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -984,13 +984,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>-1.0064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -998,13 +998,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>-1.0064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1012,13 +1012,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1026,13 +1026,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1040,13 +1040,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1054,13 +1054,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1068,13 +1068,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1082,13 +1082,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1096,13 +1096,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1110,13 +1110,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1124,13 +1124,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1138,13 +1138,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1152,13 +1152,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1166,13 +1166,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1222,13 +1222,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7.4</v>
+        <v>5.322879204923709</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>0.3922</v>
+        <v>0.2821125978609566</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1278,13 +1278,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1292,13 +1292,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1306,13 +1306,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1348,13 +1348,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1362,13 +1362,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1418,13 +1418,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1572,13 +1572,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7.4</v>
+        <v>6.867232725262582</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84">
-        <v>0.296</v>
+        <v>0.2746893090105033</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1586,13 +1586,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7.4</v>
+        <v>6.372822338232069</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85">
-        <v>0.296</v>
+        <v>0.2549128935292828</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1600,13 +1600,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7.4</v>
+        <v>5.914007312620491</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>0.296</v>
+        <v>0.2365602925048196</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1614,13 +1614,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7.4</v>
+        <v>5.488224939820221</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>0.296</v>
+        <v>0.2195289975928088</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1628,13 +1628,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7.4</v>
+        <v>5.093097014910224</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>0.296</v>
+        <v>0.203723880596409</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1642,13 +1642,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7.4</v>
+        <v>4.726416553206569</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>0.296</v>
+        <v>0.1890566621282628</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1656,13 +1656,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6.856578186446683</v>
+        <v>4.38613546316256</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>0.2742631274578673</v>
+        <v>0.1754454185265024</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1670,13 +1670,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6.239524052254581</v>
+        <v>4.070353106765495</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>0.2495809620901832</v>
+        <v>0.1628141242706198</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1684,13 +1684,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5.67800137911636</v>
+        <v>3.777305683534351</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>0.2271200551646544</v>
+        <v>0.151092227341374</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1698,13 +1698,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5.167012642510421</v>
+        <v>3.505356378822619</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93">
-        <v>0.2066805057004168</v>
+        <v>0.1402142551529048</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1712,13 +1712,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>4.702010067496218</v>
+        <v>3.252986221399816</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94">
-        <v>0.1880804026998487</v>
+        <v>0.1301194488559926</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1726,13 +1726,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>4.278855153738128</v>
+        <v>3.018785599246627</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95">
-        <v>0.1711542061495251</v>
+        <v>0.1207514239698651</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1740,13 +1740,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>3.893781843053461</v>
+        <v>2.801446386175385</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
-        <v>0.1557512737221384</v>
+        <v>0.1120578554470154</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1754,13 +1754,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>3.543363001677506</v>
+        <v>2.599754635298943</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97">
-        <v>0.1417345200671002</v>
+        <v>0.1039901854119577</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1768,13 +1768,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>3.224479918939473</v>
+        <v>2.412583798537568</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98">
-        <v>0.1289791967575789</v>
+        <v>0.09650335194150272</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1782,13 +1782,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>2.934294550888978</v>
+        <v>2.238888434291283</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99">
-        <v>0.1173717820355591</v>
+        <v>0.08955553737165133</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1796,13 +1796,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>2.670224261842698</v>
+        <v>2.077698368132026</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100">
-        <v>0.1068089704737079</v>
+        <v>0.08310793472528104</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1810,13 +1810,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>2.429918839052213</v>
+        <v>1.928113273900124</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
       <c r="D101">
-        <v>0.09719675356208854</v>
+        <v>0.07712453095600495</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1824,13 +1824,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>2.211239575924687</v>
+        <v>1.789297644937847</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="D102">
-        <v>0.08844958303698747</v>
+        <v>0.07157190579751387</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1838,13 +1838,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>2.012240237638046</v>
+        <v>1.66047612737195</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103">
-        <v>0.08048960950552185</v>
+        <v>0.06641904509487802</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1852,13 +1852,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1.831149739745584</v>
+        <v>1.540929189379177</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="D104">
-        <v>0.07324598958982335</v>
+        <v>0.0616371675751671</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1866,13 +1866,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1.666356385610385</v>
+        <v>1.429989102245543</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="D105">
-        <v>0.0666542554244154</v>
+        <v>0.05719956408982171</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1880,13 +1880,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1.516393522383538</v>
+        <v>1.327036210771546</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106">
-        <v>0.06065574089534152</v>
+        <v>0.05308144843086183</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1894,13 +1894,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1.379926487864999</v>
+        <v>1.231495472191732</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
       <c r="D107">
-        <v>0.05519705951459997</v>
+        <v>0.04925981888766927</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1908,13 +1908,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1.255740732074827</v>
+        <v>1.142833244276723</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="D108">
-        <v>0.05022962928299307</v>
+        <v>0.04571332977106891</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1922,13 +1922,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1.142731007817346</v>
+        <v>1.060554304677716</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109">
-        <v>0.04570924031269385</v>
+        <v>0.04242217218710863</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1936,13 +1936,13 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1.03989153403478</v>
+        <v>0.98419908486499</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110">
-        <v>0.1414252486287301</v>
+        <v>0.1338510755416386</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1950,13 +1950,13 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.9463070444046764</v>
+        <v>0.913341103210584</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111">
-        <v>0.128697758039036</v>
+        <v>0.1242143900366394</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1964,13 +1964,13 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.8611446415140875</v>
+        <v>0</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>0.1171156712459159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1978,13 +1978,13 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.783646384113041</v>
+        <v>0</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113">
-        <v>0.1065759082393736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1992,13 +1992,13 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.7131225414742346</v>
+        <v>0</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114">
-        <v>0.09698466564049592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2006,13 +2006,13 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.6489454548230427</v>
+        <v>0</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
       <c r="D115">
-        <v>0.08825658185593381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2020,13 +2020,13 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.5905439512049142</v>
+        <v>0.2061154104248999</v>
       </c>
       <c r="C116">
         <v>0</v>
       </c>
       <c r="D116">
-        <v>0.08031397736386833</v>
+        <v>0.02803169581778639</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2034,13 +2034,13 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.5373982600738145</v>
+        <v>0.8327451848380605</v>
       </c>
       <c r="C117">
         <v>0</v>
       </c>
       <c r="D117">
-        <v>0.07308616337003879</v>
+        <v>0.1132533451379762</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2048,13 +2048,13 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.4890353873595998</v>
+        <v>0.7727912142060518</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="D118">
-        <v>0.06650881268090558</v>
+        <v>0.1050996051320231</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2062,13 +2062,13 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.4450249058437663</v>
+        <v>0</v>
       </c>
       <c r="C119">
         <v>0</v>
       </c>
       <c r="D119">
-        <v>0.06052338719475222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2090,13 +2090,13 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>0.7171536643231349</v>
       </c>
       <c r="C121">
         <v>0</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>0.09753289834794635</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2104,13 +2104,13 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>0.6655217719840252</v>
       </c>
       <c r="C122">
         <v>0</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>0.09051096098982743</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2118,13 +2118,13 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>0.617607147559923</v>
       </c>
       <c r="C123">
         <v>0</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>0.08399457206814953</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2132,13 +2132,13 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>0.5731421641999503</v>
       </c>
       <c r="C124">
         <v>0</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>0.07794733433119325</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2442,7 +2442,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2470,130 +2470,130 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E2">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>11.06618348461645</v>
+        <v>35.63554358327789</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E3">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>9.6646683331013</v>
+        <v>36.72087691661122</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E4">
-        <v>4.7190787802245</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>8.263153181586148</v>
+        <v>37.80621024994455</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E5">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>7.369388261089084</v>
+        <v>38.89154358327788</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>4.526303846594715</v>
       </c>
       <c r="E6">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>5.967873109573932</v>
+        <v>39.97687691661121</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E7">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>4.566357958058781</v>
+        <v>40.64073481411177</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2605,158 +2605,158 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.164842806543629</v>
+        <v>41.7260681474451</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>3.164842806543629</v>
+        <v>37.51264438327788</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1.763327655028478</v>
+        <v>37.51264438327788</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.3618125035133264</v>
+        <v>37.51264438327788</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>-1.039702648001825</v>
+        <v>37.51264438327788</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.04563068533150849</v>
+        <v>37.51264438327788</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.130964018664842</v>
+        <v>37.51264438327788</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.216297351998175</v>
+        <v>37.51264438327788</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>7.4</v>
@@ -2765,18 +2765,18 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.301630685331509</v>
+        <v>37.51264438327788</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>7.4</v>
@@ -2785,18 +2785,18 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4.386964018664843</v>
+        <v>38.59797771661121</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <v>7.4</v>
@@ -2805,38 +2805,38 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>5.472297351998177</v>
+        <v>39.68331104994454</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>7.4</v>
+        <v>5.322879204923709</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>6.55763068533151</v>
+        <v>40.76864438327787</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <v>7.4</v>
@@ -2845,18 +2845,18 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>7.642964018664844</v>
+        <v>41.54933333333335</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <v>7.4</v>
@@ -2865,18 +2865,18 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>8.728297351998178</v>
+        <v>42.63466666666668</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>7.4</v>
@@ -2885,78 +2885,78 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>9.813630685331511</v>
+        <v>43.72000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>10.89896401866484</v>
+        <v>44.80533333333334</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>11.98429735199818</v>
+        <v>44.80533333333334</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>13.06963068533151</v>
+        <v>44.80533333333334</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
         <v>7.4</v>
@@ -2965,18 +2965,18 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>14.15496401866484</v>
+        <v>44.80533333333334</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>7.4</v>
@@ -2985,58 +2985,58 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>15.24029735199817</v>
+        <v>45.89066666666668</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>16.32563068533151</v>
+        <v>46.97600000000001</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>17.41096401866484</v>
+        <v>46.97600000000001</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30">
         <v>7.4</v>
@@ -3045,18 +3045,18 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>18.49629735199818</v>
+        <v>46.97600000000001</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B31">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <v>7.4</v>
@@ -3065,18 +3065,18 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>19.58163068533151</v>
+        <v>48.06133333333334</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B32">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32">
         <v>7.4</v>
@@ -3085,38 +3085,38 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>20.66696401866485</v>
+        <v>49.14666666666667</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B33">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>21.75229735199818</v>
+        <v>50.232</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34">
         <v>7.4</v>
@@ -3125,18 +3125,18 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>22.83763068533151</v>
+        <v>50.232</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35">
         <v>7.4</v>
@@ -3145,18 +3145,18 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>23.92296401866485</v>
+        <v>51.31733333333333</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B36">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36">
         <v>7.4</v>
@@ -3165,18 +3165,18 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>25.00829735199818</v>
+        <v>52.40266666666666</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B37">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37">
         <v>7.4</v>
@@ -3185,18 +3185,18 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>26.09363068533152</v>
+        <v>53.48799999999999</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B38">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38">
         <v>7.4</v>
@@ -3205,18 +3205,18 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>27.17896401866485</v>
+        <v>54.57333333333332</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B39">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39">
         <v>7.4</v>
@@ -3225,18 +3225,18 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>28.26429735199819</v>
+        <v>55.65866666666665</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B40">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40">
         <v>7.4</v>
@@ -3245,18 +3245,18 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>29.34963068533152</v>
+        <v>56.74399999999999</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B41">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41">
         <v>7.4</v>
@@ -3265,18 +3265,18 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>30.43496401866486</v>
+        <v>57.82933333333332</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B42">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42">
         <v>7.4</v>
@@ -3285,18 +3285,18 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>31.52029735199819</v>
+        <v>58.91466666666665</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B43">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43">
         <v>7.4</v>
@@ -3305,907 +3305,847 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>32.60563068533153</v>
+        <v>59.99999999999998</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B44">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>7.4</v>
+        <v>6.867232725262582</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>33.69096401866486</v>
+        <v>61.08533333333331</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B45">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>7.4</v>
+        <v>6.372822338232069</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>34.77629735199819</v>
+        <v>62.09252746637182</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B46">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46">
-        <v>7.4</v>
+        <v>5.914007312620491</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>35.86163068533152</v>
+        <v>63.02720807597919</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B47">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47">
-        <v>7.4</v>
+        <v>5.488224939820221</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>36.94696401866485</v>
+        <v>63.89459581516353</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B48">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48">
-        <v>7.4</v>
+        <v>5.093097014910224</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>38.03229735199818</v>
+        <v>64.69953547300382</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B49">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>7.4</v>
+        <v>4.726416553206569</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>39.11763068533151</v>
+        <v>65.44652303519065</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B50">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50">
-        <v>7.4</v>
+        <v>4.38613546316256</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>40.20296401866484</v>
+        <v>66.13973079632761</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B51">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <v>7.4</v>
+        <v>4.070353106765495</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>41.28829735199817</v>
+        <v>66.78303066425812</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B52">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52">
-        <v>7.4</v>
+        <v>3.777305683534351</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>42.37363068533151</v>
+        <v>67.38001578658373</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B53">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53">
-        <v>7.4</v>
+        <v>3.505356378822619</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>43.45896401866484</v>
+        <v>67.93402062016877</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B54">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54">
-        <v>7.4</v>
+        <v>3.252986221399816</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>44.54429735199817</v>
+        <v>68.44813955572941</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B55">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55">
-        <v>7.4</v>
+        <v>3.018785599246627</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>45.6296306853315</v>
+        <v>68.92524420153472</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B56">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56">
-        <v>7.4</v>
+        <v>2.801446386175385</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>46.71496401866483</v>
+        <v>69.36799942275756</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B57">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57">
-        <v>7.4</v>
+        <v>2.599754635298943</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>47.80029735199816</v>
+        <v>69.77887822606328</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B58">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58">
-        <v>6.856578186446683</v>
+        <v>2.412583798537568</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>48.88563068533149</v>
+        <v>70.16017557257379</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B59">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59">
-        <v>6.239524052254581</v>
+        <v>2.238888434291283</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>49.891262152677</v>
+        <v>70.51402119635929</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B60">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60">
-        <v>5.67800137911636</v>
+        <v>2.077698368132026</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>50.80639234700767</v>
+        <v>70.84239150005536</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B61">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61">
-        <v>5.167012642510421</v>
+        <v>1.928113273900124</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>51.6391658826114</v>
+        <v>71.14712059404805</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B62">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62">
-        <v>4.702010067496218</v>
+        <v>1.789297644937847</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>52.39699440351293</v>
+        <v>71.42991054088674</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B63">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63">
-        <v>4.278855153738128</v>
+        <v>1.66047612737195</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>53.08662254674571</v>
+        <v>71.69234086214429</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B64">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64">
-        <v>3.893781843053461</v>
+        <v>1.540929189379177</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>53.71418796929396</v>
+        <v>71.93587736082551</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B65">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65">
-        <v>3.543363001677506</v>
+        <v>1.429989102245543</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>54.2852759729418</v>
+        <v>72.16188030860113</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B66">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66">
-        <v>3.224479918939473</v>
+        <v>1.327036210771546</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>54.80496921318784</v>
+        <v>72.37161204359714</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B67">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67">
-        <v>2.934294550888978</v>
+        <v>1.231495472191732</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>55.27789293463229</v>
+        <v>72.56624402117697</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B68">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68">
-        <v>2.670224261842698</v>
+        <v>1.142833244276723</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>55.70825613542934</v>
+        <v>72.74686335709842</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B69">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69">
-        <v>2.429918839052213</v>
+        <v>1.060554304677716</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>56.09988902716626</v>
+        <v>72.91447889959234</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B70">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70">
-        <v>2.211239575924687</v>
+        <v>0.98419908486499</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>56.45627712356059</v>
+        <v>73.0700268642784</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B71">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71">
-        <v>2.012240237638046</v>
+        <v>0.913341103210584</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>56.78059226136287</v>
+        <v>73.21437606339194</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B72">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72">
-        <v>1.831149739745584</v>
+        <v>0</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>57.07572082954977</v>
+        <v>73.34833275852949</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B73">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73">
-        <v>1.666356385610385</v>
+        <v>0</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>57.34428945804579</v>
+        <v>73.34833275852949</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B74">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74">
-        <v>1.516393522383538</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>57.58868839460197</v>
+        <v>73.34833275852949</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B75">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75">
-        <v>1.379926487864999</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>57.81109277788489</v>
+        <v>73.34833275852949</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B76">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76">
-        <v>1.255740732074827</v>
+        <v>0.2061154104248999</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>58.01348199610509</v>
+        <v>73.34833275852949</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B77">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77">
-        <v>1.142731007817346</v>
+        <v>0.8327451848380605</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>58.19765730347606</v>
+        <v>73.37856301872515</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B78">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>1.03989153403478</v>
+        <v>0.7727912142060518</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>58.36525785128927</v>
+        <v>73.50069897916805</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B79">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79">
-        <v>0.9463070444046764</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>58.51777527628104</v>
+        <v>73.61404169058494</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B80">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80">
-        <v>0.8611446415140875</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>58.65656697612705</v>
+        <v>73.61404169058494</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B81">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81">
-        <v>0.783646384113041</v>
+        <v>0.7171536643231349</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>58.78286819021578</v>
+        <v>73.61404169058494</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B82">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82">
-        <v>0.7131225414742346</v>
+        <v>0.6655217719840252</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>58.89780299321902</v>
+        <v>73.719224228019</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B83">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83">
-        <v>0.6489454548230427</v>
+        <v>0.617607147559923</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>59.00239429930191</v>
+        <v>73.81683408791</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B84">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84">
-        <v>0.5905439512049142</v>
+        <v>0.5731421641999503</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>59.0975729660093</v>
+        <v>73.90741646955212</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B85">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>0.5373982600738145</v>
+        <v>0</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>59.18418607885268</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>116</v>
-      </c>
-      <c r="B86">
-        <v>2016000983</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <v>0.4890353873595998</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>59.26300449033018</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>117</v>
-      </c>
-      <c r="B87">
-        <v>2016000983</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87">
-        <v>0.4450249058437663</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>59.33472968047624</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>118</v>
-      </c>
-      <c r="B88">
-        <v>2016000983</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>59.4</v>
+        <v>73.99147732030146</v>
       </c>
     </row>
   </sheetData>

--- a/results/results10.xlsx
+++ b/results/results10.xlsx
@@ -816,13 +816,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -830,13 +830,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -844,13 +844,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7.4</v>
+        <v>-7.4</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>1.0064</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -858,13 +858,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7.4</v>
+        <v>-7.4</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>1.0064</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -872,13 +872,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7.4</v>
+        <v>-7.4</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>1.0064</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -886,13 +886,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7.4</v>
+        <v>-7.4</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>1.0064</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -900,13 +900,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>4.526303846594715</v>
+        <v>-7.4</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0.6155773231368813</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -914,13 +914,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7.4</v>
+        <v>-7.4</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>1.0064</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -928,13 +928,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -942,13 +942,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -956,13 +956,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -970,13 +970,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -984,13 +984,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -998,13 +998,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>-1.0064</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1180,13 +1180,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1194,13 +1194,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1208,13 +1208,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1222,13 +1222,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5.322879204923709</v>
+        <v>0</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>0.2821125978609566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1236,13 +1236,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1250,13 +1250,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1264,13 +1264,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1320,13 +1320,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1334,13 +1334,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1376,13 +1376,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1390,13 +1390,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1404,13 +1404,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>0.3922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1572,13 +1572,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6.867232725262582</v>
+        <v>7.233754270514197</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84">
-        <v>0.2746893090105033</v>
+        <v>0.2893501708205679</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1586,13 +1586,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6.372822338232069</v>
+        <v>6.582756373753718</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85">
-        <v>0.2549128935292828</v>
+        <v>0.2633102549501487</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1600,13 +1600,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5.914007312620491</v>
+        <v>5.990344689040004</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>0.2365602925048196</v>
+        <v>0.2396137875616002</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1614,13 +1614,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5.488224939820221</v>
+        <v>5.451246781148509</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>0.2195289975928088</v>
+        <v>0.2180498712459404</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1628,13 +1628,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5.093097014910224</v>
+        <v>4.960664704879314</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>0.203723880596409</v>
+        <v>0.1984265881951726</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1642,13 +1642,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>4.726416553206569</v>
+        <v>4.514232303577849</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>0.1890566621282628</v>
+        <v>0.180569292143114</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1656,13 +1656,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>4.38613546316256</v>
+        <v>4.107976350552711</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>0.1754454185265024</v>
+        <v>0.1643190540221084</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1670,13 +1670,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>4.070353106765495</v>
+        <v>3.73828118755106</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>0.1628141242706198</v>
+        <v>0.1495312475020424</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1684,13 +1684,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>3.777305683534351</v>
+        <v>3.401856545575761</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>0.151092227341374</v>
+        <v>0.1360742618230305</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1698,13 +1698,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>3.505356378822619</v>
+        <v>3.09570826165109</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93">
-        <v>0.1402142551529048</v>
+        <v>0.1238283304660436</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1712,13 +1712,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>3.252986221399816</v>
+        <v>2.817111630917644</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94">
-        <v>0.1301194488559926</v>
+        <v>0.1126844652367058</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1726,13 +1726,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>3.018785599246627</v>
+        <v>2.563587156891444</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95">
-        <v>0.1207514239698651</v>
+        <v>0.1025434862756578</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1740,13 +1740,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>2.801446386175385</v>
+        <v>2.332878484065617</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
-        <v>0.1120578554470154</v>
+        <v>0.09331513936262469</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1754,13 +1754,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>2.599754635298943</v>
+        <v>2.122932316455952</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97">
-        <v>0.1039901854119577</v>
+        <v>0.08491729265823807</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1768,13 +1768,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>2.412583798537568</v>
+        <v>1.931880143366385</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98">
-        <v>0.09650335194150272</v>
+        <v>0.07727520573465541</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1782,13 +1782,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>2.238888434291283</v>
+        <v>1.758021609734513</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99">
-        <v>0.08955553737165133</v>
+        <v>0.07032086438938052</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1796,13 +1796,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>2.077698368132026</v>
+        <v>1.599809383054151</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100">
-        <v>0.08310793472528104</v>
+        <v>0.06399237532216603</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1810,13 +1810,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1.928113273900124</v>
+        <v>1.455835382191125</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
       <c r="D101">
-        <v>0.07712453095600495</v>
+        <v>0.05823341528764502</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1824,13 +1824,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1.789297644937847</v>
+        <v>1.324818245529592</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="D102">
-        <v>0.07157190579751387</v>
+        <v>0.05299272982118367</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1838,13 +1838,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>1.66047612737195</v>
+        <v>1.205591926915872</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103">
-        <v>0.06641904509487802</v>
+        <v>0.04822367707663489</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1852,13 +1852,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1.540929189379177</v>
+        <v>1.097095317904319</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="D104">
-        <v>0.0616371675751671</v>
+        <v>0.04388381271617277</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1866,13 +1866,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1.429989102245543</v>
+        <v>0.9983628039436638</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="D105">
-        <v>0.05719956408982171</v>
+        <v>0.03993451215774656</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1880,13 +1880,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1.327036210771546</v>
+        <v>0.9085156704544275</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106">
-        <v>0.05308144843086183</v>
+        <v>0.0363406268181771</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1894,13 +1894,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1.231495472191732</v>
+        <v>0.8267542823118177</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
       <c r="D107">
-        <v>0.04925981888766927</v>
+        <v>0.03307017129247271</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1908,13 +1908,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1.142833244276723</v>
+        <v>0.7523509671319601</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="D108">
-        <v>0.04571332977106891</v>
+        <v>0.03009403868527841</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1922,13 +1922,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1.060554304677716</v>
+        <v>0.6846435390230141</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109">
-        <v>0.04242217218710863</v>
+        <v>0.02738574156092057</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1936,13 +1936,13 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.98419908486499</v>
+        <v>0</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110">
-        <v>0.1338510755416386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1950,13 +1950,13 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.913341103210584</v>
+        <v>0</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111">
-        <v>0.1242143900366394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1964,13 +1964,13 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>0.3609716597665624</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>0.0490921457282525</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1978,13 +1978,13 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>0.5905439512049142</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>0.08031397736386833</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2006,13 +2006,13 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>0.5373982600738145</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>0.07308616337003879</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2020,13 +2020,13 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.2061154104248999</v>
+        <v>0.4890353873595998</v>
       </c>
       <c r="C116">
         <v>0</v>
       </c>
       <c r="D116">
-        <v>0.02803169581778639</v>
+        <v>0.06650881268090558</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2034,13 +2034,13 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.8327451848380605</v>
+        <v>0.4450249058437663</v>
       </c>
       <c r="C117">
         <v>0</v>
       </c>
       <c r="D117">
-        <v>0.1132533451379762</v>
+        <v>0.06052338719475222</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2048,13 +2048,13 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.7727912142060518</v>
+        <v>0</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="D118">
-        <v>0.1050996051320231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2090,13 +2090,13 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.7171536643231349</v>
+        <v>0</v>
       </c>
       <c r="C121">
         <v>0</v>
       </c>
       <c r="D121">
-        <v>0.09753289834794635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2104,13 +2104,13 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.6655217719840252</v>
+        <v>0</v>
       </c>
       <c r="C122">
         <v>0</v>
       </c>
       <c r="D122">
-        <v>0.09051096098982743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2118,13 +2118,13 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.617607147559923</v>
+        <v>0</v>
       </c>
       <c r="C123">
         <v>0</v>
       </c>
       <c r="D123">
-        <v>0.08399457206814953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2132,13 +2132,13 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.5731421641999503</v>
+        <v>0</v>
       </c>
       <c r="C124">
         <v>0</v>
       </c>
       <c r="D124">
-        <v>0.07794733433119325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2442,7 +2442,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2470,130 +2470,130 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>7.4</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
       <c r="F2">
-        <v>35.63554358327789</v>
+        <v>57.03881439566239</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>7.4</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
       <c r="F3">
-        <v>36.72087691661122</v>
+        <v>55.63729924414724</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>7.4</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
       <c r="F4">
-        <v>37.80621024994455</v>
+        <v>54.23578409263209</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>7.4</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="F5">
-        <v>38.89154358327788</v>
+        <v>52.83426894111695</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>4.526303846594715</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F6">
-        <v>39.97687691661121</v>
+        <v>51.4327537896018</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>7.4</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
       <c r="F7">
-        <v>40.64073481411177</v>
+        <v>50.03123863808665</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2602,301 +2602,301 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F8">
-        <v>41.7260681474451</v>
+        <v>48.6297234865715</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B9">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F9">
-        <v>37.51264438327788</v>
+        <v>47.22820833505635</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B10">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F10">
-        <v>37.51264438327788</v>
+        <v>45.8266931835412</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B11">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F11">
-        <v>37.51264438327788</v>
+        <v>44.42517803202605</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B12">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F12">
-        <v>37.51264438327788</v>
+        <v>43.0236628805109</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B13">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F13">
-        <v>37.51264438327788</v>
+        <v>41.62214772899576</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B14">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F14">
-        <v>37.51264438327788</v>
+        <v>40.22063257748061</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B15">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F15">
-        <v>37.51264438327788</v>
+        <v>38.81911742596546</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B16">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>37.51264438327788</v>
+        <v>37.41760227445031</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B17">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>38.59797771661121</v>
+        <v>37.41760227445031</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B18">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>39.68331104994454</v>
+        <v>37.41760227445031</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B19">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>5.322879204923709</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>40.76864438327787</v>
+        <v>37.41760227445031</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B20">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>41.54933333333335</v>
+        <v>37.41760227445031</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B21">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>42.63466666666668</v>
+        <v>37.41760227445031</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B22">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>43.72000000000001</v>
+        <v>37.41760227445031</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B23">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2905,18 +2905,18 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>44.80533333333334</v>
+        <v>37.41760227445031</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B24">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2925,18 +2925,18 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>44.80533333333334</v>
+        <v>37.41760227445031</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B25">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2945,58 +2945,58 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>44.80533333333334</v>
+        <v>37.41760227445031</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B26">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>44.80533333333334</v>
+        <v>37.41760227445031</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B27">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>45.89066666666668</v>
+        <v>37.41760227445031</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B28">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3005,18 +3005,18 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>46.97600000000001</v>
+        <v>37.41760227445031</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B29">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3025,78 +3025,78 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>46.97600000000001</v>
+        <v>37.41760227445031</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B30">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>46.97600000000001</v>
+        <v>37.41760227445031</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B31">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>48.06133333333334</v>
+        <v>37.41760227445031</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B32">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>49.14666666666667</v>
+        <v>37.41760227445031</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B33">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3105,1047 +3105,1147 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>50.232</v>
+        <v>37.41760227445031</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B34">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>50.232</v>
+        <v>37.41760227445031</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B35">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>51.31733333333333</v>
+        <v>37.41760227445031</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B36">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>52.40266666666666</v>
+        <v>37.41760227445031</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B37">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>53.48799999999999</v>
+        <v>37.41760227445031</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B38">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>54.57333333333332</v>
+        <v>37.41760227445031</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B39">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>55.65866666666665</v>
+        <v>37.41760227445031</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B40">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>56.74399999999999</v>
+        <v>37.41760227445031</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B41">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>57.82933333333332</v>
+        <v>37.41760227445031</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B42">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>58.91466666666665</v>
+        <v>37.41760227445031</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B43">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>59.99999999999998</v>
+        <v>37.41760227445031</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B44">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>6.867232725262582</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>61.08533333333331</v>
+        <v>37.41760227445031</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B45">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>6.372822338232069</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>62.09252746637182</v>
+        <v>37.41760227445031</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B46">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>5.914007312620491</v>
+        <v>7.4</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>63.02720807597919</v>
+        <v>37.41760227445031</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B47">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>5.488224939820221</v>
+        <v>7.4</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>63.89459581516353</v>
+        <v>38.50293560778364</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B48">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>5.093097014910224</v>
+        <v>7.4</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>64.69953547300382</v>
+        <v>39.58826894111697</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B49">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>4.726416553206569</v>
+        <v>7.4</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>65.44652303519065</v>
+        <v>40.6736022744503</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B50">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>4.38613546316256</v>
+        <v>7.4</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>66.13973079632761</v>
+        <v>41.75893560778363</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B51">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>4.070353106765495</v>
+        <v>7.4</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>66.78303066425812</v>
+        <v>42.84426894111697</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B52">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>3.777305683534351</v>
+        <v>7.4</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>67.38001578658373</v>
+        <v>43.9296022744503</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B53">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>3.505356378822619</v>
+        <v>7.4</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>67.93402062016877</v>
+        <v>45.01493560778363</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B54">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>3.252986221399816</v>
+        <v>7.4</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>68.44813955572941</v>
+        <v>46.10026894111696</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B55">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>3.018785599246627</v>
+        <v>7.4</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>68.92524420153472</v>
+        <v>47.18560227445029</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B56">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>2.801446386175385</v>
+        <v>7.233754270514197</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>69.36799942275756</v>
+        <v>48.27093560778362</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B57">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>2.599754635298943</v>
+        <v>6.582756373753718</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>69.77887822606328</v>
+        <v>49.3318862341257</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B58">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>2.412583798537568</v>
+        <v>5.990344689040004</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>70.16017557257379</v>
+        <v>50.29735716894292</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B59">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>2.238888434291283</v>
+        <v>5.451246781148509</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>70.51402119635929</v>
+        <v>51.17594105666878</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B60">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>2.077698368132026</v>
+        <v>4.960664704879314</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>70.84239150005536</v>
+        <v>51.97545725123723</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B61">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>1.928113273900124</v>
+        <v>4.514232303577849</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>71.14712059404805</v>
+        <v>52.70302140795286</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B62">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <v>1.789297644937847</v>
+        <v>4.107976350552711</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>71.42991054088674</v>
+        <v>53.36510881247762</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B63">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>1.66047612737195</v>
+        <v>3.73828118755106</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>71.69234086214429</v>
+        <v>53.96761201055868</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B64">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>1.540929189379177</v>
+        <v>3.401856545575761</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>71.93587736082551</v>
+        <v>54.5158932513995</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B65">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>1.429989102245543</v>
+        <v>3.09570826165109</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>72.16188030860113</v>
+        <v>55.01483221141729</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B66">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66">
-        <v>1.327036210771546</v>
+        <v>2.817111630917644</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>72.37161204359714</v>
+        <v>55.46886942312612</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B67">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67">
-        <v>1.231495472191732</v>
+        <v>2.563587156891444</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>72.56624402117697</v>
+        <v>55.8820457956607</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B68">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>1.142833244276723</v>
+        <v>2.332878484065617</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>72.74686335709842</v>
+        <v>56.25803857867145</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B69">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>1.060554304677716</v>
+        <v>2.122932316455952</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>72.91447889959234</v>
+        <v>56.60019408966774</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B70">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>0.98419908486499</v>
+        <v>1.931880143366385</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>73.0700268642784</v>
+        <v>56.91155749608128</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B71">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>0.913341103210584</v>
+        <v>1.758021609734513</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>73.21437606339194</v>
+        <v>57.19489991710835</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B72">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>1.599809383054151</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>73.34833275852949</v>
+        <v>57.45274308653608</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B73">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>1.455835382191125</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>73.34833275852949</v>
+        <v>57.68738179605069</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B74">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>1.324818245529592</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>73.34833275852949</v>
+        <v>57.90090431877205</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B75">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>1.205591926915872</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>73.34833275852949</v>
+        <v>58.09521099478306</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B76">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>0.2061154104248999</v>
+        <v>1.097095317904319</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>73.34833275852949</v>
+        <v>58.27203114406405</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B77">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>0.8327451848380605</v>
+        <v>0.9983628039436638</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>73.37856301872515</v>
+        <v>58.43293845735668</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B78">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <v>0.7727912142060518</v>
+        <v>0.9085156704544275</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>73.50069897916805</v>
+        <v>58.57936500193509</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B79">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>0.8267542823118177</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>73.61404169058494</v>
+        <v>58.71261396693507</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B80">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>0.7523509671319601</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>73.61404169058494</v>
+        <v>58.83387126167414</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B81">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D81">
-        <v>0.7171536643231349</v>
+        <v>0.6846435390230141</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>73.61404169058494</v>
+        <v>58.94421607018683</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B82">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>0.6655217719840252</v>
+        <v>0</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>73.719224228019</v>
+        <v>59.0446304559102</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B83">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>0.617607147559923</v>
+        <v>0</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>73.81683408791</v>
+        <v>59.0446304559102</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B84">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>0.5731421641999503</v>
+        <v>0.3609716597665624</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>73.90741646955212</v>
+        <v>59.0446304559102</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B85">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>0.5905439512049142</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>73.99147732030146</v>
+        <v>59.0975729660093</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>112</v>
+      </c>
+      <c r="B86">
+        <v>2012008998</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>59.18418607885268</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>113</v>
+      </c>
+      <c r="B87">
+        <v>2012008998</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>0.5373982600738145</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>59.18418607885268</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>114</v>
+      </c>
+      <c r="B88">
+        <v>2012008998</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>0.4890353873595998</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>59.26300449033018</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>115</v>
+      </c>
+      <c r="B89">
+        <v>2012008998</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>0.4450249058437663</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>59.33472968047624</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>116</v>
+      </c>
+      <c r="B90">
+        <v>2012008998</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>59.4</v>
       </c>
     </row>
   </sheetData>

--- a/results/results10.xlsx
+++ b/results/results10.xlsx
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -444,7 +444,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -458,7 +458,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -472,7 +472,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -528,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -584,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -816,13 +816,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>-1.0064</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>-1.0064</v>
+        <v>2163.621376881684</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>-1.0064</v>
+        <v>2163.621376881684</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>-1.0064</v>
+        <v>2163.621376881684</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>-1.0064</v>
+        <v>2163.621376881684</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>-1.0064</v>
+        <v>2163.621376881684</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>-1.0064</v>
+        <v>2163.621376881684</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>-1.0064</v>
+        <v>2163.621376881684</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>-1.0064</v>
+        <v>2163.621376881684</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>-1.0064</v>
+        <v>2163.621376881684</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>-1.0064</v>
+        <v>2163.621376881684</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>-1.0064</v>
+        <v>2163.621376881684</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>-1.0064</v>
+        <v>2163.621376881684</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>-1.0064</v>
+        <v>2163.621376881684</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1292,13 +1292,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>2164.235576881685</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1306,13 +1306,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-1.41476607975698</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>2164.552794279457</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>0.296</v>
+        <v>2164.923776881684</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>0.296</v>
+        <v>2164.923776881684</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>0.296</v>
+        <v>2164.923776881684</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>0.296</v>
+        <v>2164.923776881684</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>0.296</v>
+        <v>2164.923776881684</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>0.296</v>
+        <v>2164.923776881684</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>0.296</v>
+        <v>2164.923776881684</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>0.296</v>
+        <v>2164.923776881684</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>0.296</v>
+        <v>2164.923776881684</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>0.296</v>
+        <v>2164.923776881684</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1572,13 +1572,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7.233754270514197</v>
+        <v>7.4</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84">
-        <v>0.2893501708205679</v>
+        <v>2164.923776881684</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1586,13 +1586,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6.582756373753718</v>
+        <v>7.4</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85">
-        <v>0.2633102549501487</v>
+        <v>2164.923776881684</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1600,13 +1600,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5.990344689040004</v>
+        <v>7.4</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>0.2396137875616002</v>
+        <v>2164.923776881684</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1614,13 +1614,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5.451246781148509</v>
+        <v>7.4</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>0.2180498712459404</v>
+        <v>2164.923776881684</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1628,13 +1628,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>4.960664704879314</v>
+        <v>7.4</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>0.1984265881951726</v>
+        <v>2164.923776881684</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1642,13 +1642,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>4.514232303577849</v>
+        <v>7.4</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>0.180569292143114</v>
+        <v>2164.923776881684</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1656,13 +1656,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>4.107976350552711</v>
+        <v>6.068081813156443</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>0.1643190540221084</v>
+        <v>2164.870500154211</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1670,13 +1670,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>3.73828118755106</v>
+        <v>4.975894174481077</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>0.1495312475020424</v>
+        <v>2164.826812648664</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1684,13 +1684,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>3.401856545575761</v>
+        <v>4.080288235724282</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>0.1360742618230305</v>
+        <v>2164.790988411114</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1698,13 +1698,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>3.09570826165109</v>
+        <v>3.345881464274953</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93">
-        <v>0.1238283304660436</v>
+        <v>2164.761612140255</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1712,13 +1712,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>2.817111630917644</v>
+        <v>2.743659792208661</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94">
-        <v>0.1126844652367058</v>
+        <v>2164.737523273373</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1726,13 +1726,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>2.563587156891444</v>
+        <v>2.249831363052699</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95">
-        <v>0.1025434862756578</v>
+        <v>2164.717770136207</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1740,13 +1740,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>2.332878484065617</v>
+        <v>1.844886591460678</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
-        <v>0.09331513936262469</v>
+        <v>2164.701572345343</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1754,13 +1754,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>2.122932316455952</v>
+        <v>1.512827401753881</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97">
-        <v>0.08491729265823807</v>
+        <v>2164.688289977755</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1768,13 +1768,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1.931880143366385</v>
+        <v>1.240535195003709</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98">
-        <v>0.07727520573465541</v>
+        <v>2164.677398289485</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1782,13 +1782,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1.758021609734513</v>
+        <v>1.017252575051685</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99">
-        <v>0.07032086438938052</v>
+        <v>2164.668466984686</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1796,13 +1796,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1.599809383054151</v>
+        <v>0.8341583581159071</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100">
-        <v>0.06399237532216603</v>
+        <v>2164.661143216009</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1810,13 +1810,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1.455835382191125</v>
+        <v>0.6840190759696725</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
       <c r="D101">
-        <v>0.05823341528764502</v>
+        <v>2164.655137644723</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1824,13 +1824,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1.324818245529592</v>
+        <v>0.5609032046950873</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="D102">
-        <v>0.05299272982118367</v>
+        <v>2164.650213009872</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1838,13 +1838,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>1.205591926915872</v>
+        <v>0.4599468291015398</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103">
-        <v>0.04822367707663489</v>
+        <v>2164.646174754848</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1852,13 +1852,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1.097095317904319</v>
+        <v>0.3771614849581155</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="D104">
-        <v>0.04388381271617277</v>
+        <v>2164.642863341083</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1866,13 +1866,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.9983628039436638</v>
+        <v>0.3092765874996459</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="D105">
-        <v>0.03993451215774656</v>
+        <v>2164.640147945184</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1880,13 +1880,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.9085156704544275</v>
+        <v>0.253610221059688</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106">
-        <v>0.0363406268181771</v>
+        <v>2164.637921290527</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1894,13 +1894,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.8267542823118177</v>
+        <v>0.207963185140926</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
       <c r="D107">
-        <v>0.03307017129247271</v>
+        <v>2164.63609540909</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1908,13 +1908,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.7523509671319601</v>
+        <v>0.1705321110215934</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="D108">
-        <v>0.03009403868527841</v>
+        <v>2164.634598166125</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1922,13 +1922,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.6846435390230141</v>
+        <v>0.1398382164120662</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109">
-        <v>0.02738574156092057</v>
+        <v>2164.633370410341</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1964,13 +1964,13 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.3609716597665624</v>
+        <v>0</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>0.0490921457282525</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1978,13 +1978,13 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.5905439512049142</v>
+        <v>-2.180366854212906</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113">
-        <v>0.08031397736386833</v>
+        <v>2164.331246989511</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2006,13 +2006,13 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.5373982600738145</v>
+        <v>0</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
       <c r="D115">
-        <v>0.07308616337003879</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2020,13 +2020,13 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.4890353873595998</v>
+        <v>0</v>
       </c>
       <c r="C116">
         <v>0</v>
       </c>
       <c r="D116">
-        <v>0.06650881268090558</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2034,13 +2034,13 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.4450249058437663</v>
+        <v>0</v>
       </c>
       <c r="C117">
         <v>0</v>
       </c>
       <c r="D117">
-        <v>0.06052338719475222</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2110,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2264,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2348,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2356,13 +2356,13 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>3.778614527936295</v>
       </c>
       <c r="C140">
         <v>0</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>2164.828043451665</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2370,13 +2370,13 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>3.268532898460316</v>
       </c>
       <c r="C141">
         <v>0</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>2164.801009125303</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2384,13 +2384,13 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>2.827308059431019</v>
       </c>
       <c r="C142">
         <v>0</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>2164.777624208834</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2398,13 +2398,13 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>2.445644915089915</v>
       </c>
       <c r="C143">
         <v>0</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>2164.757396062184</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2412,13 +2412,13 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>2.115503130532204</v>
       </c>
       <c r="C144">
         <v>0</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>2164.739898547602</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>2164.627776881684</v>
       </c>
     </row>
   </sheetData>
@@ -2442,7 +2442,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2470,110 +2470,110 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="B2">
-        <v>2012008998</v>
+        <v>2012000078</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3.778614527936295</v>
       </c>
       <c r="E2">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>57.03881439566239</v>
+        <v>36.16977026054121</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="B3">
-        <v>2012008998</v>
+        <v>2012000078</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>3.268532898460316</v>
       </c>
       <c r="E3">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>55.63729924414724</v>
+        <v>36.72396705797187</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="B4">
-        <v>2012008998</v>
+        <v>2012000078</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2.827308059431019</v>
       </c>
       <c r="E4">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>54.23578409263209</v>
+        <v>37.20335188307938</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="B5">
-        <v>2012008998</v>
+        <v>2012000078</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.445644915089915</v>
       </c>
       <c r="E5">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>52.83426894111695</v>
+        <v>37.61802373179593</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="B6">
-        <v>2012008998</v>
+        <v>2012000078</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2.115503130532204</v>
       </c>
       <c r="E6">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>51.4327537896018</v>
+        <v>37.97671831934245</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="B7">
-        <v>2012008998</v>
+        <v>2012000078</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2582,18 +2582,18 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>50.03123863808665</v>
+        <v>38.2869921118205</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B8">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2605,15 +2605,15 @@
         <v>7.4</v>
       </c>
       <c r="F8">
-        <v>48.6297234865715</v>
+        <v>27.78554815446736</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B9">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2625,15 +2625,15 @@
         <v>7.4</v>
       </c>
       <c r="F9">
-        <v>47.22820833505635</v>
+        <v>26.38403300295221</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B10">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2645,15 +2645,15 @@
         <v>7.4</v>
       </c>
       <c r="F10">
-        <v>45.8266931835412</v>
+        <v>24.98251785143706</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B11">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2665,15 +2665,15 @@
         <v>7.4</v>
       </c>
       <c r="F11">
-        <v>44.42517803202605</v>
+        <v>23.5810026999219</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B12">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2685,15 +2685,15 @@
         <v>7.4</v>
       </c>
       <c r="F12">
-        <v>43.0236628805109</v>
+        <v>22.17948754840675</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B13">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2705,15 +2705,15 @@
         <v>7.4</v>
       </c>
       <c r="F13">
-        <v>41.62214772899576</v>
+        <v>20.7779723968916</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B14">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2725,15 +2725,15 @@
         <v>7.4</v>
       </c>
       <c r="F14">
-        <v>40.22063257748061</v>
+        <v>19.37645724537645</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B15">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2745,15 +2745,15 @@
         <v>7.4</v>
       </c>
       <c r="F15">
-        <v>38.81911742596546</v>
+        <v>17.97494209386129</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B16">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2762,18 +2762,18 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F16">
-        <v>37.41760227445031</v>
+        <v>16.57342694234614</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B17">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2782,18 +2782,18 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F17">
-        <v>37.41760227445031</v>
+        <v>15.17191179083099</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B18">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2802,18 +2802,18 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F18">
-        <v>37.41760227445031</v>
+        <v>13.77039663931584</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B19">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2822,18 +2822,18 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F19">
-        <v>37.41760227445031</v>
+        <v>12.36888148780069</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B20">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2842,18 +2842,18 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F20">
-        <v>37.41760227445031</v>
+        <v>10.96736633628553</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B21">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2865,15 +2865,15 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>37.41760227445031</v>
+        <v>9.565851184770381</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B22">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2885,15 +2885,15 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>37.41760227445031</v>
+        <v>9.565851184770381</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B23">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2905,15 +2905,15 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>37.41760227445031</v>
+        <v>9.565851184770381</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B24">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2925,15 +2925,15 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>37.41760227445031</v>
+        <v>9.565851184770381</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B25">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2945,15 +2945,15 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>37.41760227445031</v>
+        <v>9.565851184770381</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B26">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2965,15 +2965,15 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>37.41760227445031</v>
+        <v>9.565851184770381</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B27">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2985,15 +2985,15 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>37.41760227445031</v>
+        <v>9.565851184770381</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B28">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -3005,15 +3005,15 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>37.41760227445031</v>
+        <v>9.565851184770381</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B29">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -3025,15 +3025,15 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>37.41760227445031</v>
+        <v>9.565851184770381</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B30">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3045,15 +3045,15 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>37.41760227445031</v>
+        <v>9.565851184770381</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B31">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3065,15 +3065,15 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>37.41760227445031</v>
+        <v>9.565851184770381</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B32">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3085,15 +3085,15 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>37.41760227445031</v>
+        <v>9.565851184770381</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B33">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3105,15 +3105,15 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>37.41760227445031</v>
+        <v>9.565851184770381</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B34">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3125,15 +3125,15 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>37.41760227445031</v>
+        <v>9.565851184770381</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B35">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3145,15 +3145,15 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>37.41760227445031</v>
+        <v>9.565851184770381</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B36">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3165,15 +3165,15 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>37.41760227445031</v>
+        <v>9.565851184770381</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B37">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3185,15 +3185,15 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>37.41760227445031</v>
+        <v>9.565851184770381</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B38">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -3205,15 +3205,15 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>37.41760227445031</v>
+        <v>9.565851184770381</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B39">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -3225,15 +3225,15 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>37.41760227445031</v>
+        <v>9.565851184770381</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B40">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -3245,15 +3245,15 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>37.41760227445031</v>
+        <v>9.565851184770381</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B41">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -3262,18 +3262,18 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F41">
-        <v>37.41760227445031</v>
+        <v>9.565851184770381</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B42">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3282,18 +3282,18 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1.41476607975698</v>
       </c>
       <c r="F42">
-        <v>37.41760227445031</v>
+        <v>8.164336033255228</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B43">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3305,15 +3305,15 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>37.41760227445031</v>
+        <v>7.896387912089135</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B44">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3325,15 +3325,15 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>37.41760227445031</v>
+        <v>7.896387912089135</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B45">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -3345,115 +3345,115 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>37.41760227445031</v>
+        <v>7.896387912089135</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B46">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>37.41760227445031</v>
+        <v>7.896387912089135</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B47">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>38.50293560778364</v>
+        <v>7.896387912089135</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B48">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>39.58826894111697</v>
+        <v>7.896387912089135</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B49">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>40.6736022744503</v>
+        <v>7.896387912089135</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B50">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>41.75893560778363</v>
+        <v>7.896387912089135</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B51">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3465,15 +3465,15 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>42.84426894111697</v>
+        <v>7.896387912089135</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B52">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -3485,15 +3485,15 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>43.9296022744503</v>
+        <v>8.981721245422468</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B53">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3505,15 +3505,15 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>45.01493560778363</v>
+        <v>10.0670545787558</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B54">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -3525,15 +3525,15 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>46.10026894111696</v>
+        <v>11.15238791208913</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B55">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -3545,707 +3545,927 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>47.18560227445029</v>
+        <v>12.23772124542247</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B56">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56">
-        <v>7.233754270514197</v>
+        <v>7.4</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>48.27093560778362</v>
+        <v>13.3230545787558</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B57">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57">
-        <v>6.582756373753718</v>
+        <v>7.4</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>49.3318862341257</v>
+        <v>14.40838791208913</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B58">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58">
-        <v>5.990344689040004</v>
+        <v>7.4</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>50.29735716894292</v>
+        <v>15.49372124542247</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B59">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59">
-        <v>5.451246781148509</v>
+        <v>7.4</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>51.17594105666878</v>
+        <v>16.5790545787558</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B60">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60">
-        <v>4.960664704879314</v>
+        <v>7.4</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>51.97545725123723</v>
+        <v>17.66438791208913</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B61">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61">
-        <v>4.514232303577849</v>
+        <v>7.4</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>52.70302140795286</v>
+        <v>18.74972124542247</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B62">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62">
-        <v>4.107976350552711</v>
+        <v>7.4</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>53.36510881247762</v>
+        <v>19.8350545787558</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B63">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63">
-        <v>3.73828118755106</v>
+        <v>7.4</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>53.96761201055868</v>
+        <v>20.92038791208914</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B64">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64">
-        <v>3.401856545575761</v>
+        <v>7.4</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>54.5158932513995</v>
+        <v>22.00572124542247</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B65">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65">
-        <v>3.09570826165109</v>
+        <v>7.4</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>55.01483221141729</v>
+        <v>23.09105457875581</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B66">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66">
-        <v>2.817111630917644</v>
+        <v>7.4</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>55.46886942312612</v>
+        <v>24.17638791208914</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B67">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67">
-        <v>2.563587156891444</v>
+        <v>6.068081813156443</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>55.8820457956607</v>
+        <v>25.26172124542247</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B68">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68">
-        <v>2.332878484065617</v>
+        <v>4.975894174481077</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>56.25803857867145</v>
+        <v>26.15170657801875</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B69">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69">
-        <v>2.122932316455952</v>
+        <v>4.080288235724282</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>56.60019408966774</v>
+        <v>26.88150439027598</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B70">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70">
-        <v>1.931880143366385</v>
+        <v>3.345881464274953</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>56.91155749608128</v>
+        <v>27.47994666484887</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B71">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71">
-        <v>1.758021609734513</v>
+        <v>2.743659792208661</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>57.19489991710835</v>
+        <v>27.97067594627587</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B72">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72">
-        <v>1.599809383054151</v>
+        <v>2.249831363052699</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>57.45274308653608</v>
+        <v>28.37307938246647</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B73">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73">
-        <v>1.455835382191125</v>
+        <v>1.844886591460678</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>57.68738179605069</v>
+        <v>28.70305464904753</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B74">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74">
-        <v>1.324818245529592</v>
+        <v>1.512827401753881</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>57.90090431877205</v>
+        <v>28.9736380157951</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B75">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75">
-        <v>1.205591926915872</v>
+        <v>1.240535195003709</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>58.09521099478306</v>
+        <v>29.19551936805233</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B76">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76">
-        <v>1.097095317904319</v>
+        <v>1.017252575051685</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>58.27203114406405</v>
+        <v>29.37746452998621</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B77">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77">
-        <v>0.9983628039436638</v>
+        <v>0.8341583581159071</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>58.43293845735668</v>
+        <v>29.52666157432713</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B78">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78">
-        <v>0.9085156704544275</v>
+        <v>0.6840190759696725</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>58.57936500193509</v>
+        <v>29.64900480018413</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B79">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
       <c r="D79">
-        <v>0.8267542823118177</v>
+        <v>0.5609032046950873</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>58.71261396693507</v>
+        <v>29.74932759799301</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B80">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80">
-        <v>0.7523509671319601</v>
+        <v>0.4599468291015398</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>58.83387126167414</v>
+        <v>29.83159340134829</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B81">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81">
-        <v>0.6846435390230141</v>
+        <v>0.3771614849581155</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>58.94421607018683</v>
+        <v>29.89905226961652</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B82">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.3092765874996459</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>59.0446304559102</v>
+        <v>29.95436928741038</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B83">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>0.253610221059688</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>59.0446304559102</v>
+        <v>29.99972985357699</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B84">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84">
-        <v>0.3609716597665624</v>
+        <v>0.207963185140926</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>59.0446304559102</v>
+        <v>30.03692601933241</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B85">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85">
-        <v>0.5905439512049142</v>
+        <v>0.1705321110215934</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>59.0975729660093</v>
+        <v>30.06742728648641</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B86">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>0.1398382164120662</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>59.18418607885268</v>
+        <v>30.09243866276958</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B87">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87">
-        <v>0.5373982600738145</v>
+        <v>0</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
-        <v>59.18418607885268</v>
+        <v>30.11294826784335</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B88">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88">
-        <v>0.4890353873595998</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88">
-        <v>59.26300449033018</v>
+        <v>30.11294826784335</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B89">
-        <v>2012008998</v>
+        <v>2015008910</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89">
-        <v>0.4450249058437663</v>
+        <v>0</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>59.33472968047624</v>
+        <v>30.11294826784335</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
+        <v>111</v>
+      </c>
+      <c r="B90">
+        <v>2015008910</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>2.180366854212906</v>
+      </c>
+      <c r="F90">
+        <v>30.11294826784335</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>112</v>
+      </c>
+      <c r="B91">
+        <v>2015008910</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>113</v>
+      </c>
+      <c r="B92">
+        <v>2015008910</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>114</v>
+      </c>
+      <c r="B93">
+        <v>2015008910</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>115</v>
+      </c>
+      <c r="B94">
+        <v>2015008910</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
         <v>116</v>
       </c>
-      <c r="B90">
-        <v>2012008998</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>59.4</v>
+      <c r="B95">
+        <v>2015008910</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>117</v>
+      </c>
+      <c r="B96">
+        <v>2015008910</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>118</v>
+      </c>
+      <c r="B97">
+        <v>2015008910</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>119</v>
+      </c>
+      <c r="B98">
+        <v>2015008910</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>120</v>
+      </c>
+      <c r="B99">
+        <v>2015008910</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>121</v>
+      </c>
+      <c r="B100">
+        <v>2015008910</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>122</v>
+      </c>
+      <c r="B101">
+        <v>2015008910</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>29.7</v>
       </c>
     </row>
   </sheetData>
